--- a/Documentacion/Matriz.xlsx
+++ b/Documentacion/Matriz.xlsx
@@ -1,113 +1,137 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="20115" windowHeight="8520"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Hoja2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Hoja3" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
-    <t>Casos de prueba</t>
+    <t xml:space="preserve">Casos de prueba</t>
   </si>
   <si>
-    <t>2.1</t>
+    <t xml:space="preserve">Requerimientos</t>
   </si>
   <si>
-    <t>2.2</t>
+    <t xml:space="preserve">Funcionales</t>
   </si>
   <si>
-    <t>2.3</t>
+    <t xml:space="preserve">2.1</t>
   </si>
   <si>
-    <t>2.5</t>
+    <t xml:space="preserve">2.2</t>
   </si>
   <si>
-    <t>2.6</t>
+    <t xml:space="preserve">2.3</t>
   </si>
   <si>
-    <t>3.1</t>
+    <t xml:space="preserve">2.4</t>
   </si>
   <si>
-    <t>3.2</t>
+    <t xml:space="preserve">2.5</t>
   </si>
   <si>
-    <t>3.3</t>
+    <t xml:space="preserve">2.6</t>
   </si>
   <si>
-    <t>3.4</t>
+    <t xml:space="preserve">3.1</t>
   </si>
   <si>
-    <t>3.5</t>
+    <t xml:space="preserve">3.2</t>
   </si>
   <si>
-    <t>3.6</t>
+    <t xml:space="preserve">3.3</t>
   </si>
   <si>
-    <t>4.1</t>
+    <t xml:space="preserve">3.4</t>
   </si>
   <si>
-    <t>4.2</t>
+    <t xml:space="preserve">3.5</t>
   </si>
   <si>
-    <t>4.3</t>
+    <t xml:space="preserve">3.6</t>
   </si>
   <si>
-    <t>4.4</t>
+    <t xml:space="preserve">4.1</t>
   </si>
   <si>
-    <t>4.5</t>
+    <t xml:space="preserve">4.2</t>
   </si>
   <si>
-    <t>4.6</t>
+    <t xml:space="preserve">4.3</t>
   </si>
   <si>
-    <t>Funcionales</t>
+    <t xml:space="preserve">4.4</t>
   </si>
   <si>
-    <t>No Funcionales</t>
+    <t xml:space="preserve">4.5</t>
   </si>
   <si>
-    <t>Requerimientos</t>
+    <t xml:space="preserve">4.6</t>
   </si>
   <si>
-    <t>2.4</t>
+    <t xml:space="preserve">No Funcionales</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="6">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="14">
@@ -119,3538 +143,3277 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFFDEADA"/>
+        <bgColor rgb="FFF2DCDB"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFB7DEE8"/>
+        <bgColor rgb="FFC6D9F1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFC6D9F1"/>
+        <bgColor rgb="FFB7DEE8"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFDDD9C3"/>
+        <bgColor rgb="FFD7E4BD"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FF993300"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFD7E4BD"/>
+        <bgColor rgb="FFDDD9C3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCD5B5"/>
+        <bgColor rgb="FFF2DCDB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC4BD97"/>
+        <bgColor rgb="FFC3D69B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2DCDB"/>
+        <bgColor rgb="FFFDEADA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6B9B8"/>
+        <bgColor rgb="FFC4BD97"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC3D69B"/>
+        <bgColor rgb="FFD7E4BD"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
-    <border>
+  <borders count="4">
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
       <top/>
-      <bottom/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="31">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+  <cellXfs count="23">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFF2DCDB"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC4BD97"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFDEADA"/>
+      <rgbColor rgb="FFDDD9C3"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFC6D9F1"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFD7E4BD"/>
+      <rgbColor rgb="FFC3D69B"/>
+      <rgbColor rgb="FFB7DEE8"/>
+      <rgbColor rgb="FFE6B9B8"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFCD5B5"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFC000"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="B4:CW145"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="DA105" sqref="DA105"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AR64" colorId="64" zoomScale="28" zoomScaleNormal="28" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="CJ150" activeCellId="0" sqref="CJ150"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="3" max="3" width="4.7109375" customWidth="1"/>
-    <col min="4" max="4" width="4.5703125" customWidth="1"/>
-    <col min="5" max="5" width="3.85546875" customWidth="1"/>
-    <col min="6" max="6" width="3.140625" hidden="1" customWidth="1"/>
-    <col min="7" max="8" width="4" customWidth="1"/>
-    <col min="9" max="9" width="4.42578125" customWidth="1"/>
-    <col min="10" max="10" width="4.140625" customWidth="1"/>
-    <col min="11" max="11" width="5.140625" customWidth="1"/>
-    <col min="12" max="12" width="4.42578125" customWidth="1"/>
-    <col min="13" max="13" width="4.5703125" customWidth="1"/>
-    <col min="14" max="14" width="5" customWidth="1"/>
-    <col min="15" max="15" width="5.7109375" customWidth="1"/>
-    <col min="16" max="16" width="4.28515625" customWidth="1"/>
-    <col min="17" max="17" width="5" customWidth="1"/>
-    <col min="18" max="19" width="4.28515625" customWidth="1"/>
-    <col min="20" max="20" width="5" customWidth="1"/>
-    <col min="21" max="21" width="5.42578125" customWidth="1"/>
-    <col min="22" max="22" width="5.85546875" customWidth="1"/>
-    <col min="23" max="23" width="6.140625" customWidth="1"/>
-    <col min="24" max="24" width="6" customWidth="1"/>
-    <col min="25" max="25" width="5.5703125" customWidth="1"/>
-    <col min="26" max="26" width="6" customWidth="1"/>
-    <col min="27" max="27" width="5.7109375" customWidth="1"/>
-    <col min="28" max="33" width="5.28515625" customWidth="1"/>
-    <col min="34" max="34" width="5.42578125" customWidth="1"/>
-    <col min="35" max="35" width="5" customWidth="1"/>
-    <col min="36" max="36" width="4.85546875" customWidth="1"/>
-    <col min="37" max="37" width="5.7109375" customWidth="1"/>
-    <col min="38" max="38" width="4.7109375" customWidth="1"/>
-    <col min="39" max="39" width="5.5703125" customWidth="1"/>
-    <col min="40" max="40" width="5" customWidth="1"/>
-    <col min="41" max="41" width="5.140625" customWidth="1"/>
-    <col min="42" max="42" width="5.5703125" customWidth="1"/>
-    <col min="43" max="43" width="4.7109375" customWidth="1"/>
-    <col min="44" max="44" width="5.28515625" customWidth="1"/>
-    <col min="45" max="45" width="5.5703125" customWidth="1"/>
-    <col min="46" max="46" width="4.85546875" customWidth="1"/>
-    <col min="47" max="47" width="5.85546875" customWidth="1"/>
-    <col min="48" max="48" width="5.7109375" customWidth="1"/>
-    <col min="49" max="49" width="5.140625" customWidth="1"/>
-    <col min="50" max="50" width="6.5703125" customWidth="1"/>
-    <col min="51" max="51" width="5.42578125" customWidth="1"/>
-    <col min="52" max="52" width="6.140625" customWidth="1"/>
-    <col min="53" max="53" width="5.7109375" customWidth="1"/>
-    <col min="54" max="54" width="4.85546875" customWidth="1"/>
-    <col min="55" max="55" width="5.85546875" customWidth="1"/>
-    <col min="56" max="56" width="6.140625" customWidth="1"/>
-    <col min="57" max="57" width="5.42578125" customWidth="1"/>
-    <col min="58" max="58" width="5.7109375" customWidth="1"/>
-    <col min="59" max="61" width="5.140625" customWidth="1"/>
-    <col min="62" max="62" width="4.85546875" customWidth="1"/>
-    <col min="63" max="64" width="5.5703125" customWidth="1"/>
-    <col min="65" max="65" width="5.42578125" customWidth="1"/>
-    <col min="66" max="67" width="4.7109375" customWidth="1"/>
-    <col min="68" max="68" width="5" customWidth="1"/>
-    <col min="69" max="69" width="5.42578125" customWidth="1"/>
-    <col min="70" max="70" width="5.5703125" customWidth="1"/>
-    <col min="71" max="71" width="5.42578125" customWidth="1"/>
-    <col min="72" max="72" width="5" customWidth="1"/>
-    <col min="73" max="73" width="5.5703125" customWidth="1"/>
-    <col min="74" max="74" width="5" customWidth="1"/>
-    <col min="75" max="75" width="5.7109375" customWidth="1"/>
-    <col min="76" max="76" width="4.85546875" customWidth="1"/>
-    <col min="77" max="77" width="5.85546875" customWidth="1"/>
-    <col min="78" max="78" width="5.42578125" customWidth="1"/>
-    <col min="79" max="80" width="5.85546875" customWidth="1"/>
-    <col min="81" max="81" width="5.5703125" customWidth="1"/>
-    <col min="82" max="82" width="5.140625" customWidth="1"/>
-    <col min="83" max="83" width="5.5703125" customWidth="1"/>
-    <col min="84" max="84" width="5.7109375" customWidth="1"/>
-    <col min="85" max="85" width="5.85546875" customWidth="1"/>
-    <col min="86" max="87" width="5.5703125" customWidth="1"/>
-    <col min="88" max="88" width="5.140625" customWidth="1"/>
-    <col min="89" max="89" width="5.7109375" customWidth="1"/>
-    <col min="90" max="90" width="5.42578125" customWidth="1"/>
-    <col min="91" max="91" width="6.140625" customWidth="1"/>
-    <col min="92" max="92" width="6.5703125" customWidth="1"/>
-    <col min="93" max="93" width="5.7109375" customWidth="1"/>
-    <col min="94" max="94" width="5.42578125" customWidth="1"/>
-    <col min="95" max="96" width="6" customWidth="1"/>
-    <col min="97" max="97" width="6.42578125" customWidth="1"/>
-    <col min="98" max="98" width="5.140625" customWidth="1"/>
-    <col min="99" max="99" width="6.140625" customWidth="1"/>
-    <col min="100" max="100" width="5.85546875" customWidth="1"/>
-    <col min="101" max="101" width="6.28515625" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="4.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="4.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="3.86"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="6" min="6" style="0" width="3.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="4.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="4.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="5.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="4.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="4.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="5.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="4.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="18" style="0" width="4.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="5.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="5.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="6.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="5.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="5.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="28" style="0" width="5.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="5.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="4.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="5.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="4.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="5.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="5.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="0" width="5.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="0" width="4.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="0" width="5.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="0" width="5.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="0" width="4.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="0" width="5.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="0" width="5.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="0" width="5.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="0" width="6.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="0" width="5.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="0" width="6.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="0" width="5.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="0" width="4.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="55" style="0" width="5.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="0" width="6.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="57" style="0" width="5.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="0" width="5.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="59" style="0" width="5.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="62" style="0" width="4.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="63" style="0" width="5.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="65" style="0" width="5.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="67" min="66" style="0" width="4.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="68" min="68" style="0" width="5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="69" min="69" style="0" width="5.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="70" min="70" style="0" width="5.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="71" min="71" style="0" width="5.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="72" min="72" style="0" width="5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="73" min="73" style="0" width="5.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="74" min="74" style="0" width="5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="75" min="75" style="0" width="5.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="76" min="76" style="0" width="4.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="77" min="77" style="0" width="5.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="78" min="78" style="0" width="5.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="80" min="79" style="0" width="5.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="81" min="81" style="0" width="5.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="82" min="82" style="0" width="5.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="83" min="83" style="0" width="5.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="84" min="84" style="0" width="5.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="85" min="85" style="0" width="5.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="87" min="86" style="0" width="5.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="88" min="88" style="0" width="5.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="89" min="89" style="0" width="5.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="90" min="90" style="0" width="5.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="91" min="91" style="0" width="6.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="92" min="92" style="0" width="6.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="93" min="93" style="0" width="5.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="94" min="94" style="0" width="5.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="96" min="95" style="0" width="6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="97" min="97" style="0" width="6.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="98" min="98" style="0" width="5.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="99" min="99" style="0" width="6.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="100" min="100" style="0" width="5.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="101" min="101" style="0" width="6.28"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:73" x14ac:dyDescent="0.25">
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="28"/>
-      <c r="S4" s="28"/>
-      <c r="T4" s="28"/>
-      <c r="U4" s="28"/>
-      <c r="V4" s="28"/>
-      <c r="W4" s="28"/>
-      <c r="X4" s="28"/>
-      <c r="Y4" s="28"/>
-      <c r="Z4" s="28"/>
-      <c r="AA4" s="28"/>
-      <c r="AB4" s="28"/>
-      <c r="AC4" s="28"/>
-      <c r="AD4" s="28"/>
-      <c r="AE4" s="28"/>
-      <c r="AF4" s="28"/>
-      <c r="AG4" s="28"/>
-      <c r="AH4" s="28"/>
-      <c r="AI4" s="28"/>
-      <c r="AJ4" s="28"/>
-      <c r="AK4" s="28"/>
-      <c r="AL4" s="28"/>
-      <c r="AM4" s="28"/>
-      <c r="AN4" s="28"/>
-      <c r="AO4" s="28"/>
-      <c r="AP4" s="28"/>
-      <c r="AQ4" s="28"/>
-      <c r="AR4" s="28"/>
-      <c r="AS4" s="28"/>
-      <c r="AT4" s="28"/>
-      <c r="AU4" s="28"/>
-      <c r="AV4" s="28"/>
-      <c r="AW4" s="28"/>
-      <c r="AX4" s="28"/>
-      <c r="AY4" s="28"/>
-      <c r="AZ4" s="28"/>
-      <c r="BA4" s="28"/>
-      <c r="BB4" s="28"/>
-      <c r="BC4" s="28"/>
-      <c r="BD4" s="28"/>
-      <c r="BE4" s="28"/>
-      <c r="BF4" s="28"/>
-      <c r="BG4" s="28"/>
-      <c r="BH4" s="28"/>
-      <c r="BI4" s="28"/>
-      <c r="BJ4" s="28"/>
-      <c r="BK4" s="28"/>
-      <c r="BL4" s="28"/>
-      <c r="BM4" s="28"/>
-    </row>
-    <row r="5" spans="3:73" x14ac:dyDescent="0.25">
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="28"/>
-      <c r="S5" s="28"/>
-      <c r="T5" s="28"/>
-      <c r="U5" s="28"/>
-      <c r="V5" s="28"/>
-      <c r="W5" s="28"/>
-      <c r="X5" s="28"/>
-      <c r="Y5" s="28"/>
-      <c r="Z5" s="28"/>
-      <c r="AA5" s="28"/>
-      <c r="AB5" s="28"/>
-      <c r="AC5" s="28"/>
-      <c r="AD5" s="28"/>
-      <c r="AE5" s="28"/>
-      <c r="AF5" s="28"/>
-      <c r="AG5" s="28"/>
-      <c r="AH5" s="28"/>
-      <c r="AI5" s="28"/>
-      <c r="AJ5" s="28"/>
-      <c r="AK5" s="28"/>
-      <c r="AL5" s="28"/>
-      <c r="AM5" s="28"/>
-      <c r="AN5" s="28"/>
-      <c r="AO5" s="28"/>
-      <c r="AP5" s="28"/>
-      <c r="AQ5" s="28"/>
-      <c r="AR5" s="28"/>
-      <c r="AS5" s="28"/>
-      <c r="AT5" s="28"/>
-      <c r="AU5" s="28"/>
-      <c r="AV5" s="28"/>
-      <c r="AW5" s="28"/>
-      <c r="AX5" s="28"/>
-      <c r="AY5" s="28"/>
-      <c r="AZ5" s="28"/>
-      <c r="BA5" s="28"/>
-      <c r="BB5" s="28"/>
-      <c r="BC5" s="28"/>
-      <c r="BD5" s="28"/>
-      <c r="BE5" s="28"/>
-      <c r="BF5" s="28"/>
-      <c r="BG5" s="28"/>
-      <c r="BH5" s="28"/>
-      <c r="BI5" s="28"/>
-      <c r="BJ5" s="28"/>
-      <c r="BK5" s="28"/>
-      <c r="BL5" s="28"/>
-      <c r="BM5" s="28"/>
-    </row>
-    <row r="6" spans="3:73" x14ac:dyDescent="0.25">
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="28"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="28"/>
-      <c r="U6" s="28"/>
-      <c r="V6" s="28"/>
-      <c r="W6" s="28"/>
-      <c r="X6" s="28"/>
-      <c r="Y6" s="28"/>
-      <c r="Z6" s="28"/>
-      <c r="AA6" s="28"/>
-      <c r="AB6" s="28"/>
-      <c r="AC6" s="28"/>
-      <c r="AD6" s="28"/>
-      <c r="AE6" s="28"/>
-      <c r="AF6" s="28"/>
-      <c r="AG6" s="28"/>
-      <c r="AH6" s="28"/>
-      <c r="AI6" s="28"/>
-      <c r="AJ6" s="28"/>
-      <c r="AK6" s="28"/>
-      <c r="AL6" s="28"/>
-      <c r="AM6" s="28"/>
-      <c r="AN6" s="28"/>
-      <c r="AO6" s="28"/>
-      <c r="AP6" s="28"/>
-      <c r="AQ6" s="28"/>
-      <c r="AR6" s="28"/>
-      <c r="AS6" s="28"/>
-      <c r="AT6" s="28"/>
-      <c r="AU6" s="28"/>
-      <c r="AV6" s="28"/>
-      <c r="AW6" s="28"/>
-      <c r="AX6" s="28"/>
-      <c r="AY6" s="28"/>
-      <c r="AZ6" s="28"/>
-      <c r="BA6" s="28"/>
-      <c r="BB6" s="28"/>
-      <c r="BC6" s="28"/>
-      <c r="BD6" s="28"/>
-      <c r="BE6" s="28"/>
-      <c r="BF6" s="28"/>
-      <c r="BG6" s="28"/>
-      <c r="BH6" s="28"/>
-      <c r="BI6" s="28"/>
-      <c r="BJ6" s="28"/>
-      <c r="BK6" s="28"/>
-      <c r="BL6" s="28"/>
-      <c r="BM6" s="28"/>
-    </row>
-    <row r="7" spans="3:73" x14ac:dyDescent="0.25">
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="28"/>
-      <c r="U7" s="28"/>
-      <c r="V7" s="28"/>
-      <c r="W7" s="28"/>
-      <c r="X7" s="28"/>
-      <c r="Y7" s="28"/>
-      <c r="Z7" s="28"/>
-      <c r="AA7" s="28"/>
-      <c r="AB7" s="28"/>
-      <c r="AC7" s="28"/>
-      <c r="AD7" s="28"/>
-      <c r="AE7" s="28"/>
-      <c r="AF7" s="28"/>
-      <c r="AG7" s="28"/>
-      <c r="AH7" s="28"/>
-      <c r="AI7" s="28"/>
-      <c r="AJ7" s="28"/>
-      <c r="AK7" s="28"/>
-      <c r="AL7" s="28"/>
-      <c r="AM7" s="28"/>
-      <c r="AN7" s="28"/>
-      <c r="AO7" s="28"/>
-      <c r="AP7" s="28"/>
-      <c r="AQ7" s="28"/>
-      <c r="AR7" s="28"/>
-      <c r="AS7" s="28"/>
-      <c r="AT7" s="28"/>
-      <c r="AU7" s="28"/>
-      <c r="AV7" s="28"/>
-      <c r="AW7" s="28"/>
-      <c r="AX7" s="28"/>
-      <c r="AY7" s="28"/>
-      <c r="AZ7" s="28"/>
-      <c r="BA7" s="28"/>
-      <c r="BB7" s="28"/>
-      <c r="BC7" s="28"/>
-      <c r="BD7" s="28"/>
-      <c r="BE7" s="28"/>
-      <c r="BF7" s="28"/>
-      <c r="BG7" s="28"/>
-      <c r="BH7" s="28"/>
-      <c r="BI7" s="28"/>
-      <c r="BJ7" s="28"/>
-      <c r="BK7" s="28"/>
-      <c r="BL7" s="28"/>
-      <c r="BM7" s="28"/>
-    </row>
-    <row r="8" spans="3:73" x14ac:dyDescent="0.25">
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="28"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="28"/>
-      <c r="U8" s="28"/>
-      <c r="V8" s="28"/>
-      <c r="W8" s="28"/>
-      <c r="X8" s="28"/>
-      <c r="Y8" s="28"/>
-      <c r="Z8" s="28"/>
-      <c r="AA8" s="28"/>
-      <c r="AB8" s="28"/>
-      <c r="AC8" s="28"/>
-      <c r="AD8" s="28"/>
-      <c r="AE8" s="28"/>
-      <c r="AF8" s="28"/>
-      <c r="AG8" s="28"/>
-      <c r="AH8" s="28"/>
-      <c r="AI8" s="28"/>
-      <c r="AJ8" s="28"/>
-      <c r="AK8" s="28"/>
-      <c r="AL8" s="28"/>
-      <c r="AM8" s="28"/>
-      <c r="AN8" s="28"/>
-      <c r="AO8" s="28"/>
-      <c r="AP8" s="28"/>
-      <c r="AQ8" s="28"/>
-      <c r="AR8" s="28"/>
-      <c r="AS8" s="28"/>
-      <c r="AT8" s="28"/>
-      <c r="AU8" s="28"/>
-      <c r="AV8" s="28"/>
-      <c r="AW8" s="28"/>
-      <c r="AX8" s="28"/>
-      <c r="AY8" s="28"/>
-      <c r="AZ8" s="28"/>
-      <c r="BA8" s="28"/>
-      <c r="BB8" s="28"/>
-      <c r="BC8" s="28"/>
-      <c r="BD8" s="28"/>
-      <c r="BE8" s="28"/>
-      <c r="BF8" s="28"/>
-      <c r="BG8" s="28"/>
-      <c r="BH8" s="28"/>
-      <c r="BI8" s="28"/>
-      <c r="BJ8" s="28"/>
-      <c r="BK8" s="28"/>
-      <c r="BL8" s="28"/>
-      <c r="BM8" s="28"/>
-    </row>
-    <row r="9" spans="3:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="28"/>
-      <c r="S9" s="28"/>
-      <c r="T9" s="28"/>
-      <c r="U9" s="28"/>
-      <c r="V9" s="28"/>
-      <c r="W9" s="28"/>
-      <c r="X9" s="28"/>
-      <c r="Y9" s="28"/>
-      <c r="Z9" s="28"/>
-      <c r="AA9" s="28"/>
-      <c r="AB9" s="28"/>
-      <c r="AC9" s="28"/>
-      <c r="AD9" s="28"/>
-      <c r="AE9" s="28"/>
-      <c r="AF9" s="28"/>
-      <c r="AG9" s="28"/>
-      <c r="AH9" s="28"/>
-      <c r="AI9" s="28"/>
-      <c r="AJ9" s="28"/>
-      <c r="AK9" s="28"/>
-      <c r="AL9" s="28"/>
-      <c r="AM9" s="28"/>
-      <c r="AN9" s="28"/>
-      <c r="AO9" s="28"/>
-      <c r="AP9" s="28"/>
-      <c r="AQ9" s="28"/>
-      <c r="AR9" s="28"/>
-      <c r="AS9" s="28"/>
-      <c r="AT9" s="28"/>
-      <c r="AU9" s="28"/>
-      <c r="AV9" s="28"/>
-      <c r="AW9" s="28"/>
-      <c r="AX9" s="28"/>
-      <c r="AY9" s="28"/>
-      <c r="AZ9" s="28"/>
-      <c r="BA9" s="28"/>
-      <c r="BB9" s="28"/>
-      <c r="BC9" s="28"/>
-      <c r="BD9" s="28"/>
-      <c r="BE9" s="28"/>
-      <c r="BF9" s="28"/>
-      <c r="BG9" s="28"/>
-      <c r="BH9" s="28"/>
-      <c r="BI9" s="28"/>
-      <c r="BJ9" s="28"/>
-      <c r="BK9" s="28"/>
-      <c r="BL9" s="28"/>
-      <c r="BM9" s="28"/>
-    </row>
-    <row r="10" spans="3:73" x14ac:dyDescent="0.25">
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="28"/>
-      <c r="S10" s="28"/>
-      <c r="T10" s="28"/>
-      <c r="U10" s="28"/>
-      <c r="V10" s="28"/>
-      <c r="W10" s="28"/>
-      <c r="X10" s="28"/>
-      <c r="Y10" s="28"/>
-      <c r="Z10" s="28"/>
-      <c r="AA10" s="28"/>
-      <c r="AB10" s="28"/>
-      <c r="AC10" s="28"/>
-      <c r="AD10" s="28"/>
-      <c r="AE10" s="28"/>
-      <c r="AF10" s="28"/>
-      <c r="AG10" s="28"/>
-      <c r="AH10" s="28"/>
-      <c r="AI10" s="28"/>
-      <c r="AJ10" s="28"/>
-      <c r="AK10" s="28"/>
-      <c r="AL10" s="28"/>
-      <c r="AM10" s="28"/>
-      <c r="AN10" s="28"/>
-      <c r="AO10" s="28"/>
-      <c r="AP10" s="28"/>
-      <c r="AQ10" s="28"/>
-      <c r="AR10" s="28"/>
-      <c r="AS10" s="28"/>
-      <c r="AT10" s="28"/>
-      <c r="AU10" s="28"/>
-      <c r="AV10" s="28"/>
-      <c r="AW10" s="28"/>
-      <c r="AX10" s="28"/>
-      <c r="AY10" s="28"/>
-      <c r="AZ10" s="28"/>
-      <c r="BA10" s="28"/>
-      <c r="BB10" s="28"/>
-      <c r="BC10" s="28"/>
-      <c r="BD10" s="28"/>
-      <c r="BE10" s="28"/>
-      <c r="BF10" s="28"/>
-      <c r="BG10" s="28"/>
-      <c r="BH10" s="28"/>
-      <c r="BI10" s="28"/>
-      <c r="BJ10" s="28"/>
-      <c r="BK10" s="28"/>
-      <c r="BL10" s="28"/>
-      <c r="BM10" s="28"/>
-      <c r="BN10" s="5"/>
-      <c r="BO10" s="5"/>
-      <c r="BP10" s="5"/>
-      <c r="BQ10" s="5"/>
-      <c r="BR10" s="5"/>
-      <c r="BS10" s="5"/>
-      <c r="BT10" s="5"/>
-      <c r="BU10" s="5"/>
-    </row>
-    <row r="11" spans="3:73" x14ac:dyDescent="0.25">
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="28"/>
-      <c r="S11" s="28"/>
-      <c r="T11" s="28"/>
-      <c r="U11" s="28"/>
-      <c r="V11" s="28"/>
-      <c r="W11" s="28"/>
-      <c r="X11" s="28"/>
-      <c r="Y11" s="28"/>
-      <c r="Z11" s="28"/>
-      <c r="AA11" s="28"/>
-      <c r="AB11" s="28"/>
-      <c r="AC11" s="28"/>
-      <c r="AD11" s="28"/>
-      <c r="AE11" s="28"/>
-      <c r="AF11" s="28"/>
-      <c r="AG11" s="28"/>
-      <c r="AH11" s="28"/>
-      <c r="AI11" s="28"/>
-      <c r="AJ11" s="28"/>
-      <c r="AK11" s="28"/>
-      <c r="AL11" s="28"/>
-      <c r="AM11" s="28"/>
-      <c r="AN11" s="28"/>
-      <c r="AO11" s="28"/>
-      <c r="AP11" s="28"/>
-      <c r="AQ11" s="28"/>
-      <c r="AR11" s="28"/>
-      <c r="AS11" s="28"/>
-      <c r="AT11" s="28"/>
-      <c r="AU11" s="28"/>
-      <c r="AV11" s="28"/>
-      <c r="AW11" s="28"/>
-      <c r="AX11" s="28"/>
-      <c r="AY11" s="28"/>
-      <c r="AZ11" s="28"/>
-      <c r="BA11" s="28"/>
-      <c r="BB11" s="28"/>
-      <c r="BC11" s="28"/>
-      <c r="BD11" s="28"/>
-      <c r="BE11" s="28"/>
-      <c r="BF11" s="28"/>
-      <c r="BG11" s="28"/>
-      <c r="BH11" s="28"/>
-      <c r="BI11" s="28"/>
-      <c r="BJ11" s="28"/>
-      <c r="BK11" s="28"/>
-      <c r="BL11" s="28"/>
-      <c r="BM11" s="28"/>
-      <c r="BN11" s="5"/>
-      <c r="BO11" s="5"/>
-      <c r="BP11" s="5"/>
-      <c r="BQ11" s="5"/>
-      <c r="BR11" s="5"/>
-      <c r="BS11" s="5"/>
-      <c r="BT11" s="5"/>
-      <c r="BU11" s="5"/>
-    </row>
-    <row r="12" spans="3:73" x14ac:dyDescent="0.25">
-      <c r="C12" s="5"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="28"/>
-      <c r="R12" s="28"/>
-      <c r="S12" s="28"/>
-      <c r="T12" s="28"/>
-      <c r="U12" s="28"/>
-      <c r="V12" s="28"/>
-      <c r="W12" s="28"/>
-      <c r="X12" s="28"/>
-      <c r="Y12" s="28"/>
-      <c r="Z12" s="28"/>
-      <c r="AA12" s="28"/>
-      <c r="AB12" s="28"/>
-      <c r="AC12" s="28"/>
-      <c r="AD12" s="28"/>
-      <c r="AE12" s="28"/>
-      <c r="AF12" s="28"/>
-      <c r="AG12" s="28"/>
-      <c r="AH12" s="28"/>
-      <c r="AI12" s="28"/>
-      <c r="AJ12" s="28"/>
-      <c r="AK12" s="28"/>
-      <c r="AL12" s="28"/>
-      <c r="AM12" s="28"/>
-      <c r="AN12" s="28"/>
-      <c r="AO12" s="28"/>
-      <c r="AP12" s="28"/>
-      <c r="AQ12" s="28"/>
-      <c r="AR12" s="28"/>
-      <c r="AS12" s="28"/>
-      <c r="AT12" s="28"/>
-      <c r="AU12" s="28"/>
-      <c r="AV12" s="28"/>
-      <c r="AW12" s="28"/>
-      <c r="AX12" s="28"/>
-      <c r="AY12" s="28"/>
-      <c r="AZ12" s="28"/>
-      <c r="BA12" s="28"/>
-      <c r="BB12" s="28"/>
-      <c r="BC12" s="28"/>
-      <c r="BD12" s="28"/>
-      <c r="BE12" s="28"/>
-      <c r="BF12" s="28"/>
-      <c r="BG12" s="28"/>
-      <c r="BH12" s="28"/>
-      <c r="BI12" s="28"/>
-      <c r="BJ12" s="28"/>
-      <c r="BK12" s="28"/>
-      <c r="BL12" s="28"/>
-      <c r="BM12" s="28"/>
-      <c r="BN12" s="5"/>
-      <c r="BO12" s="5"/>
-      <c r="BP12" s="5"/>
-      <c r="BQ12" s="5"/>
-      <c r="BR12" s="5"/>
-      <c r="BS12" s="5"/>
-      <c r="BT12" s="5"/>
-      <c r="BU12" s="5"/>
-    </row>
-    <row r="13" spans="3:73" x14ac:dyDescent="0.25">
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="11"/>
-      <c r="V13" s="11"/>
-      <c r="W13" s="11"/>
-      <c r="X13" s="11"/>
-      <c r="Y13" s="11"/>
-      <c r="Z13" s="11"/>
-      <c r="AA13" s="11"/>
-      <c r="AB13" s="11"/>
-      <c r="AC13" s="11"/>
-      <c r="AD13" s="11"/>
-      <c r="AE13" s="11"/>
-      <c r="AF13" s="11"/>
-      <c r="AG13" s="11"/>
-      <c r="AH13" s="11"/>
-      <c r="AI13" s="11"/>
-      <c r="AJ13" s="11"/>
-      <c r="AK13" s="11"/>
-      <c r="AL13" s="11"/>
-      <c r="AM13" s="11"/>
-      <c r="AN13" s="11"/>
-      <c r="AO13" s="11"/>
-      <c r="AP13" s="11"/>
-      <c r="AQ13" s="11"/>
-      <c r="AR13" s="11"/>
-      <c r="AS13" s="11"/>
-      <c r="AT13" s="11"/>
-      <c r="AU13" s="11"/>
-      <c r="AV13" s="11"/>
-      <c r="AW13" s="11"/>
-      <c r="AX13" s="11"/>
-      <c r="AY13" s="11"/>
-      <c r="AZ13" s="11"/>
-      <c r="BA13" s="11"/>
-      <c r="BB13" s="11"/>
-      <c r="BC13" s="11"/>
-      <c r="BD13" s="11"/>
-      <c r="BE13" s="11"/>
-      <c r="BF13" s="11"/>
-      <c r="BG13" s="11"/>
-      <c r="BH13" s="11"/>
-      <c r="BI13" s="11"/>
-      <c r="BJ13" s="11"/>
-      <c r="BK13" s="11"/>
-      <c r="BL13" s="11"/>
-      <c r="BM13" s="11"/>
-      <c r="BN13" s="5"/>
-      <c r="BO13" s="5"/>
-      <c r="BP13" s="5"/>
-      <c r="BQ13" s="5"/>
-      <c r="BR13" s="5"/>
-      <c r="BS13" s="5"/>
-      <c r="BT13" s="5"/>
-      <c r="BU13" s="5"/>
-    </row>
-    <row r="14" spans="3:73" x14ac:dyDescent="0.25">
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="11"/>
-      <c r="U14" s="11"/>
-      <c r="V14" s="11"/>
-      <c r="W14" s="11"/>
-      <c r="X14" s="11"/>
-      <c r="Y14" s="11"/>
-      <c r="Z14" s="11"/>
-      <c r="AA14" s="11"/>
-      <c r="AB14" s="11"/>
-      <c r="AC14" s="11"/>
-      <c r="AD14" s="11"/>
-      <c r="AE14" s="11"/>
-      <c r="AF14" s="11"/>
-      <c r="AG14" s="11"/>
-      <c r="AH14" s="11"/>
-      <c r="AI14" s="11"/>
-      <c r="AJ14" s="11"/>
-      <c r="AK14" s="11"/>
-      <c r="AL14" s="11"/>
-      <c r="AM14" s="11"/>
-      <c r="AN14" s="11"/>
-      <c r="AO14" s="11"/>
-      <c r="AP14" s="11"/>
-      <c r="AQ14" s="11"/>
-      <c r="AR14" s="11"/>
-      <c r="AS14" s="11"/>
-      <c r="AT14" s="11"/>
-      <c r="AU14" s="11"/>
-      <c r="AV14" s="11"/>
-      <c r="AW14" s="11"/>
-      <c r="AX14" s="11"/>
-      <c r="AY14" s="11"/>
-      <c r="AZ14" s="11"/>
-      <c r="BA14" s="11"/>
-      <c r="BB14" s="11"/>
-      <c r="BC14" s="11"/>
-      <c r="BD14" s="11"/>
-      <c r="BE14" s="11"/>
-      <c r="BF14" s="11"/>
-      <c r="BG14" s="11"/>
-      <c r="BH14" s="11"/>
-      <c r="BI14" s="11"/>
-      <c r="BJ14" s="11"/>
-      <c r="BK14" s="11"/>
-      <c r="BL14" s="11"/>
-      <c r="BM14" s="11"/>
-      <c r="BN14" s="5"/>
-      <c r="BO14" s="5"/>
-      <c r="BP14" s="5"/>
-      <c r="BQ14" s="5"/>
-      <c r="BR14" s="5"/>
-      <c r="BS14" s="5"/>
-      <c r="BT14" s="5"/>
-      <c r="BU14" s="5"/>
-    </row>
-    <row r="15" spans="3:73" x14ac:dyDescent="0.25">
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11"/>
-      <c r="U15" s="11"/>
-      <c r="V15" s="11"/>
-      <c r="W15" s="11"/>
-      <c r="X15" s="11"/>
-      <c r="Y15" s="11"/>
-      <c r="Z15" s="11"/>
-      <c r="AA15" s="11"/>
-      <c r="AB15" s="11"/>
-      <c r="AC15" s="11"/>
-      <c r="AD15" s="11"/>
-      <c r="AE15" s="11"/>
-      <c r="AF15" s="11"/>
-      <c r="AG15" s="11"/>
-      <c r="AH15" s="11"/>
-      <c r="AI15" s="11"/>
-      <c r="AJ15" s="11"/>
-      <c r="AK15" s="11"/>
-      <c r="AL15" s="11"/>
-      <c r="AM15" s="11"/>
-      <c r="AN15" s="11"/>
-      <c r="AO15" s="11"/>
-      <c r="AP15" s="11"/>
-      <c r="AQ15" s="11"/>
-      <c r="AR15" s="11"/>
-      <c r="AS15" s="11"/>
-      <c r="AT15" s="11"/>
-      <c r="AU15" s="11"/>
-      <c r="AV15" s="11"/>
-      <c r="AW15" s="11"/>
-      <c r="AX15" s="11"/>
-      <c r="AY15" s="11"/>
-      <c r="AZ15" s="11"/>
-      <c r="BA15" s="11"/>
-      <c r="BB15" s="11"/>
-      <c r="BC15" s="11"/>
-      <c r="BD15" s="11"/>
-      <c r="BE15" s="11"/>
-      <c r="BF15" s="11"/>
-      <c r="BG15" s="11"/>
-      <c r="BH15" s="11"/>
-      <c r="BI15" s="11"/>
-      <c r="BJ15" s="11"/>
-      <c r="BK15" s="11"/>
-      <c r="BL15" s="11"/>
-      <c r="BM15" s="11"/>
-      <c r="BN15" s="5"/>
-      <c r="BO15" s="5"/>
-      <c r="BP15" s="5"/>
-      <c r="BQ15" s="5"/>
-      <c r="BR15" s="5"/>
-      <c r="BS15" s="5"/>
-      <c r="BT15" s="5"/>
-      <c r="BU15" s="5"/>
-    </row>
-    <row r="16" spans="3:73" x14ac:dyDescent="0.25">
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11"/>
-      <c r="U16" s="11"/>
-      <c r="V16" s="11"/>
-      <c r="W16" s="11"/>
-      <c r="X16" s="11"/>
-      <c r="Y16" s="11"/>
-      <c r="Z16" s="11"/>
-      <c r="AA16" s="11"/>
-      <c r="AB16" s="11"/>
-      <c r="AC16" s="11"/>
-      <c r="AD16" s="11"/>
-      <c r="AE16" s="11"/>
-      <c r="AF16" s="11"/>
-      <c r="AG16" s="11"/>
-      <c r="AH16" s="11"/>
-      <c r="AI16" s="11"/>
-      <c r="AJ16" s="11"/>
-      <c r="AK16" s="11"/>
-      <c r="AL16" s="11"/>
-      <c r="AM16" s="11"/>
-      <c r="AN16" s="11"/>
-      <c r="AO16" s="11"/>
-      <c r="AP16" s="11"/>
-      <c r="AQ16" s="11"/>
-      <c r="AR16" s="11"/>
-      <c r="AS16" s="11"/>
-      <c r="AT16" s="11"/>
-      <c r="AU16" s="11"/>
-      <c r="AV16" s="11"/>
-      <c r="AW16" s="11"/>
-      <c r="AX16" s="11"/>
-      <c r="AY16" s="11"/>
-      <c r="AZ16" s="11"/>
-      <c r="BA16" s="11"/>
-      <c r="BB16" s="11"/>
-      <c r="BC16" s="11"/>
-      <c r="BD16" s="11"/>
-      <c r="BE16" s="11"/>
-      <c r="BF16" s="11"/>
-      <c r="BG16" s="11"/>
-      <c r="BH16" s="11"/>
-      <c r="BI16" s="11"/>
-      <c r="BJ16" s="11"/>
-      <c r="BK16" s="11"/>
-      <c r="BL16" s="11"/>
-      <c r="BM16" s="11"/>
-      <c r="BN16" s="5"/>
-      <c r="BO16" s="5"/>
-      <c r="BP16" s="5"/>
-      <c r="BQ16" s="5"/>
-      <c r="BR16" s="5"/>
-      <c r="BS16" s="5"/>
-      <c r="BT16" s="5"/>
-      <c r="BU16" s="5"/>
-    </row>
-    <row r="17" spans="3:73" x14ac:dyDescent="0.25">
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="11"/>
-      <c r="V17" s="11"/>
-      <c r="W17" s="11"/>
-      <c r="X17" s="11"/>
-      <c r="Y17" s="11"/>
-      <c r="Z17" s="11"/>
-      <c r="AA17" s="11"/>
-      <c r="AB17" s="11"/>
-      <c r="AC17" s="11"/>
-      <c r="AD17" s="11"/>
-      <c r="AE17" s="11"/>
-      <c r="AF17" s="11"/>
-      <c r="AG17" s="11"/>
-      <c r="AH17" s="11"/>
-      <c r="AI17" s="11"/>
-      <c r="AJ17" s="11"/>
-      <c r="AK17" s="11"/>
-      <c r="AL17" s="11"/>
-      <c r="AM17" s="11"/>
-      <c r="AN17" s="11"/>
-      <c r="AO17" s="11"/>
-      <c r="AP17" s="11"/>
-      <c r="AQ17" s="11"/>
-      <c r="AR17" s="11"/>
-      <c r="AS17" s="11"/>
-      <c r="AT17" s="11"/>
-      <c r="AU17" s="11"/>
-      <c r="AV17" s="11"/>
-      <c r="AW17" s="11"/>
-      <c r="AX17" s="11"/>
-      <c r="AY17" s="11"/>
-      <c r="AZ17" s="11"/>
-      <c r="BA17" s="11"/>
-      <c r="BB17" s="11"/>
-      <c r="BC17" s="11"/>
-      <c r="BD17" s="11"/>
-      <c r="BE17" s="11"/>
-      <c r="BF17" s="11"/>
-      <c r="BG17" s="11"/>
-      <c r="BH17" s="11"/>
-      <c r="BI17" s="11"/>
-      <c r="BJ17" s="11"/>
-      <c r="BK17" s="11"/>
-      <c r="BL17" s="11"/>
-      <c r="BM17" s="11"/>
-      <c r="BN17" s="5"/>
-      <c r="BO17" s="5"/>
-      <c r="BP17" s="5"/>
-      <c r="BQ17" s="5"/>
-      <c r="BR17" s="5"/>
-      <c r="BS17" s="5"/>
-      <c r="BT17" s="5"/>
-      <c r="BU17" s="5"/>
-    </row>
-    <row r="18" spans="3:73" x14ac:dyDescent="0.25">
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
-      <c r="U18" s="11"/>
-      <c r="V18" s="11"/>
-      <c r="W18" s="11"/>
-      <c r="X18" s="11"/>
-      <c r="Y18" s="11"/>
-      <c r="Z18" s="11"/>
-      <c r="AA18" s="11"/>
-      <c r="AB18" s="11"/>
-      <c r="AC18" s="11"/>
-      <c r="AD18" s="11"/>
-      <c r="AE18" s="11"/>
-      <c r="AF18" s="11"/>
-      <c r="AG18" s="11"/>
-      <c r="AH18" s="11"/>
-      <c r="AI18" s="11"/>
-      <c r="AJ18" s="11"/>
-      <c r="AK18" s="11"/>
-      <c r="AL18" s="11"/>
-      <c r="AM18" s="11"/>
-      <c r="AN18" s="11"/>
-      <c r="AO18" s="11"/>
-      <c r="AP18" s="11"/>
-      <c r="AQ18" s="11"/>
-      <c r="AR18" s="11"/>
-      <c r="AS18" s="11"/>
-      <c r="AT18" s="11"/>
-      <c r="AU18" s="11"/>
-      <c r="AV18" s="11"/>
-      <c r="AW18" s="11"/>
-      <c r="AX18" s="11"/>
-      <c r="AY18" s="11"/>
-      <c r="AZ18" s="11"/>
-      <c r="BA18" s="11"/>
-      <c r="BB18" s="11"/>
-      <c r="BC18" s="11"/>
-      <c r="BD18" s="11"/>
-      <c r="BE18" s="11"/>
-      <c r="BF18" s="11"/>
-      <c r="BG18" s="11"/>
-      <c r="BH18" s="11"/>
-      <c r="BI18" s="11"/>
-      <c r="BJ18" s="11"/>
-      <c r="BK18" s="11"/>
-      <c r="BL18" s="11"/>
-      <c r="BM18" s="11"/>
-      <c r="BN18" s="5"/>
-      <c r="BO18" s="5"/>
-      <c r="BP18" s="5"/>
-      <c r="BQ18" s="5"/>
-      <c r="BR18" s="5"/>
-      <c r="BS18" s="5"/>
-      <c r="BT18" s="5"/>
-      <c r="BU18" s="5"/>
-    </row>
-    <row r="19" spans="3:73" x14ac:dyDescent="0.25">
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="11"/>
-      <c r="V19" s="11"/>
-      <c r="W19" s="11"/>
-      <c r="X19" s="11"/>
-      <c r="Y19" s="11"/>
-      <c r="Z19" s="11"/>
-      <c r="AA19" s="11"/>
-      <c r="AB19" s="11"/>
-      <c r="AC19" s="11"/>
-      <c r="AD19" s="11"/>
-      <c r="AE19" s="11"/>
-      <c r="AF19" s="11"/>
-      <c r="AG19" s="11"/>
-      <c r="AH19" s="11"/>
-      <c r="AI19" s="11"/>
-      <c r="AJ19" s="11"/>
-      <c r="AK19" s="11"/>
-      <c r="AL19" s="11"/>
-      <c r="AM19" s="11"/>
-      <c r="AN19" s="11"/>
-      <c r="AO19" s="11"/>
-      <c r="AP19" s="11"/>
-      <c r="AQ19" s="11"/>
-      <c r="AR19" s="11"/>
-      <c r="AS19" s="11"/>
-      <c r="AT19" s="11"/>
-      <c r="AU19" s="11"/>
-      <c r="AV19" s="11"/>
-      <c r="AW19" s="11"/>
-      <c r="AX19" s="11"/>
-      <c r="AY19" s="11"/>
-      <c r="AZ19" s="11"/>
-      <c r="BA19" s="11"/>
-      <c r="BB19" s="11"/>
-      <c r="BC19" s="11"/>
-      <c r="BD19" s="11"/>
-      <c r="BE19" s="11"/>
-      <c r="BF19" s="11"/>
-      <c r="BG19" s="11"/>
-      <c r="BH19" s="11"/>
-      <c r="BI19" s="11"/>
-      <c r="BJ19" s="11"/>
-      <c r="BK19" s="11"/>
-      <c r="BL19" s="11"/>
-      <c r="BM19" s="11"/>
-      <c r="BN19" s="5"/>
-      <c r="BO19" s="5"/>
-      <c r="BP19" s="5"/>
-      <c r="BQ19" s="5"/>
-      <c r="BR19" s="5"/>
-      <c r="BS19" s="5"/>
-      <c r="BT19" s="5"/>
-      <c r="BU19" s="5"/>
-    </row>
-    <row r="20" spans="3:73" x14ac:dyDescent="0.25">
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="11"/>
-      <c r="V20" s="11"/>
-      <c r="W20" s="11"/>
-      <c r="X20" s="11"/>
-      <c r="Y20" s="11"/>
-      <c r="Z20" s="11"/>
-      <c r="AA20" s="11"/>
-      <c r="AB20" s="11"/>
-      <c r="AC20" s="11"/>
-      <c r="AD20" s="11"/>
-      <c r="AE20" s="11"/>
-      <c r="AF20" s="11"/>
-      <c r="AG20" s="11"/>
-      <c r="AH20" s="11"/>
-      <c r="AI20" s="11"/>
-      <c r="AJ20" s="11"/>
-      <c r="AK20" s="11"/>
-      <c r="AL20" s="11"/>
-      <c r="AM20" s="11"/>
-      <c r="AN20" s="11"/>
-      <c r="AO20" s="11"/>
-      <c r="AP20" s="11"/>
-      <c r="AQ20" s="11"/>
-      <c r="AR20" s="11"/>
-      <c r="AS20" s="11"/>
-      <c r="AT20" s="11"/>
-      <c r="AU20" s="11"/>
-      <c r="AV20" s="11"/>
-      <c r="AW20" s="11"/>
-      <c r="AX20" s="11"/>
-      <c r="AY20" s="11"/>
-      <c r="AZ20" s="11"/>
-      <c r="BA20" s="11"/>
-      <c r="BB20" s="11"/>
-      <c r="BC20" s="11"/>
-      <c r="BD20" s="11"/>
-      <c r="BE20" s="11"/>
-      <c r="BF20" s="11"/>
-      <c r="BG20" s="11"/>
-      <c r="BH20" s="11"/>
-      <c r="BI20" s="11"/>
-      <c r="BJ20" s="11"/>
-      <c r="BK20" s="11"/>
-      <c r="BL20" s="11"/>
-      <c r="BM20" s="11"/>
-      <c r="BN20" s="5"/>
-      <c r="BO20" s="5"/>
-      <c r="BP20" s="5"/>
-      <c r="BQ20" s="5"/>
-      <c r="BR20" s="5"/>
-      <c r="BS20" s="5"/>
-      <c r="BT20" s="5"/>
-      <c r="BU20" s="5"/>
-    </row>
-    <row r="21" spans="3:73" x14ac:dyDescent="0.25">
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="11"/>
-      <c r="S21" s="11"/>
-      <c r="T21" s="11"/>
-      <c r="U21" s="11"/>
-      <c r="V21" s="11"/>
-      <c r="W21" s="11"/>
-      <c r="X21" s="11"/>
-      <c r="Y21" s="11"/>
-      <c r="Z21" s="11"/>
-      <c r="AA21" s="11"/>
-      <c r="AB21" s="11"/>
-      <c r="AC21" s="11"/>
-      <c r="AD21" s="11"/>
-      <c r="AE21" s="11"/>
-      <c r="AF21" s="11"/>
-      <c r="AG21" s="11"/>
-      <c r="AH21" s="11"/>
-      <c r="AI21" s="11"/>
-      <c r="AJ21" s="11"/>
-      <c r="AK21" s="11"/>
-      <c r="AL21" s="11"/>
-      <c r="AM21" s="11"/>
-      <c r="AN21" s="11"/>
-      <c r="AO21" s="11"/>
-      <c r="AP21" s="11"/>
-      <c r="AQ21" s="11"/>
-      <c r="AR21" s="11"/>
-      <c r="AS21" s="11"/>
-      <c r="AT21" s="11"/>
-      <c r="AU21" s="11"/>
-      <c r="AV21" s="11"/>
-      <c r="AW21" s="11"/>
-      <c r="AX21" s="11"/>
-      <c r="AY21" s="11"/>
-      <c r="AZ21" s="11"/>
-      <c r="BA21" s="11"/>
-      <c r="BB21" s="11"/>
-      <c r="BC21" s="11"/>
-      <c r="BD21" s="11"/>
-      <c r="BE21" s="11"/>
-      <c r="BF21" s="11"/>
-      <c r="BG21" s="11"/>
-      <c r="BH21" s="11"/>
-      <c r="BI21" s="11"/>
-      <c r="BJ21" s="11"/>
-      <c r="BK21" s="11"/>
-      <c r="BL21" s="11"/>
-      <c r="BM21" s="11"/>
-      <c r="BN21" s="5"/>
-      <c r="BO21" s="5"/>
-      <c r="BP21" s="5"/>
-      <c r="BQ21" s="5"/>
-      <c r="BR21" s="5"/>
-      <c r="BS21" s="5"/>
-      <c r="BT21" s="5"/>
-      <c r="BU21" s="5"/>
-    </row>
-    <row r="22" spans="3:73" x14ac:dyDescent="0.25">
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="11"/>
-      <c r="T22" s="11"/>
-      <c r="U22" s="11"/>
-      <c r="V22" s="11"/>
-      <c r="W22" s="11"/>
-      <c r="X22" s="11"/>
-      <c r="Y22" s="11"/>
-      <c r="Z22" s="11"/>
-      <c r="AA22" s="11"/>
-      <c r="AB22" s="11"/>
-      <c r="AC22" s="11"/>
-      <c r="AD22" s="11"/>
-      <c r="AE22" s="11"/>
-      <c r="AF22" s="11"/>
-      <c r="AG22" s="11"/>
-      <c r="AH22" s="11"/>
-      <c r="AI22" s="11"/>
-      <c r="AJ22" s="11"/>
-      <c r="AK22" s="11"/>
-      <c r="AL22" s="11"/>
-      <c r="AM22" s="11"/>
-      <c r="AN22" s="11"/>
-      <c r="AO22" s="11"/>
-      <c r="AP22" s="11"/>
-      <c r="AQ22" s="11"/>
-      <c r="AR22" s="11"/>
-      <c r="AS22" s="11"/>
-      <c r="AT22" s="11"/>
-      <c r="AU22" s="11"/>
-      <c r="AV22" s="11"/>
-      <c r="AW22" s="11"/>
-      <c r="AX22" s="11"/>
-      <c r="AY22" s="11"/>
-      <c r="AZ22" s="11"/>
-      <c r="BA22" s="11"/>
-      <c r="BB22" s="11"/>
-      <c r="BC22" s="11"/>
-      <c r="BD22" s="11"/>
-      <c r="BE22" s="11"/>
-      <c r="BF22" s="11"/>
-      <c r="BG22" s="11"/>
-      <c r="BH22" s="11"/>
-      <c r="BI22" s="11"/>
-      <c r="BJ22" s="11"/>
-      <c r="BK22" s="11"/>
-      <c r="BL22" s="11"/>
-      <c r="BM22" s="11"/>
-      <c r="BN22" s="5"/>
-      <c r="BO22" s="5"/>
-      <c r="BP22" s="5"/>
-      <c r="BQ22" s="5"/>
-      <c r="BR22" s="5"/>
-      <c r="BS22" s="5"/>
-      <c r="BT22" s="5"/>
-      <c r="BU22" s="5"/>
-    </row>
-    <row r="23" spans="3:73" x14ac:dyDescent="0.25">
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="11"/>
-      <c r="S23" s="11"/>
-      <c r="T23" s="11"/>
-      <c r="U23" s="11"/>
-      <c r="V23" s="11"/>
-      <c r="W23" s="11"/>
-      <c r="X23" s="11"/>
-      <c r="Y23" s="11"/>
-      <c r="Z23" s="11"/>
-      <c r="AA23" s="11"/>
-      <c r="AB23" s="11"/>
-      <c r="AC23" s="11"/>
-      <c r="AD23" s="11"/>
-      <c r="AE23" s="11"/>
-      <c r="AF23" s="11"/>
-      <c r="AG23" s="11"/>
-      <c r="AH23" s="11"/>
-      <c r="AI23" s="11"/>
-      <c r="AJ23" s="11"/>
-      <c r="AK23" s="11"/>
-      <c r="AL23" s="11"/>
-      <c r="AM23" s="11"/>
-      <c r="AN23" s="11"/>
-      <c r="AO23" s="11"/>
-      <c r="AP23" s="11"/>
-      <c r="AQ23" s="11"/>
-      <c r="AR23" s="11"/>
-      <c r="AS23" s="11"/>
-      <c r="AT23" s="11"/>
-      <c r="AU23" s="11"/>
-      <c r="AV23" s="11"/>
-      <c r="AW23" s="11"/>
-      <c r="AX23" s="11"/>
-      <c r="AY23" s="11"/>
-      <c r="AZ23" s="11"/>
-      <c r="BA23" s="11"/>
-      <c r="BB23" s="11"/>
-      <c r="BC23" s="11"/>
-      <c r="BD23" s="11"/>
-      <c r="BE23" s="11"/>
-      <c r="BF23" s="11"/>
-      <c r="BG23" s="11"/>
-      <c r="BH23" s="11"/>
-      <c r="BI23" s="11"/>
-      <c r="BJ23" s="11"/>
-      <c r="BK23" s="11"/>
-      <c r="BL23" s="11"/>
-      <c r="BM23" s="11"/>
-      <c r="BN23" s="5"/>
-      <c r="BO23" s="5"/>
-      <c r="BP23" s="5"/>
-      <c r="BQ23" s="5"/>
-      <c r="BR23" s="5"/>
-      <c r="BS23" s="5"/>
-      <c r="BT23" s="5"/>
-      <c r="BU23" s="5"/>
-    </row>
-    <row r="24" spans="3:73" x14ac:dyDescent="0.25">
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="11"/>
-      <c r="S24" s="11"/>
-      <c r="T24" s="11"/>
-      <c r="U24" s="11"/>
-      <c r="V24" s="11"/>
-      <c r="W24" s="11"/>
-      <c r="X24" s="11"/>
-      <c r="Y24" s="11"/>
-      <c r="Z24" s="11"/>
-      <c r="AA24" s="11"/>
-      <c r="AB24" s="11"/>
-      <c r="AC24" s="11"/>
-      <c r="AD24" s="11"/>
-      <c r="AE24" s="11"/>
-      <c r="AF24" s="11"/>
-      <c r="AG24" s="11"/>
-      <c r="AH24" s="11"/>
-      <c r="AI24" s="11"/>
-      <c r="AJ24" s="11"/>
-      <c r="AK24" s="11"/>
-      <c r="AL24" s="11"/>
-      <c r="AM24" s="11"/>
-      <c r="AN24" s="11"/>
-      <c r="AO24" s="11"/>
-      <c r="AP24" s="11"/>
-      <c r="AQ24" s="11"/>
-      <c r="AR24" s="11"/>
-      <c r="AS24" s="11"/>
-      <c r="AT24" s="11"/>
-      <c r="AU24" s="11"/>
-      <c r="AV24" s="11"/>
-      <c r="AW24" s="11"/>
-      <c r="AX24" s="11"/>
-      <c r="AY24" s="11"/>
-      <c r="AZ24" s="11"/>
-      <c r="BA24" s="11"/>
-      <c r="BB24" s="11"/>
-      <c r="BC24" s="11"/>
-      <c r="BD24" s="11"/>
-      <c r="BE24" s="11"/>
-      <c r="BF24" s="11"/>
-      <c r="BG24" s="11"/>
-      <c r="BH24" s="11"/>
-      <c r="BI24" s="11"/>
-      <c r="BJ24" s="11"/>
-      <c r="BK24" s="11"/>
-      <c r="BL24" s="11"/>
-      <c r="BM24" s="11"/>
-      <c r="BN24" s="5"/>
-      <c r="BO24" s="5"/>
-      <c r="BP24" s="5"/>
-      <c r="BQ24" s="5"/>
-      <c r="BR24" s="5"/>
-      <c r="BS24" s="5"/>
-      <c r="BT24" s="5"/>
-      <c r="BU24" s="5"/>
-    </row>
-    <row r="25" spans="3:73" x14ac:dyDescent="0.25">
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="11"/>
-      <c r="R25" s="11"/>
-      <c r="S25" s="11"/>
-      <c r="T25" s="11"/>
-      <c r="U25" s="11"/>
-      <c r="V25" s="11"/>
-      <c r="W25" s="11"/>
-      <c r="X25" s="11"/>
-      <c r="Y25" s="11"/>
-      <c r="Z25" s="11"/>
-      <c r="AA25" s="11"/>
-      <c r="AB25" s="11"/>
-      <c r="AC25" s="11"/>
-      <c r="AD25" s="11"/>
-      <c r="AE25" s="11"/>
-      <c r="AF25" s="11"/>
-      <c r="AG25" s="11"/>
-      <c r="AH25" s="11"/>
-      <c r="AI25" s="11"/>
-      <c r="AJ25" s="11"/>
-      <c r="AK25" s="11"/>
-      <c r="AL25" s="11"/>
-      <c r="AM25" s="11"/>
-      <c r="AN25" s="11"/>
-      <c r="AO25" s="11"/>
-      <c r="AP25" s="11"/>
-      <c r="AQ25" s="11"/>
-      <c r="AR25" s="11"/>
-      <c r="AS25" s="11"/>
-      <c r="AT25" s="11"/>
-      <c r="AU25" s="11"/>
-      <c r="AV25" s="11"/>
-      <c r="AW25" s="11"/>
-      <c r="AX25" s="11"/>
-      <c r="AY25" s="11"/>
-      <c r="AZ25" s="11"/>
-      <c r="BA25" s="11"/>
-      <c r="BB25" s="11"/>
-      <c r="BC25" s="11"/>
-      <c r="BD25" s="11"/>
-      <c r="BE25" s="11"/>
-      <c r="BF25" s="11"/>
-      <c r="BG25" s="11"/>
-      <c r="BH25" s="11"/>
-      <c r="BI25" s="11"/>
-      <c r="BJ25" s="11"/>
-      <c r="BK25" s="11"/>
-      <c r="BL25" s="11"/>
-      <c r="BM25" s="11"/>
-      <c r="BN25" s="5"/>
-      <c r="BO25" s="5"/>
-      <c r="BP25" s="5"/>
-      <c r="BQ25" s="5"/>
-      <c r="BR25" s="5"/>
-      <c r="BS25" s="5"/>
-      <c r="BT25" s="5"/>
-      <c r="BU25" s="5"/>
-    </row>
-    <row r="26" spans="3:73" x14ac:dyDescent="0.25">
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="11"/>
-      <c r="R26" s="11"/>
-      <c r="S26" s="11"/>
-      <c r="T26" s="11"/>
-      <c r="U26" s="11"/>
-      <c r="V26" s="11"/>
-      <c r="W26" s="11"/>
-      <c r="X26" s="11"/>
-      <c r="Y26" s="11"/>
-      <c r="Z26" s="11"/>
-      <c r="AA26" s="11"/>
-      <c r="AB26" s="11"/>
-      <c r="AC26" s="11"/>
-      <c r="AD26" s="11"/>
-      <c r="AE26" s="11"/>
-      <c r="AF26" s="11"/>
-      <c r="AG26" s="11"/>
-      <c r="AH26" s="11"/>
-      <c r="AI26" s="11"/>
-      <c r="AJ26" s="11"/>
-      <c r="AK26" s="11"/>
-      <c r="AL26" s="11"/>
-      <c r="AM26" s="11"/>
-      <c r="AN26" s="11"/>
-      <c r="AO26" s="11"/>
-      <c r="AP26" s="11"/>
-      <c r="AQ26" s="11"/>
-      <c r="AR26" s="11"/>
-      <c r="AS26" s="11"/>
-      <c r="AT26" s="11"/>
-      <c r="AU26" s="11"/>
-      <c r="AV26" s="11"/>
-      <c r="AW26" s="11"/>
-      <c r="AX26" s="11"/>
-      <c r="AY26" s="11"/>
-      <c r="AZ26" s="11"/>
-      <c r="BA26" s="11"/>
-      <c r="BB26" s="11"/>
-      <c r="BC26" s="11"/>
-      <c r="BD26" s="11"/>
-      <c r="BE26" s="11"/>
-      <c r="BF26" s="11"/>
-      <c r="BG26" s="11"/>
-      <c r="BH26" s="11"/>
-      <c r="BI26" s="11"/>
-      <c r="BJ26" s="11"/>
-      <c r="BK26" s="11"/>
-      <c r="BL26" s="11"/>
-      <c r="BM26" s="11"/>
-      <c r="BN26" s="5"/>
-      <c r="BO26" s="5"/>
-      <c r="BP26" s="5"/>
-      <c r="BQ26" s="5"/>
-      <c r="BR26" s="5"/>
-      <c r="BS26" s="5"/>
-      <c r="BT26" s="5"/>
-      <c r="BU26" s="5"/>
-    </row>
-    <row r="27" spans="3:73" x14ac:dyDescent="0.25">
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="11"/>
-      <c r="R27" s="11"/>
-      <c r="S27" s="11"/>
-      <c r="T27" s="11"/>
-      <c r="U27" s="11"/>
-      <c r="V27" s="11"/>
-      <c r="W27" s="11"/>
-      <c r="X27" s="11"/>
-      <c r="Y27" s="11"/>
-      <c r="Z27" s="11"/>
-      <c r="AA27" s="11"/>
-      <c r="AB27" s="11"/>
-      <c r="AC27" s="11"/>
-      <c r="AD27" s="11"/>
-      <c r="AE27" s="11"/>
-      <c r="AF27" s="11"/>
-      <c r="AG27" s="11"/>
-      <c r="AH27" s="11"/>
-      <c r="AI27" s="11"/>
-      <c r="AJ27" s="11"/>
-      <c r="AK27" s="11"/>
-      <c r="AL27" s="11"/>
-      <c r="AM27" s="11"/>
-      <c r="AN27" s="11"/>
-      <c r="AO27" s="11"/>
-      <c r="AP27" s="11"/>
-      <c r="AQ27" s="11"/>
-      <c r="AR27" s="11"/>
-      <c r="AS27" s="11"/>
-      <c r="AT27" s="11"/>
-      <c r="AU27" s="11"/>
-      <c r="AV27" s="11"/>
-      <c r="AW27" s="11"/>
-      <c r="AX27" s="11"/>
-      <c r="AY27" s="11"/>
-      <c r="AZ27" s="11"/>
-      <c r="BA27" s="11"/>
-      <c r="BB27" s="11"/>
-      <c r="BC27" s="11"/>
-      <c r="BD27" s="11"/>
-      <c r="BE27" s="11"/>
-      <c r="BF27" s="11"/>
-      <c r="BG27" s="11"/>
-      <c r="BH27" s="11"/>
-      <c r="BI27" s="11"/>
-      <c r="BJ27" s="11"/>
-      <c r="BK27" s="11"/>
-      <c r="BL27" s="11"/>
-      <c r="BM27" s="11"/>
-      <c r="BN27" s="5"/>
-      <c r="BO27" s="5"/>
-      <c r="BP27" s="5"/>
-      <c r="BQ27" s="5"/>
-      <c r="BR27" s="5"/>
-      <c r="BS27" s="5"/>
-      <c r="BT27" s="5"/>
-      <c r="BU27" s="5"/>
-    </row>
-    <row r="28" spans="3:73" x14ac:dyDescent="0.25">
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="11"/>
-      <c r="R28" s="11"/>
-      <c r="S28" s="11"/>
-      <c r="T28" s="11"/>
-      <c r="U28" s="11"/>
-      <c r="V28" s="11"/>
-      <c r="W28" s="11"/>
-      <c r="X28" s="11"/>
-      <c r="Y28" s="11"/>
-      <c r="Z28" s="11"/>
-      <c r="AA28" s="11"/>
-      <c r="AB28" s="11"/>
-      <c r="AC28" s="11"/>
-      <c r="AD28" s="11"/>
-      <c r="AE28" s="11"/>
-      <c r="AF28" s="11"/>
-      <c r="AG28" s="11"/>
-      <c r="AH28" s="11"/>
-      <c r="AI28" s="11"/>
-      <c r="AJ28" s="11"/>
-      <c r="AK28" s="11"/>
-      <c r="AL28" s="11"/>
-      <c r="AM28" s="11"/>
-      <c r="AN28" s="11"/>
-      <c r="AO28" s="11"/>
-      <c r="AP28" s="11"/>
-      <c r="AQ28" s="11"/>
-      <c r="AR28" s="11"/>
-      <c r="AS28" s="11"/>
-      <c r="AT28" s="11"/>
-      <c r="AU28" s="11"/>
-      <c r="AV28" s="11"/>
-      <c r="AW28" s="11"/>
-      <c r="AX28" s="11"/>
-      <c r="AY28" s="11"/>
-      <c r="AZ28" s="11"/>
-      <c r="BA28" s="11"/>
-      <c r="BB28" s="11"/>
-      <c r="BC28" s="11"/>
-      <c r="BD28" s="11"/>
-      <c r="BE28" s="11"/>
-      <c r="BF28" s="11"/>
-      <c r="BG28" s="11"/>
-      <c r="BH28" s="11"/>
-      <c r="BI28" s="11"/>
-      <c r="BJ28" s="11"/>
-      <c r="BK28" s="11"/>
-      <c r="BL28" s="11"/>
-      <c r="BM28" s="11"/>
-      <c r="BN28" s="5"/>
-      <c r="BO28" s="5"/>
-      <c r="BP28" s="5"/>
-      <c r="BQ28" s="5"/>
-      <c r="BR28" s="5"/>
-      <c r="BS28" s="5"/>
-      <c r="BT28" s="5"/>
-      <c r="BU28" s="5"/>
-    </row>
-    <row r="29" spans="3:73" x14ac:dyDescent="0.25">
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="11"/>
-      <c r="R29" s="11"/>
-      <c r="S29" s="11"/>
-      <c r="T29" s="11"/>
-      <c r="U29" s="11"/>
-      <c r="V29" s="11"/>
-      <c r="W29" s="11"/>
-      <c r="X29" s="11"/>
-      <c r="Y29" s="11"/>
-      <c r="Z29" s="11"/>
-      <c r="AA29" s="11"/>
-      <c r="AB29" s="11"/>
-      <c r="AC29" s="11"/>
-      <c r="AD29" s="11"/>
-      <c r="AE29" s="11"/>
-      <c r="AF29" s="11"/>
-      <c r="AG29" s="11"/>
-      <c r="AH29" s="11"/>
-      <c r="AI29" s="11"/>
-      <c r="AJ29" s="11"/>
-      <c r="AK29" s="11"/>
-      <c r="AL29" s="11"/>
-      <c r="AM29" s="11"/>
-      <c r="AN29" s="11"/>
-      <c r="AO29" s="11"/>
-      <c r="AP29" s="11"/>
-      <c r="AQ29" s="11"/>
-      <c r="AR29" s="11"/>
-      <c r="AS29" s="11"/>
-      <c r="AT29" s="11"/>
-      <c r="AU29" s="11"/>
-      <c r="AV29" s="11"/>
-      <c r="AW29" s="11"/>
-      <c r="AX29" s="11"/>
-      <c r="AY29" s="11"/>
-      <c r="AZ29" s="11"/>
-      <c r="BA29" s="11"/>
-      <c r="BB29" s="11"/>
-      <c r="BC29" s="11"/>
-      <c r="BD29" s="11"/>
-      <c r="BE29" s="11"/>
-      <c r="BF29" s="11"/>
-      <c r="BG29" s="11"/>
-      <c r="BH29" s="11"/>
-      <c r="BI29" s="11"/>
-      <c r="BJ29" s="11"/>
-      <c r="BK29" s="11"/>
-      <c r="BL29" s="11"/>
-      <c r="BM29" s="11"/>
-      <c r="BN29" s="5"/>
-      <c r="BO29" s="5"/>
-      <c r="BP29" s="5"/>
-      <c r="BQ29" s="5"/>
-      <c r="BR29" s="5"/>
-      <c r="BS29" s="5"/>
-      <c r="BT29" s="5"/>
-      <c r="BU29" s="5"/>
-    </row>
-    <row r="30" spans="3:73" x14ac:dyDescent="0.25">
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="11"/>
-      <c r="P30" s="11"/>
-      <c r="Q30" s="11"/>
-      <c r="R30" s="11"/>
-      <c r="S30" s="11"/>
-      <c r="T30" s="11"/>
-      <c r="U30" s="11"/>
-      <c r="V30" s="11"/>
-      <c r="W30" s="11"/>
-      <c r="X30" s="11"/>
-      <c r="Y30" s="11"/>
-      <c r="Z30" s="11"/>
-      <c r="AA30" s="11"/>
-      <c r="AB30" s="11"/>
-      <c r="AC30" s="11"/>
-      <c r="AD30" s="11"/>
-      <c r="AE30" s="11"/>
-      <c r="AF30" s="11"/>
-      <c r="AG30" s="11"/>
-      <c r="AH30" s="11"/>
-      <c r="AI30" s="11"/>
-      <c r="AJ30" s="11"/>
-      <c r="AK30" s="11"/>
-      <c r="AL30" s="11"/>
-      <c r="AM30" s="11"/>
-      <c r="AN30" s="11"/>
-      <c r="AO30" s="11"/>
-      <c r="AP30" s="11"/>
-      <c r="AQ30" s="11"/>
-      <c r="AR30" s="11"/>
-      <c r="AS30" s="11"/>
-      <c r="AT30" s="11"/>
-      <c r="AU30" s="11"/>
-      <c r="AV30" s="11"/>
-      <c r="AW30" s="11"/>
-      <c r="AX30" s="11"/>
-      <c r="AY30" s="11"/>
-      <c r="AZ30" s="11"/>
-      <c r="BA30" s="11"/>
-      <c r="BB30" s="11"/>
-      <c r="BC30" s="11"/>
-      <c r="BD30" s="11"/>
-      <c r="BE30" s="11"/>
-      <c r="BF30" s="11"/>
-      <c r="BG30" s="11"/>
-      <c r="BH30" s="11"/>
-      <c r="BI30" s="11"/>
-      <c r="BJ30" s="11"/>
-      <c r="BK30" s="11"/>
-      <c r="BL30" s="11"/>
-      <c r="BM30" s="11"/>
-      <c r="BN30" s="5"/>
-      <c r="BO30" s="5"/>
-      <c r="BP30" s="5"/>
-      <c r="BQ30" s="5"/>
-      <c r="BR30" s="5"/>
-      <c r="BS30" s="5"/>
-      <c r="BT30" s="5"/>
-      <c r="BU30" s="5"/>
-    </row>
-    <row r="31" spans="3:73" x14ac:dyDescent="0.25">
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="11"/>
-      <c r="P31" s="11"/>
-      <c r="Q31" s="11"/>
-      <c r="R31" s="11"/>
-      <c r="S31" s="11"/>
-      <c r="T31" s="11"/>
-      <c r="U31" s="11"/>
-      <c r="V31" s="11"/>
-      <c r="W31" s="11"/>
-      <c r="X31" s="11"/>
-      <c r="Y31" s="11"/>
-      <c r="Z31" s="11"/>
-      <c r="AA31" s="11"/>
-      <c r="AB31" s="11"/>
-      <c r="AC31" s="11"/>
-      <c r="AD31" s="11"/>
-      <c r="AE31" s="11"/>
-      <c r="AF31" s="11"/>
-      <c r="AG31" s="11"/>
-      <c r="AH31" s="11"/>
-      <c r="AI31" s="11"/>
-      <c r="AJ31" s="11"/>
-      <c r="AK31" s="11"/>
-      <c r="AL31" s="11"/>
-      <c r="AM31" s="11"/>
-      <c r="AN31" s="11"/>
-      <c r="AO31" s="11"/>
-      <c r="AP31" s="11"/>
-      <c r="AQ31" s="11"/>
-      <c r="AR31" s="11"/>
-      <c r="AS31" s="11"/>
-      <c r="AT31" s="11"/>
-      <c r="AU31" s="11"/>
-      <c r="AV31" s="11"/>
-      <c r="AW31" s="11"/>
-      <c r="AX31" s="11"/>
-      <c r="AY31" s="11"/>
-      <c r="AZ31" s="11"/>
-      <c r="BA31" s="11"/>
-      <c r="BB31" s="11"/>
-      <c r="BC31" s="11"/>
-      <c r="BD31" s="11"/>
-      <c r="BE31" s="11"/>
-      <c r="BF31" s="11"/>
-      <c r="BG31" s="11"/>
-      <c r="BH31" s="11"/>
-      <c r="BI31" s="11"/>
-      <c r="BJ31" s="11"/>
-      <c r="BK31" s="11"/>
-      <c r="BL31" s="11"/>
-      <c r="BM31" s="11"/>
-      <c r="BN31" s="5"/>
-      <c r="BO31" s="5"/>
-      <c r="BP31" s="5"/>
-      <c r="BQ31" s="5"/>
-      <c r="BR31" s="5"/>
-      <c r="BS31" s="5"/>
-      <c r="BT31" s="5"/>
-      <c r="BU31" s="5"/>
-    </row>
-    <row r="32" spans="3:73" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="11"/>
-      <c r="O32" s="11"/>
-      <c r="P32" s="11"/>
-      <c r="Q32" s="11"/>
-      <c r="R32" s="11"/>
-      <c r="S32" s="11"/>
-      <c r="T32" s="11"/>
-      <c r="U32" s="11"/>
-      <c r="V32" s="11"/>
-      <c r="W32" s="11"/>
-      <c r="X32" s="11"/>
-      <c r="Y32" s="11"/>
-      <c r="Z32" s="11"/>
-      <c r="AA32" s="11"/>
-      <c r="AB32" s="11"/>
-      <c r="AC32" s="11"/>
-      <c r="AD32" s="11"/>
-      <c r="AE32" s="11"/>
-      <c r="AF32" s="11"/>
-      <c r="AG32" s="11"/>
-      <c r="AH32" s="11"/>
-      <c r="AI32" s="11"/>
-      <c r="AJ32" s="11"/>
-      <c r="AK32" s="11"/>
-      <c r="AL32" s="11"/>
-      <c r="AM32" s="11"/>
-      <c r="AN32" s="11"/>
-      <c r="AO32" s="11"/>
-      <c r="AP32" s="11"/>
-      <c r="AQ32" s="11"/>
-      <c r="AR32" s="11"/>
-      <c r="AS32" s="11"/>
-      <c r="AT32" s="11"/>
-      <c r="AU32" s="11"/>
-      <c r="AV32" s="11"/>
-      <c r="AW32" s="11"/>
-      <c r="AX32" s="11"/>
-      <c r="AY32" s="11"/>
-      <c r="AZ32" s="11"/>
-      <c r="BA32" s="11"/>
-      <c r="BB32" s="11"/>
-      <c r="BC32" s="11"/>
-      <c r="BD32" s="11"/>
-      <c r="BE32" s="11"/>
-      <c r="BF32" s="11"/>
-      <c r="BG32" s="11"/>
-      <c r="BH32" s="11"/>
-      <c r="BI32" s="11"/>
-      <c r="BJ32" s="11"/>
-      <c r="BK32" s="11"/>
-      <c r="BL32" s="11"/>
-      <c r="BM32" s="11"/>
-      <c r="BN32" s="5"/>
-      <c r="BO32" s="5"/>
-      <c r="BP32" s="5"/>
-      <c r="BQ32" s="5"/>
-      <c r="BR32" s="5"/>
-      <c r="BS32" s="5"/>
-      <c r="BT32" s="5"/>
-      <c r="BU32" s="5"/>
-    </row>
-    <row r="33" spans="2:101" x14ac:dyDescent="0.25">
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="11"/>
-      <c r="O33" s="11"/>
-      <c r="P33" s="11"/>
-      <c r="Q33" s="11"/>
-      <c r="R33" s="11"/>
-      <c r="S33" s="11"/>
-      <c r="T33" s="11"/>
-      <c r="U33" s="11"/>
-      <c r="V33" s="11"/>
-      <c r="W33" s="11"/>
-      <c r="X33" s="11"/>
-      <c r="Y33" s="11"/>
-      <c r="Z33" s="11"/>
-      <c r="AA33" s="11"/>
-      <c r="AB33" s="11"/>
-      <c r="AC33" s="11"/>
-      <c r="AD33" s="11"/>
-      <c r="AE33" s="11"/>
-      <c r="AF33" s="11"/>
-      <c r="AG33" s="11"/>
-      <c r="AH33" s="11"/>
-      <c r="AI33" s="11"/>
-      <c r="AJ33" s="11"/>
-      <c r="AK33" s="11"/>
-      <c r="AL33" s="11"/>
-      <c r="AM33" s="11"/>
-      <c r="AN33" s="11"/>
-      <c r="AO33" s="11"/>
-      <c r="AP33" s="11"/>
-      <c r="AQ33" s="11"/>
-      <c r="AR33" s="11"/>
-      <c r="AS33" s="11"/>
-      <c r="AT33" s="11"/>
-      <c r="AU33" s="11"/>
-      <c r="AV33" s="11"/>
-      <c r="AW33" s="11"/>
-      <c r="AX33" s="11"/>
-      <c r="AY33" s="11"/>
-      <c r="AZ33" s="11"/>
-      <c r="BA33" s="11"/>
-      <c r="BB33" s="11"/>
-      <c r="BC33" s="11"/>
-      <c r="BD33" s="11"/>
-      <c r="BE33" s="11"/>
-      <c r="BF33" s="11"/>
-      <c r="BG33" s="11"/>
-      <c r="BH33" s="11"/>
-      <c r="BI33" s="11"/>
-      <c r="BJ33" s="11"/>
-      <c r="BK33" s="11"/>
-      <c r="BL33" s="11"/>
-      <c r="BM33" s="11"/>
-      <c r="BN33" s="5"/>
-      <c r="BO33" s="5"/>
-      <c r="BP33" s="5"/>
-      <c r="BQ33" s="5"/>
-      <c r="BR33" s="5"/>
-      <c r="BS33" s="5"/>
-      <c r="BT33" s="5"/>
-      <c r="BU33" s="5"/>
-    </row>
-    <row r="34" spans="2:101" x14ac:dyDescent="0.25">
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="11"/>
-      <c r="O34" s="11"/>
-      <c r="P34" s="11"/>
-      <c r="Q34" s="11"/>
-      <c r="R34" s="11"/>
-      <c r="S34" s="11"/>
-      <c r="T34" s="11"/>
-      <c r="U34" s="11"/>
-      <c r="V34" s="11"/>
-      <c r="W34" s="11"/>
-      <c r="X34" s="11"/>
-      <c r="Y34" s="11"/>
-      <c r="Z34" s="11"/>
-      <c r="AA34" s="11"/>
-      <c r="AB34" s="11"/>
-      <c r="AC34" s="11"/>
-      <c r="AD34" s="11"/>
-      <c r="AE34" s="11"/>
-      <c r="AF34" s="11"/>
-      <c r="AG34" s="11"/>
-      <c r="AH34" s="11"/>
-      <c r="AI34" s="11"/>
-      <c r="AJ34" s="11"/>
-      <c r="AK34" s="11"/>
-      <c r="AL34" s="11"/>
-      <c r="AM34" s="11"/>
-      <c r="AN34" s="11"/>
-      <c r="AO34" s="11"/>
-      <c r="AP34" s="11"/>
-      <c r="AQ34" s="11"/>
-      <c r="AR34" s="11"/>
-      <c r="AS34" s="11"/>
-      <c r="AT34" s="11"/>
-      <c r="AU34" s="11"/>
-      <c r="AV34" s="11"/>
-      <c r="AW34" s="11"/>
-      <c r="AX34" s="11"/>
-      <c r="AY34" s="11"/>
-      <c r="AZ34" s="11"/>
-      <c r="BA34" s="11"/>
-      <c r="BB34" s="11"/>
-      <c r="BC34" s="11"/>
-      <c r="BD34" s="11"/>
-      <c r="BE34" s="11"/>
-      <c r="BF34" s="11"/>
-      <c r="BG34" s="11"/>
-      <c r="BH34" s="11"/>
-      <c r="BI34" s="11"/>
-      <c r="BJ34" s="11"/>
-      <c r="BK34" s="11"/>
-      <c r="BL34" s="11"/>
-      <c r="BM34" s="11"/>
-      <c r="BN34" s="5"/>
-      <c r="BO34" s="5"/>
-      <c r="BP34" s="5"/>
-      <c r="BQ34" s="5"/>
-      <c r="BR34" s="5"/>
-      <c r="BS34" s="5"/>
-      <c r="BT34" s="5"/>
-      <c r="BU34" s="5"/>
-    </row>
-    <row r="35" spans="2:101" x14ac:dyDescent="0.25">
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5"/>
-      <c r="O35" s="5"/>
-      <c r="P35" s="5"/>
-      <c r="Q35" s="5"/>
-      <c r="R35" s="5"/>
-      <c r="S35" s="5"/>
-      <c r="T35" s="5"/>
-      <c r="U35" s="5"/>
-      <c r="V35" s="5"/>
-      <c r="W35" s="5"/>
-      <c r="X35" s="5"/>
-      <c r="Y35" s="5"/>
-      <c r="Z35" s="5"/>
-      <c r="AA35" s="5"/>
-      <c r="AB35" s="5"/>
-      <c r="AC35" s="5"/>
-      <c r="AD35" s="5"/>
-      <c r="AE35" s="5"/>
-      <c r="AF35" s="5"/>
-      <c r="AG35" s="5"/>
-      <c r="AH35" s="5"/>
-      <c r="AI35" s="5"/>
-      <c r="AJ35" s="5"/>
-      <c r="AK35" s="5"/>
-      <c r="AL35" s="5"/>
-      <c r="AM35" s="5"/>
-      <c r="AN35" s="5"/>
-      <c r="AO35" s="5"/>
-      <c r="AP35" s="5"/>
-      <c r="AQ35" s="5"/>
-      <c r="AR35" s="5"/>
-      <c r="AS35" s="5"/>
-      <c r="AT35" s="5"/>
-      <c r="AU35" s="5"/>
-      <c r="AV35" s="5"/>
-      <c r="AW35" s="5"/>
-      <c r="AX35" s="5"/>
-      <c r="AY35" s="5"/>
-      <c r="AZ35" s="5"/>
-      <c r="BA35" s="5"/>
-      <c r="BB35" s="5"/>
-      <c r="BC35" s="5"/>
-      <c r="BD35" s="5"/>
-      <c r="BE35" s="5"/>
-      <c r="BF35" s="5"/>
-      <c r="BG35" s="5"/>
-      <c r="BH35" s="5"/>
-      <c r="BI35" s="5"/>
-      <c r="BJ35" s="5"/>
-      <c r="BK35" s="5"/>
-      <c r="BL35" s="5"/>
-      <c r="BM35" s="5"/>
-      <c r="BN35" s="5"/>
-      <c r="BO35" s="5"/>
-      <c r="BP35" s="5"/>
-      <c r="BQ35" s="5"/>
-      <c r="BR35" s="5"/>
-      <c r="BS35" s="5"/>
-      <c r="BT35" s="5"/>
-      <c r="BU35" s="5"/>
-    </row>
-    <row r="36" spans="2:101" x14ac:dyDescent="0.25">
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
-      <c r="O36" s="5"/>
-      <c r="P36" s="5"/>
-      <c r="Q36" s="5"/>
-      <c r="R36" s="5"/>
-      <c r="S36" s="5"/>
-      <c r="T36" s="5"/>
-      <c r="U36" s="5"/>
-      <c r="V36" s="5"/>
-      <c r="W36" s="5"/>
-      <c r="X36" s="5"/>
-      <c r="Y36" s="5"/>
-      <c r="Z36" s="5"/>
-      <c r="AA36" s="5"/>
-      <c r="AB36" s="5"/>
-      <c r="AC36" s="5"/>
-      <c r="AD36" s="5"/>
-      <c r="AE36" s="5"/>
-      <c r="AF36" s="5"/>
-      <c r="AG36" s="5"/>
-      <c r="AH36" s="5"/>
-      <c r="AI36" s="5"/>
-      <c r="AJ36" s="5"/>
-      <c r="AK36" s="5"/>
-      <c r="AL36" s="5"/>
-      <c r="AM36" s="5"/>
-      <c r="AN36" s="5"/>
-      <c r="AO36" s="5"/>
-      <c r="AP36" s="5"/>
-      <c r="AQ36" s="5"/>
-      <c r="AR36" s="5"/>
-      <c r="AS36" s="5"/>
-      <c r="AT36" s="5"/>
-      <c r="AU36" s="5"/>
-      <c r="AV36" s="5"/>
-      <c r="AW36" s="5"/>
-      <c r="AX36" s="5"/>
-      <c r="AY36" s="5"/>
-      <c r="AZ36" s="5"/>
-      <c r="BA36" s="5"/>
-      <c r="BB36" s="5"/>
-      <c r="BC36" s="5"/>
-      <c r="BD36" s="5"/>
-      <c r="BE36" s="5"/>
-      <c r="BF36" s="5"/>
-      <c r="BG36" s="5"/>
-      <c r="BH36" s="5"/>
-      <c r="BI36" s="5"/>
-      <c r="BJ36" s="5"/>
-      <c r="BK36" s="5"/>
-      <c r="BL36" s="5"/>
-      <c r="BM36" s="5"/>
-      <c r="BN36" s="5"/>
-      <c r="BO36" s="5"/>
-      <c r="BP36" s="5"/>
-      <c r="BQ36" s="5"/>
-      <c r="BR36" s="5"/>
-      <c r="BS36" s="5"/>
-      <c r="BT36" s="5"/>
-      <c r="BU36" s="5"/>
-    </row>
-    <row r="37" spans="2:101" x14ac:dyDescent="0.25">
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="5"/>
-      <c r="O37" s="5"/>
-      <c r="P37" s="5"/>
-      <c r="Q37" s="5"/>
-      <c r="R37" s="5"/>
-      <c r="S37" s="5"/>
-      <c r="T37" s="5"/>
-      <c r="U37" s="5"/>
-      <c r="V37" s="5"/>
-      <c r="W37" s="5"/>
-      <c r="X37" s="5"/>
-      <c r="Y37" s="5"/>
-      <c r="Z37" s="5"/>
-      <c r="AA37" s="5"/>
-      <c r="AB37" s="5"/>
-      <c r="AC37" s="5"/>
-      <c r="AD37" s="5"/>
-      <c r="AE37" s="5"/>
-      <c r="AF37" s="5"/>
-      <c r="AG37" s="5"/>
-      <c r="AH37" s="5"/>
-      <c r="AI37" s="5"/>
-      <c r="AJ37" s="5"/>
-      <c r="AK37" s="5"/>
-      <c r="AL37" s="5"/>
-      <c r="AM37" s="5"/>
-      <c r="AN37" s="5"/>
-      <c r="AO37" s="5"/>
-      <c r="AP37" s="5"/>
-      <c r="AQ37" s="5"/>
-      <c r="AR37" s="5"/>
-      <c r="AS37" s="5"/>
-      <c r="AT37" s="5"/>
-      <c r="AU37" s="5"/>
-      <c r="AV37" s="5"/>
-      <c r="AW37" s="5"/>
-      <c r="AX37" s="5"/>
-      <c r="AY37" s="5"/>
-      <c r="AZ37" s="5"/>
-      <c r="BA37" s="5"/>
-      <c r="BB37" s="5"/>
-      <c r="BC37" s="5"/>
-      <c r="BD37" s="5"/>
-      <c r="BE37" s="5"/>
-      <c r="BF37" s="5"/>
-      <c r="BG37" s="5"/>
-      <c r="BH37" s="5"/>
-      <c r="BI37" s="5"/>
-      <c r="BJ37" s="5"/>
-      <c r="BK37" s="5"/>
-      <c r="BL37" s="5"/>
-      <c r="BM37" s="5"/>
-      <c r="BN37" s="5"/>
-      <c r="BO37" s="5"/>
-      <c r="BP37" s="5"/>
-      <c r="BQ37" s="5"/>
-      <c r="BR37" s="5"/>
-      <c r="BS37" s="5"/>
-      <c r="BT37" s="5"/>
-      <c r="BU37" s="5"/>
-    </row>
-    <row r="39" spans="2:101" x14ac:dyDescent="0.25">
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5"/>
-      <c r="N39" s="5"/>
-      <c r="O39" s="5"/>
-      <c r="P39" s="5"/>
-      <c r="Q39" s="5"/>
-      <c r="R39" s="5"/>
-      <c r="S39" s="5"/>
-      <c r="T39" s="5"/>
-      <c r="U39" s="5"/>
-      <c r="V39" s="5"/>
-      <c r="W39" s="5"/>
-      <c r="X39" s="5"/>
-      <c r="Y39" s="5"/>
-      <c r="Z39" s="5"/>
-      <c r="AA39" s="5"/>
-      <c r="AB39" s="5"/>
-      <c r="AC39" s="5"/>
-      <c r="AD39" s="5"/>
-      <c r="AE39" s="5"/>
-      <c r="AF39" s="5"/>
-      <c r="AG39" s="5"/>
-      <c r="AH39" s="5"/>
-      <c r="AI39" s="5"/>
-      <c r="AJ39" s="5"/>
-      <c r="AK39" s="5"/>
-      <c r="AL39" s="5"/>
-      <c r="AM39" s="5"/>
-      <c r="AN39" s="5"/>
-      <c r="AO39" s="5"/>
-      <c r="AP39" s="5"/>
-      <c r="AQ39" s="5"/>
-      <c r="AR39" s="5"/>
-      <c r="AS39" s="5"/>
-      <c r="AT39" s="5"/>
-      <c r="AU39" s="5"/>
-      <c r="AV39" s="5"/>
-      <c r="AW39" s="5"/>
-      <c r="AX39" s="5"/>
-      <c r="AY39" s="5"/>
-      <c r="AZ39" s="5"/>
-      <c r="BA39" s="5"/>
-      <c r="BB39" s="5"/>
-      <c r="BC39" s="5"/>
-      <c r="BD39" s="5"/>
-      <c r="BE39" s="5"/>
-      <c r="BF39" s="5"/>
-      <c r="BG39" s="5"/>
-      <c r="BH39" s="5"/>
-    </row>
-    <row r="40" spans="2:101" x14ac:dyDescent="0.25">
-      <c r="G40" s="25" t="s">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1"/>
+      <c r="AH4" s="1"/>
+      <c r="AI4" s="1"/>
+      <c r="AJ4" s="1"/>
+      <c r="AK4" s="1"/>
+      <c r="AL4" s="1"/>
+      <c r="AM4" s="1"/>
+      <c r="AN4" s="1"/>
+      <c r="AO4" s="1"/>
+      <c r="AP4" s="1"/>
+      <c r="AQ4" s="1"/>
+      <c r="AR4" s="1"/>
+      <c r="AS4" s="1"/>
+      <c r="AT4" s="1"/>
+      <c r="AU4" s="1"/>
+      <c r="AV4" s="1"/>
+      <c r="AW4" s="1"/>
+      <c r="AX4" s="1"/>
+      <c r="AY4" s="1"/>
+      <c r="AZ4" s="1"/>
+      <c r="BA4" s="1"/>
+      <c r="BB4" s="1"/>
+      <c r="BC4" s="1"/>
+      <c r="BD4" s="1"/>
+      <c r="BE4" s="1"/>
+      <c r="BF4" s="1"/>
+      <c r="BG4" s="1"/>
+      <c r="BH4" s="1"/>
+      <c r="BI4" s="1"/>
+      <c r="BJ4" s="1"/>
+      <c r="BK4" s="1"/>
+      <c r="BL4" s="1"/>
+      <c r="BM4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="1"/>
+      <c r="AI5" s="1"/>
+      <c r="AJ5" s="1"/>
+      <c r="AK5" s="1"/>
+      <c r="AL5" s="1"/>
+      <c r="AM5" s="1"/>
+      <c r="AN5" s="1"/>
+      <c r="AO5" s="1"/>
+      <c r="AP5" s="1"/>
+      <c r="AQ5" s="1"/>
+      <c r="AR5" s="1"/>
+      <c r="AS5" s="1"/>
+      <c r="AT5" s="1"/>
+      <c r="AU5" s="1"/>
+      <c r="AV5" s="1"/>
+      <c r="AW5" s="1"/>
+      <c r="AX5" s="1"/>
+      <c r="AY5" s="1"/>
+      <c r="AZ5" s="1"/>
+      <c r="BA5" s="1"/>
+      <c r="BB5" s="1"/>
+      <c r="BC5" s="1"/>
+      <c r="BD5" s="1"/>
+      <c r="BE5" s="1"/>
+      <c r="BF5" s="1"/>
+      <c r="BG5" s="1"/>
+      <c r="BH5" s="1"/>
+      <c r="BI5" s="1"/>
+      <c r="BJ5" s="1"/>
+      <c r="BK5" s="1"/>
+      <c r="BL5" s="1"/>
+      <c r="BM5" s="1"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1"/>
+      <c r="AG6" s="1"/>
+      <c r="AH6" s="1"/>
+      <c r="AI6" s="1"/>
+      <c r="AJ6" s="1"/>
+      <c r="AK6" s="1"/>
+      <c r="AL6" s="1"/>
+      <c r="AM6" s="1"/>
+      <c r="AN6" s="1"/>
+      <c r="AO6" s="1"/>
+      <c r="AP6" s="1"/>
+      <c r="AQ6" s="1"/>
+      <c r="AR6" s="1"/>
+      <c r="AS6" s="1"/>
+      <c r="AT6" s="1"/>
+      <c r="AU6" s="1"/>
+      <c r="AV6" s="1"/>
+      <c r="AW6" s="1"/>
+      <c r="AX6" s="1"/>
+      <c r="AY6" s="1"/>
+      <c r="AZ6" s="1"/>
+      <c r="BA6" s="1"/>
+      <c r="BB6" s="1"/>
+      <c r="BC6" s="1"/>
+      <c r="BD6" s="1"/>
+      <c r="BE6" s="1"/>
+      <c r="BF6" s="1"/>
+      <c r="BG6" s="1"/>
+      <c r="BH6" s="1"/>
+      <c r="BI6" s="1"/>
+      <c r="BJ6" s="1"/>
+      <c r="BK6" s="1"/>
+      <c r="BL6" s="1"/>
+      <c r="BM6" s="1"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="1"/>
+      <c r="AH7" s="1"/>
+      <c r="AI7" s="1"/>
+      <c r="AJ7" s="1"/>
+      <c r="AK7" s="1"/>
+      <c r="AL7" s="1"/>
+      <c r="AM7" s="1"/>
+      <c r="AN7" s="1"/>
+      <c r="AO7" s="1"/>
+      <c r="AP7" s="1"/>
+      <c r="AQ7" s="1"/>
+      <c r="AR7" s="1"/>
+      <c r="AS7" s="1"/>
+      <c r="AT7" s="1"/>
+      <c r="AU7" s="1"/>
+      <c r="AV7" s="1"/>
+      <c r="AW7" s="1"/>
+      <c r="AX7" s="1"/>
+      <c r="AY7" s="1"/>
+      <c r="AZ7" s="1"/>
+      <c r="BA7" s="1"/>
+      <c r="BB7" s="1"/>
+      <c r="BC7" s="1"/>
+      <c r="BD7" s="1"/>
+      <c r="BE7" s="1"/>
+      <c r="BF7" s="1"/>
+      <c r="BG7" s="1"/>
+      <c r="BH7" s="1"/>
+      <c r="BI7" s="1"/>
+      <c r="BJ7" s="1"/>
+      <c r="BK7" s="1"/>
+      <c r="BL7" s="1"/>
+      <c r="BM7" s="1"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="1"/>
+      <c r="AG8" s="1"/>
+      <c r="AH8" s="1"/>
+      <c r="AI8" s="1"/>
+      <c r="AJ8" s="1"/>
+      <c r="AK8" s="1"/>
+      <c r="AL8" s="1"/>
+      <c r="AM8" s="1"/>
+      <c r="AN8" s="1"/>
+      <c r="AO8" s="1"/>
+      <c r="AP8" s="1"/>
+      <c r="AQ8" s="1"/>
+      <c r="AR8" s="1"/>
+      <c r="AS8" s="1"/>
+      <c r="AT8" s="1"/>
+      <c r="AU8" s="1"/>
+      <c r="AV8" s="1"/>
+      <c r="AW8" s="1"/>
+      <c r="AX8" s="1"/>
+      <c r="AY8" s="1"/>
+      <c r="AZ8" s="1"/>
+      <c r="BA8" s="1"/>
+      <c r="BB8" s="1"/>
+      <c r="BC8" s="1"/>
+      <c r="BD8" s="1"/>
+      <c r="BE8" s="1"/>
+      <c r="BF8" s="1"/>
+      <c r="BG8" s="1"/>
+      <c r="BH8" s="1"/>
+      <c r="BI8" s="1"/>
+      <c r="BJ8" s="1"/>
+      <c r="BK8" s="1"/>
+      <c r="BL8" s="1"/>
+      <c r="BM8" s="1"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="1"/>
+      <c r="AH9" s="1"/>
+      <c r="AI9" s="1"/>
+      <c r="AJ9" s="1"/>
+      <c r="AK9" s="1"/>
+      <c r="AL9" s="1"/>
+      <c r="AM9" s="1"/>
+      <c r="AN9" s="1"/>
+      <c r="AO9" s="1"/>
+      <c r="AP9" s="1"/>
+      <c r="AQ9" s="1"/>
+      <c r="AR9" s="1"/>
+      <c r="AS9" s="1"/>
+      <c r="AT9" s="1"/>
+      <c r="AU9" s="1"/>
+      <c r="AV9" s="1"/>
+      <c r="AW9" s="1"/>
+      <c r="AX9" s="1"/>
+      <c r="AY9" s="1"/>
+      <c r="AZ9" s="1"/>
+      <c r="BA9" s="1"/>
+      <c r="BB9" s="1"/>
+      <c r="BC9" s="1"/>
+      <c r="BD9" s="1"/>
+      <c r="BE9" s="1"/>
+      <c r="BF9" s="1"/>
+      <c r="BG9" s="1"/>
+      <c r="BH9" s="1"/>
+      <c r="BI9" s="1"/>
+      <c r="BJ9" s="1"/>
+      <c r="BK9" s="1"/>
+      <c r="BL9" s="1"/>
+      <c r="BM9" s="1"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="1"/>
+      <c r="AH10" s="1"/>
+      <c r="AI10" s="1"/>
+      <c r="AJ10" s="1"/>
+      <c r="AK10" s="1"/>
+      <c r="AL10" s="1"/>
+      <c r="AM10" s="1"/>
+      <c r="AN10" s="1"/>
+      <c r="AO10" s="1"/>
+      <c r="AP10" s="1"/>
+      <c r="AQ10" s="1"/>
+      <c r="AR10" s="1"/>
+      <c r="AS10" s="1"/>
+      <c r="AT10" s="1"/>
+      <c r="AU10" s="1"/>
+      <c r="AV10" s="1"/>
+      <c r="AW10" s="1"/>
+      <c r="AX10" s="1"/>
+      <c r="AY10" s="1"/>
+      <c r="AZ10" s="1"/>
+      <c r="BA10" s="1"/>
+      <c r="BB10" s="1"/>
+      <c r="BC10" s="1"/>
+      <c r="BD10" s="1"/>
+      <c r="BE10" s="1"/>
+      <c r="BF10" s="1"/>
+      <c r="BG10" s="1"/>
+      <c r="BH10" s="1"/>
+      <c r="BI10" s="1"/>
+      <c r="BJ10" s="1"/>
+      <c r="BK10" s="1"/>
+      <c r="BL10" s="1"/>
+      <c r="BM10" s="1"/>
+      <c r="BN10" s="2"/>
+      <c r="BO10" s="2"/>
+      <c r="BP10" s="2"/>
+      <c r="BQ10" s="2"/>
+      <c r="BR10" s="2"/>
+      <c r="BS10" s="2"/>
+      <c r="BT10" s="2"/>
+      <c r="BU10" s="2"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="1"/>
+      <c r="AH11" s="1"/>
+      <c r="AI11" s="1"/>
+      <c r="AJ11" s="1"/>
+      <c r="AK11" s="1"/>
+      <c r="AL11" s="1"/>
+      <c r="AM11" s="1"/>
+      <c r="AN11" s="1"/>
+      <c r="AO11" s="1"/>
+      <c r="AP11" s="1"/>
+      <c r="AQ11" s="1"/>
+      <c r="AR11" s="1"/>
+      <c r="AS11" s="1"/>
+      <c r="AT11" s="1"/>
+      <c r="AU11" s="1"/>
+      <c r="AV11" s="1"/>
+      <c r="AW11" s="1"/>
+      <c r="AX11" s="1"/>
+      <c r="AY11" s="1"/>
+      <c r="AZ11" s="1"/>
+      <c r="BA11" s="1"/>
+      <c r="BB11" s="1"/>
+      <c r="BC11" s="1"/>
+      <c r="BD11" s="1"/>
+      <c r="BE11" s="1"/>
+      <c r="BF11" s="1"/>
+      <c r="BG11" s="1"/>
+      <c r="BH11" s="1"/>
+      <c r="BI11" s="1"/>
+      <c r="BJ11" s="1"/>
+      <c r="BK11" s="1"/>
+      <c r="BL11" s="1"/>
+      <c r="BM11" s="1"/>
+      <c r="BN11" s="2"/>
+      <c r="BO11" s="2"/>
+      <c r="BP11" s="2"/>
+      <c r="BQ11" s="2"/>
+      <c r="BR11" s="2"/>
+      <c r="BS11" s="2"/>
+      <c r="BT11" s="2"/>
+      <c r="BU11" s="2"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="2"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="1"/>
+      <c r="AH12" s="1"/>
+      <c r="AI12" s="1"/>
+      <c r="AJ12" s="1"/>
+      <c r="AK12" s="1"/>
+      <c r="AL12" s="1"/>
+      <c r="AM12" s="1"/>
+      <c r="AN12" s="1"/>
+      <c r="AO12" s="1"/>
+      <c r="AP12" s="1"/>
+      <c r="AQ12" s="1"/>
+      <c r="AR12" s="1"/>
+      <c r="AS12" s="1"/>
+      <c r="AT12" s="1"/>
+      <c r="AU12" s="1"/>
+      <c r="AV12" s="1"/>
+      <c r="AW12" s="1"/>
+      <c r="AX12" s="1"/>
+      <c r="AY12" s="1"/>
+      <c r="AZ12" s="1"/>
+      <c r="BA12" s="1"/>
+      <c r="BB12" s="1"/>
+      <c r="BC12" s="1"/>
+      <c r="BD12" s="1"/>
+      <c r="BE12" s="1"/>
+      <c r="BF12" s="1"/>
+      <c r="BG12" s="1"/>
+      <c r="BH12" s="1"/>
+      <c r="BI12" s="1"/>
+      <c r="BJ12" s="1"/>
+      <c r="BK12" s="1"/>
+      <c r="BL12" s="1"/>
+      <c r="BM12" s="1"/>
+      <c r="BN12" s="2"/>
+      <c r="BO12" s="2"/>
+      <c r="BP12" s="2"/>
+      <c r="BQ12" s="2"/>
+      <c r="BR12" s="2"/>
+      <c r="BS12" s="2"/>
+      <c r="BT12" s="2"/>
+      <c r="BU12" s="2"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="3"/>
+      <c r="AE13" s="3"/>
+      <c r="AF13" s="3"/>
+      <c r="AG13" s="3"/>
+      <c r="AH13" s="3"/>
+      <c r="AI13" s="3"/>
+      <c r="AJ13" s="3"/>
+      <c r="AK13" s="3"/>
+      <c r="AL13" s="3"/>
+      <c r="AM13" s="3"/>
+      <c r="AN13" s="3"/>
+      <c r="AO13" s="3"/>
+      <c r="AP13" s="3"/>
+      <c r="AQ13" s="3"/>
+      <c r="AR13" s="3"/>
+      <c r="AS13" s="3"/>
+      <c r="AT13" s="3"/>
+      <c r="AU13" s="3"/>
+      <c r="AV13" s="3"/>
+      <c r="AW13" s="3"/>
+      <c r="AX13" s="3"/>
+      <c r="AY13" s="3"/>
+      <c r="AZ13" s="3"/>
+      <c r="BA13" s="3"/>
+      <c r="BB13" s="3"/>
+      <c r="BC13" s="3"/>
+      <c r="BD13" s="3"/>
+      <c r="BE13" s="3"/>
+      <c r="BF13" s="3"/>
+      <c r="BG13" s="3"/>
+      <c r="BH13" s="3"/>
+      <c r="BI13" s="3"/>
+      <c r="BJ13" s="3"/>
+      <c r="BK13" s="3"/>
+      <c r="BL13" s="3"/>
+      <c r="BM13" s="3"/>
+      <c r="BN13" s="2"/>
+      <c r="BO13" s="2"/>
+      <c r="BP13" s="2"/>
+      <c r="BQ13" s="2"/>
+      <c r="BR13" s="2"/>
+      <c r="BS13" s="2"/>
+      <c r="BT13" s="2"/>
+      <c r="BU13" s="2"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="3"/>
+      <c r="AE14" s="3"/>
+      <c r="AF14" s="3"/>
+      <c r="AG14" s="3"/>
+      <c r="AH14" s="3"/>
+      <c r="AI14" s="3"/>
+      <c r="AJ14" s="3"/>
+      <c r="AK14" s="3"/>
+      <c r="AL14" s="3"/>
+      <c r="AM14" s="3"/>
+      <c r="AN14" s="3"/>
+      <c r="AO14" s="3"/>
+      <c r="AP14" s="3"/>
+      <c r="AQ14" s="3"/>
+      <c r="AR14" s="3"/>
+      <c r="AS14" s="3"/>
+      <c r="AT14" s="3"/>
+      <c r="AU14" s="3"/>
+      <c r="AV14" s="3"/>
+      <c r="AW14" s="3"/>
+      <c r="AX14" s="3"/>
+      <c r="AY14" s="3"/>
+      <c r="AZ14" s="3"/>
+      <c r="BA14" s="3"/>
+      <c r="BB14" s="3"/>
+      <c r="BC14" s="3"/>
+      <c r="BD14" s="3"/>
+      <c r="BE14" s="3"/>
+      <c r="BF14" s="3"/>
+      <c r="BG14" s="3"/>
+      <c r="BH14" s="3"/>
+      <c r="BI14" s="3"/>
+      <c r="BJ14" s="3"/>
+      <c r="BK14" s="3"/>
+      <c r="BL14" s="3"/>
+      <c r="BM14" s="3"/>
+      <c r="BN14" s="2"/>
+      <c r="BO14" s="2"/>
+      <c r="BP14" s="2"/>
+      <c r="BQ14" s="2"/>
+      <c r="BR14" s="2"/>
+      <c r="BS14" s="2"/>
+      <c r="BT14" s="2"/>
+      <c r="BU14" s="2"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3"/>
+      <c r="AC15" s="3"/>
+      <c r="AD15" s="3"/>
+      <c r="AE15" s="3"/>
+      <c r="AF15" s="3"/>
+      <c r="AG15" s="3"/>
+      <c r="AH15" s="3"/>
+      <c r="AI15" s="3"/>
+      <c r="AJ15" s="3"/>
+      <c r="AK15" s="3"/>
+      <c r="AL15" s="3"/>
+      <c r="AM15" s="3"/>
+      <c r="AN15" s="3"/>
+      <c r="AO15" s="3"/>
+      <c r="AP15" s="3"/>
+      <c r="AQ15" s="3"/>
+      <c r="AR15" s="3"/>
+      <c r="AS15" s="3"/>
+      <c r="AT15" s="3"/>
+      <c r="AU15" s="3"/>
+      <c r="AV15" s="3"/>
+      <c r="AW15" s="3"/>
+      <c r="AX15" s="3"/>
+      <c r="AY15" s="3"/>
+      <c r="AZ15" s="3"/>
+      <c r="BA15" s="3"/>
+      <c r="BB15" s="3"/>
+      <c r="BC15" s="3"/>
+      <c r="BD15" s="3"/>
+      <c r="BE15" s="3"/>
+      <c r="BF15" s="3"/>
+      <c r="BG15" s="3"/>
+      <c r="BH15" s="3"/>
+      <c r="BI15" s="3"/>
+      <c r="BJ15" s="3"/>
+      <c r="BK15" s="3"/>
+      <c r="BL15" s="3"/>
+      <c r="BM15" s="3"/>
+      <c r="BN15" s="2"/>
+      <c r="BO15" s="2"/>
+      <c r="BP15" s="2"/>
+      <c r="BQ15" s="2"/>
+      <c r="BR15" s="2"/>
+      <c r="BS15" s="2"/>
+      <c r="BT15" s="2"/>
+      <c r="BU15" s="2"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+      <c r="AF16" s="3"/>
+      <c r="AG16" s="3"/>
+      <c r="AH16" s="3"/>
+      <c r="AI16" s="3"/>
+      <c r="AJ16" s="3"/>
+      <c r="AK16" s="3"/>
+      <c r="AL16" s="3"/>
+      <c r="AM16" s="3"/>
+      <c r="AN16" s="3"/>
+      <c r="AO16" s="3"/>
+      <c r="AP16" s="3"/>
+      <c r="AQ16" s="3"/>
+      <c r="AR16" s="3"/>
+      <c r="AS16" s="3"/>
+      <c r="AT16" s="3"/>
+      <c r="AU16" s="3"/>
+      <c r="AV16" s="3"/>
+      <c r="AW16" s="3"/>
+      <c r="AX16" s="3"/>
+      <c r="AY16" s="3"/>
+      <c r="AZ16" s="3"/>
+      <c r="BA16" s="3"/>
+      <c r="BB16" s="3"/>
+      <c r="BC16" s="3"/>
+      <c r="BD16" s="3"/>
+      <c r="BE16" s="3"/>
+      <c r="BF16" s="3"/>
+      <c r="BG16" s="3"/>
+      <c r="BH16" s="3"/>
+      <c r="BI16" s="3"/>
+      <c r="BJ16" s="3"/>
+      <c r="BK16" s="3"/>
+      <c r="BL16" s="3"/>
+      <c r="BM16" s="3"/>
+      <c r="BN16" s="2"/>
+      <c r="BO16" s="2"/>
+      <c r="BP16" s="2"/>
+      <c r="BQ16" s="2"/>
+      <c r="BR16" s="2"/>
+      <c r="BS16" s="2"/>
+      <c r="BT16" s="2"/>
+      <c r="BU16" s="2"/>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="3"/>
+      <c r="AC17" s="3"/>
+      <c r="AD17" s="3"/>
+      <c r="AE17" s="3"/>
+      <c r="AF17" s="3"/>
+      <c r="AG17" s="3"/>
+      <c r="AH17" s="3"/>
+      <c r="AI17" s="3"/>
+      <c r="AJ17" s="3"/>
+      <c r="AK17" s="3"/>
+      <c r="AL17" s="3"/>
+      <c r="AM17" s="3"/>
+      <c r="AN17" s="3"/>
+      <c r="AO17" s="3"/>
+      <c r="AP17" s="3"/>
+      <c r="AQ17" s="3"/>
+      <c r="AR17" s="3"/>
+      <c r="AS17" s="3"/>
+      <c r="AT17" s="3"/>
+      <c r="AU17" s="3"/>
+      <c r="AV17" s="3"/>
+      <c r="AW17" s="3"/>
+      <c r="AX17" s="3"/>
+      <c r="AY17" s="3"/>
+      <c r="AZ17" s="3"/>
+      <c r="BA17" s="3"/>
+      <c r="BB17" s="3"/>
+      <c r="BC17" s="3"/>
+      <c r="BD17" s="3"/>
+      <c r="BE17" s="3"/>
+      <c r="BF17" s="3"/>
+      <c r="BG17" s="3"/>
+      <c r="BH17" s="3"/>
+      <c r="BI17" s="3"/>
+      <c r="BJ17" s="3"/>
+      <c r="BK17" s="3"/>
+      <c r="BL17" s="3"/>
+      <c r="BM17" s="3"/>
+      <c r="BN17" s="2"/>
+      <c r="BO17" s="2"/>
+      <c r="BP17" s="2"/>
+      <c r="BQ17" s="2"/>
+      <c r="BR17" s="2"/>
+      <c r="BS17" s="2"/>
+      <c r="BT17" s="2"/>
+      <c r="BU17" s="2"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="3"/>
+      <c r="AC18" s="3"/>
+      <c r="AD18" s="3"/>
+      <c r="AE18" s="3"/>
+      <c r="AF18" s="3"/>
+      <c r="AG18" s="3"/>
+      <c r="AH18" s="3"/>
+      <c r="AI18" s="3"/>
+      <c r="AJ18" s="3"/>
+      <c r="AK18" s="3"/>
+      <c r="AL18" s="3"/>
+      <c r="AM18" s="3"/>
+      <c r="AN18" s="3"/>
+      <c r="AO18" s="3"/>
+      <c r="AP18" s="3"/>
+      <c r="AQ18" s="3"/>
+      <c r="AR18" s="3"/>
+      <c r="AS18" s="3"/>
+      <c r="AT18" s="3"/>
+      <c r="AU18" s="3"/>
+      <c r="AV18" s="3"/>
+      <c r="AW18" s="3"/>
+      <c r="AX18" s="3"/>
+      <c r="AY18" s="3"/>
+      <c r="AZ18" s="3"/>
+      <c r="BA18" s="3"/>
+      <c r="BB18" s="3"/>
+      <c r="BC18" s="3"/>
+      <c r="BD18" s="3"/>
+      <c r="BE18" s="3"/>
+      <c r="BF18" s="3"/>
+      <c r="BG18" s="3"/>
+      <c r="BH18" s="3"/>
+      <c r="BI18" s="3"/>
+      <c r="BJ18" s="3"/>
+      <c r="BK18" s="3"/>
+      <c r="BL18" s="3"/>
+      <c r="BM18" s="3"/>
+      <c r="BN18" s="2"/>
+      <c r="BO18" s="2"/>
+      <c r="BP18" s="2"/>
+      <c r="BQ18" s="2"/>
+      <c r="BR18" s="2"/>
+      <c r="BS18" s="2"/>
+      <c r="BT18" s="2"/>
+      <c r="BU18" s="2"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+      <c r="AF19" s="3"/>
+      <c r="AG19" s="3"/>
+      <c r="AH19" s="3"/>
+      <c r="AI19" s="3"/>
+      <c r="AJ19" s="3"/>
+      <c r="AK19" s="3"/>
+      <c r="AL19" s="3"/>
+      <c r="AM19" s="3"/>
+      <c r="AN19" s="3"/>
+      <c r="AO19" s="3"/>
+      <c r="AP19" s="3"/>
+      <c r="AQ19" s="3"/>
+      <c r="AR19" s="3"/>
+      <c r="AS19" s="3"/>
+      <c r="AT19" s="3"/>
+      <c r="AU19" s="3"/>
+      <c r="AV19" s="3"/>
+      <c r="AW19" s="3"/>
+      <c r="AX19" s="3"/>
+      <c r="AY19" s="3"/>
+      <c r="AZ19" s="3"/>
+      <c r="BA19" s="3"/>
+      <c r="BB19" s="3"/>
+      <c r="BC19" s="3"/>
+      <c r="BD19" s="3"/>
+      <c r="BE19" s="3"/>
+      <c r="BF19" s="3"/>
+      <c r="BG19" s="3"/>
+      <c r="BH19" s="3"/>
+      <c r="BI19" s="3"/>
+      <c r="BJ19" s="3"/>
+      <c r="BK19" s="3"/>
+      <c r="BL19" s="3"/>
+      <c r="BM19" s="3"/>
+      <c r="BN19" s="2"/>
+      <c r="BO19" s="2"/>
+      <c r="BP19" s="2"/>
+      <c r="BQ19" s="2"/>
+      <c r="BR19" s="2"/>
+      <c r="BS19" s="2"/>
+      <c r="BT19" s="2"/>
+      <c r="BU19" s="2"/>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="3"/>
+      <c r="AC20" s="3"/>
+      <c r="AD20" s="3"/>
+      <c r="AE20" s="3"/>
+      <c r="AF20" s="3"/>
+      <c r="AG20" s="3"/>
+      <c r="AH20" s="3"/>
+      <c r="AI20" s="3"/>
+      <c r="AJ20" s="3"/>
+      <c r="AK20" s="3"/>
+      <c r="AL20" s="3"/>
+      <c r="AM20" s="3"/>
+      <c r="AN20" s="3"/>
+      <c r="AO20" s="3"/>
+      <c r="AP20" s="3"/>
+      <c r="AQ20" s="3"/>
+      <c r="AR20" s="3"/>
+      <c r="AS20" s="3"/>
+      <c r="AT20" s="3"/>
+      <c r="AU20" s="3"/>
+      <c r="AV20" s="3"/>
+      <c r="AW20" s="3"/>
+      <c r="AX20" s="3"/>
+      <c r="AY20" s="3"/>
+      <c r="AZ20" s="3"/>
+      <c r="BA20" s="3"/>
+      <c r="BB20" s="3"/>
+      <c r="BC20" s="3"/>
+      <c r="BD20" s="3"/>
+      <c r="BE20" s="3"/>
+      <c r="BF20" s="3"/>
+      <c r="BG20" s="3"/>
+      <c r="BH20" s="3"/>
+      <c r="BI20" s="3"/>
+      <c r="BJ20" s="3"/>
+      <c r="BK20" s="3"/>
+      <c r="BL20" s="3"/>
+      <c r="BM20" s="3"/>
+      <c r="BN20" s="2"/>
+      <c r="BO20" s="2"/>
+      <c r="BP20" s="2"/>
+      <c r="BQ20" s="2"/>
+      <c r="BR20" s="2"/>
+      <c r="BS20" s="2"/>
+      <c r="BT20" s="2"/>
+      <c r="BU20" s="2"/>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3"/>
+      <c r="AD21" s="3"/>
+      <c r="AE21" s="3"/>
+      <c r="AF21" s="3"/>
+      <c r="AG21" s="3"/>
+      <c r="AH21" s="3"/>
+      <c r="AI21" s="3"/>
+      <c r="AJ21" s="3"/>
+      <c r="AK21" s="3"/>
+      <c r="AL21" s="3"/>
+      <c r="AM21" s="3"/>
+      <c r="AN21" s="3"/>
+      <c r="AO21" s="3"/>
+      <c r="AP21" s="3"/>
+      <c r="AQ21" s="3"/>
+      <c r="AR21" s="3"/>
+      <c r="AS21" s="3"/>
+      <c r="AT21" s="3"/>
+      <c r="AU21" s="3"/>
+      <c r="AV21" s="3"/>
+      <c r="AW21" s="3"/>
+      <c r="AX21" s="3"/>
+      <c r="AY21" s="3"/>
+      <c r="AZ21" s="3"/>
+      <c r="BA21" s="3"/>
+      <c r="BB21" s="3"/>
+      <c r="BC21" s="3"/>
+      <c r="BD21" s="3"/>
+      <c r="BE21" s="3"/>
+      <c r="BF21" s="3"/>
+      <c r="BG21" s="3"/>
+      <c r="BH21" s="3"/>
+      <c r="BI21" s="3"/>
+      <c r="BJ21" s="3"/>
+      <c r="BK21" s="3"/>
+      <c r="BL21" s="3"/>
+      <c r="BM21" s="3"/>
+      <c r="BN21" s="2"/>
+      <c r="BO21" s="2"/>
+      <c r="BP21" s="2"/>
+      <c r="BQ21" s="2"/>
+      <c r="BR21" s="2"/>
+      <c r="BS21" s="2"/>
+      <c r="BT21" s="2"/>
+      <c r="BU21" s="2"/>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="3"/>
+      <c r="AE22" s="3"/>
+      <c r="AF22" s="3"/>
+      <c r="AG22" s="3"/>
+      <c r="AH22" s="3"/>
+      <c r="AI22" s="3"/>
+      <c r="AJ22" s="3"/>
+      <c r="AK22" s="3"/>
+      <c r="AL22" s="3"/>
+      <c r="AM22" s="3"/>
+      <c r="AN22" s="3"/>
+      <c r="AO22" s="3"/>
+      <c r="AP22" s="3"/>
+      <c r="AQ22" s="3"/>
+      <c r="AR22" s="3"/>
+      <c r="AS22" s="3"/>
+      <c r="AT22" s="3"/>
+      <c r="AU22" s="3"/>
+      <c r="AV22" s="3"/>
+      <c r="AW22" s="3"/>
+      <c r="AX22" s="3"/>
+      <c r="AY22" s="3"/>
+      <c r="AZ22" s="3"/>
+      <c r="BA22" s="3"/>
+      <c r="BB22" s="3"/>
+      <c r="BC22" s="3"/>
+      <c r="BD22" s="3"/>
+      <c r="BE22" s="3"/>
+      <c r="BF22" s="3"/>
+      <c r="BG22" s="3"/>
+      <c r="BH22" s="3"/>
+      <c r="BI22" s="3"/>
+      <c r="BJ22" s="3"/>
+      <c r="BK22" s="3"/>
+      <c r="BL22" s="3"/>
+      <c r="BM22" s="3"/>
+      <c r="BN22" s="2"/>
+      <c r="BO22" s="2"/>
+      <c r="BP22" s="2"/>
+      <c r="BQ22" s="2"/>
+      <c r="BR22" s="2"/>
+      <c r="BS22" s="2"/>
+      <c r="BT22" s="2"/>
+      <c r="BU22" s="2"/>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="3"/>
+      <c r="AC23" s="3"/>
+      <c r="AD23" s="3"/>
+      <c r="AE23" s="3"/>
+      <c r="AF23" s="3"/>
+      <c r="AG23" s="3"/>
+      <c r="AH23" s="3"/>
+      <c r="AI23" s="3"/>
+      <c r="AJ23" s="3"/>
+      <c r="AK23" s="3"/>
+      <c r="AL23" s="3"/>
+      <c r="AM23" s="3"/>
+      <c r="AN23" s="3"/>
+      <c r="AO23" s="3"/>
+      <c r="AP23" s="3"/>
+      <c r="AQ23" s="3"/>
+      <c r="AR23" s="3"/>
+      <c r="AS23" s="3"/>
+      <c r="AT23" s="3"/>
+      <c r="AU23" s="3"/>
+      <c r="AV23" s="3"/>
+      <c r="AW23" s="3"/>
+      <c r="AX23" s="3"/>
+      <c r="AY23" s="3"/>
+      <c r="AZ23" s="3"/>
+      <c r="BA23" s="3"/>
+      <c r="BB23" s="3"/>
+      <c r="BC23" s="3"/>
+      <c r="BD23" s="3"/>
+      <c r="BE23" s="3"/>
+      <c r="BF23" s="3"/>
+      <c r="BG23" s="3"/>
+      <c r="BH23" s="3"/>
+      <c r="BI23" s="3"/>
+      <c r="BJ23" s="3"/>
+      <c r="BK23" s="3"/>
+      <c r="BL23" s="3"/>
+      <c r="BM23" s="3"/>
+      <c r="BN23" s="2"/>
+      <c r="BO23" s="2"/>
+      <c r="BP23" s="2"/>
+      <c r="BQ23" s="2"/>
+      <c r="BR23" s="2"/>
+      <c r="BS23" s="2"/>
+      <c r="BT23" s="2"/>
+      <c r="BU23" s="2"/>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3"/>
+      <c r="AB24" s="3"/>
+      <c r="AC24" s="3"/>
+      <c r="AD24" s="3"/>
+      <c r="AE24" s="3"/>
+      <c r="AF24" s="3"/>
+      <c r="AG24" s="3"/>
+      <c r="AH24" s="3"/>
+      <c r="AI24" s="3"/>
+      <c r="AJ24" s="3"/>
+      <c r="AK24" s="3"/>
+      <c r="AL24" s="3"/>
+      <c r="AM24" s="3"/>
+      <c r="AN24" s="3"/>
+      <c r="AO24" s="3"/>
+      <c r="AP24" s="3"/>
+      <c r="AQ24" s="3"/>
+      <c r="AR24" s="3"/>
+      <c r="AS24" s="3"/>
+      <c r="AT24" s="3"/>
+      <c r="AU24" s="3"/>
+      <c r="AV24" s="3"/>
+      <c r="AW24" s="3"/>
+      <c r="AX24" s="3"/>
+      <c r="AY24" s="3"/>
+      <c r="AZ24" s="3"/>
+      <c r="BA24" s="3"/>
+      <c r="BB24" s="3"/>
+      <c r="BC24" s="3"/>
+      <c r="BD24" s="3"/>
+      <c r="BE24" s="3"/>
+      <c r="BF24" s="3"/>
+      <c r="BG24" s="3"/>
+      <c r="BH24" s="3"/>
+      <c r="BI24" s="3"/>
+      <c r="BJ24" s="3"/>
+      <c r="BK24" s="3"/>
+      <c r="BL24" s="3"/>
+      <c r="BM24" s="3"/>
+      <c r="BN24" s="2"/>
+      <c r="BO24" s="2"/>
+      <c r="BP24" s="2"/>
+      <c r="BQ24" s="2"/>
+      <c r="BR24" s="2"/>
+      <c r="BS24" s="2"/>
+      <c r="BT24" s="2"/>
+      <c r="BU24" s="2"/>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
+      <c r="AA25" s="3"/>
+      <c r="AB25" s="3"/>
+      <c r="AC25" s="3"/>
+      <c r="AD25" s="3"/>
+      <c r="AE25" s="3"/>
+      <c r="AF25" s="3"/>
+      <c r="AG25" s="3"/>
+      <c r="AH25" s="3"/>
+      <c r="AI25" s="3"/>
+      <c r="AJ25" s="3"/>
+      <c r="AK25" s="3"/>
+      <c r="AL25" s="3"/>
+      <c r="AM25" s="3"/>
+      <c r="AN25" s="3"/>
+      <c r="AO25" s="3"/>
+      <c r="AP25" s="3"/>
+      <c r="AQ25" s="3"/>
+      <c r="AR25" s="3"/>
+      <c r="AS25" s="3"/>
+      <c r="AT25" s="3"/>
+      <c r="AU25" s="3"/>
+      <c r="AV25" s="3"/>
+      <c r="AW25" s="3"/>
+      <c r="AX25" s="3"/>
+      <c r="AY25" s="3"/>
+      <c r="AZ25" s="3"/>
+      <c r="BA25" s="3"/>
+      <c r="BB25" s="3"/>
+      <c r="BC25" s="3"/>
+      <c r="BD25" s="3"/>
+      <c r="BE25" s="3"/>
+      <c r="BF25" s="3"/>
+      <c r="BG25" s="3"/>
+      <c r="BH25" s="3"/>
+      <c r="BI25" s="3"/>
+      <c r="BJ25" s="3"/>
+      <c r="BK25" s="3"/>
+      <c r="BL25" s="3"/>
+      <c r="BM25" s="3"/>
+      <c r="BN25" s="2"/>
+      <c r="BO25" s="2"/>
+      <c r="BP25" s="2"/>
+      <c r="BQ25" s="2"/>
+      <c r="BR25" s="2"/>
+      <c r="BS25" s="2"/>
+      <c r="BT25" s="2"/>
+      <c r="BU25" s="2"/>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+      <c r="AA26" s="3"/>
+      <c r="AB26" s="3"/>
+      <c r="AC26" s="3"/>
+      <c r="AD26" s="3"/>
+      <c r="AE26" s="3"/>
+      <c r="AF26" s="3"/>
+      <c r="AG26" s="3"/>
+      <c r="AH26" s="3"/>
+      <c r="AI26" s="3"/>
+      <c r="AJ26" s="3"/>
+      <c r="AK26" s="3"/>
+      <c r="AL26" s="3"/>
+      <c r="AM26" s="3"/>
+      <c r="AN26" s="3"/>
+      <c r="AO26" s="3"/>
+      <c r="AP26" s="3"/>
+      <c r="AQ26" s="3"/>
+      <c r="AR26" s="3"/>
+      <c r="AS26" s="3"/>
+      <c r="AT26" s="3"/>
+      <c r="AU26" s="3"/>
+      <c r="AV26" s="3"/>
+      <c r="AW26" s="3"/>
+      <c r="AX26" s="3"/>
+      <c r="AY26" s="3"/>
+      <c r="AZ26" s="3"/>
+      <c r="BA26" s="3"/>
+      <c r="BB26" s="3"/>
+      <c r="BC26" s="3"/>
+      <c r="BD26" s="3"/>
+      <c r="BE26" s="3"/>
+      <c r="BF26" s="3"/>
+      <c r="BG26" s="3"/>
+      <c r="BH26" s="3"/>
+      <c r="BI26" s="3"/>
+      <c r="BJ26" s="3"/>
+      <c r="BK26" s="3"/>
+      <c r="BL26" s="3"/>
+      <c r="BM26" s="3"/>
+      <c r="BN26" s="2"/>
+      <c r="BO26" s="2"/>
+      <c r="BP26" s="2"/>
+      <c r="BQ26" s="2"/>
+      <c r="BR26" s="2"/>
+      <c r="BS26" s="2"/>
+      <c r="BT26" s="2"/>
+      <c r="BU26" s="2"/>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3"/>
+      <c r="AB27" s="3"/>
+      <c r="AC27" s="3"/>
+      <c r="AD27" s="3"/>
+      <c r="AE27" s="3"/>
+      <c r="AF27" s="3"/>
+      <c r="AG27" s="3"/>
+      <c r="AH27" s="3"/>
+      <c r="AI27" s="3"/>
+      <c r="AJ27" s="3"/>
+      <c r="AK27" s="3"/>
+      <c r="AL27" s="3"/>
+      <c r="AM27" s="3"/>
+      <c r="AN27" s="3"/>
+      <c r="AO27" s="3"/>
+      <c r="AP27" s="3"/>
+      <c r="AQ27" s="3"/>
+      <c r="AR27" s="3"/>
+      <c r="AS27" s="3"/>
+      <c r="AT27" s="3"/>
+      <c r="AU27" s="3"/>
+      <c r="AV27" s="3"/>
+      <c r="AW27" s="3"/>
+      <c r="AX27" s="3"/>
+      <c r="AY27" s="3"/>
+      <c r="AZ27" s="3"/>
+      <c r="BA27" s="3"/>
+      <c r="BB27" s="3"/>
+      <c r="BC27" s="3"/>
+      <c r="BD27" s="3"/>
+      <c r="BE27" s="3"/>
+      <c r="BF27" s="3"/>
+      <c r="BG27" s="3"/>
+      <c r="BH27" s="3"/>
+      <c r="BI27" s="3"/>
+      <c r="BJ27" s="3"/>
+      <c r="BK27" s="3"/>
+      <c r="BL27" s="3"/>
+      <c r="BM27" s="3"/>
+      <c r="BN27" s="2"/>
+      <c r="BO27" s="2"/>
+      <c r="BP27" s="2"/>
+      <c r="BQ27" s="2"/>
+      <c r="BR27" s="2"/>
+      <c r="BS27" s="2"/>
+      <c r="BT27" s="2"/>
+      <c r="BU27" s="2"/>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3"/>
+      <c r="AB28" s="3"/>
+      <c r="AC28" s="3"/>
+      <c r="AD28" s="3"/>
+      <c r="AE28" s="3"/>
+      <c r="AF28" s="3"/>
+      <c r="AG28" s="3"/>
+      <c r="AH28" s="3"/>
+      <c r="AI28" s="3"/>
+      <c r="AJ28" s="3"/>
+      <c r="AK28" s="3"/>
+      <c r="AL28" s="3"/>
+      <c r="AM28" s="3"/>
+      <c r="AN28" s="3"/>
+      <c r="AO28" s="3"/>
+      <c r="AP28" s="3"/>
+      <c r="AQ28" s="3"/>
+      <c r="AR28" s="3"/>
+      <c r="AS28" s="3"/>
+      <c r="AT28" s="3"/>
+      <c r="AU28" s="3"/>
+      <c r="AV28" s="3"/>
+      <c r="AW28" s="3"/>
+      <c r="AX28" s="3"/>
+      <c r="AY28" s="3"/>
+      <c r="AZ28" s="3"/>
+      <c r="BA28" s="3"/>
+      <c r="BB28" s="3"/>
+      <c r="BC28" s="3"/>
+      <c r="BD28" s="3"/>
+      <c r="BE28" s="3"/>
+      <c r="BF28" s="3"/>
+      <c r="BG28" s="3"/>
+      <c r="BH28" s="3"/>
+      <c r="BI28" s="3"/>
+      <c r="BJ28" s="3"/>
+      <c r="BK28" s="3"/>
+      <c r="BL28" s="3"/>
+      <c r="BM28" s="3"/>
+      <c r="BN28" s="2"/>
+      <c r="BO28" s="2"/>
+      <c r="BP28" s="2"/>
+      <c r="BQ28" s="2"/>
+      <c r="BR28" s="2"/>
+      <c r="BS28" s="2"/>
+      <c r="BT28" s="2"/>
+      <c r="BU28" s="2"/>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="3"/>
+      <c r="AB29" s="3"/>
+      <c r="AC29" s="3"/>
+      <c r="AD29" s="3"/>
+      <c r="AE29" s="3"/>
+      <c r="AF29" s="3"/>
+      <c r="AG29" s="3"/>
+      <c r="AH29" s="3"/>
+      <c r="AI29" s="3"/>
+      <c r="AJ29" s="3"/>
+      <c r="AK29" s="3"/>
+      <c r="AL29" s="3"/>
+      <c r="AM29" s="3"/>
+      <c r="AN29" s="3"/>
+      <c r="AO29" s="3"/>
+      <c r="AP29" s="3"/>
+      <c r="AQ29" s="3"/>
+      <c r="AR29" s="3"/>
+      <c r="AS29" s="3"/>
+      <c r="AT29" s="3"/>
+      <c r="AU29" s="3"/>
+      <c r="AV29" s="3"/>
+      <c r="AW29" s="3"/>
+      <c r="AX29" s="3"/>
+      <c r="AY29" s="3"/>
+      <c r="AZ29" s="3"/>
+      <c r="BA29" s="3"/>
+      <c r="BB29" s="3"/>
+      <c r="BC29" s="3"/>
+      <c r="BD29" s="3"/>
+      <c r="BE29" s="3"/>
+      <c r="BF29" s="3"/>
+      <c r="BG29" s="3"/>
+      <c r="BH29" s="3"/>
+      <c r="BI29" s="3"/>
+      <c r="BJ29" s="3"/>
+      <c r="BK29" s="3"/>
+      <c r="BL29" s="3"/>
+      <c r="BM29" s="3"/>
+      <c r="BN29" s="2"/>
+      <c r="BO29" s="2"/>
+      <c r="BP29" s="2"/>
+      <c r="BQ29" s="2"/>
+      <c r="BR29" s="2"/>
+      <c r="BS29" s="2"/>
+      <c r="BT29" s="2"/>
+      <c r="BU29" s="2"/>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="3"/>
+      <c r="AA30" s="3"/>
+      <c r="AB30" s="3"/>
+      <c r="AC30" s="3"/>
+      <c r="AD30" s="3"/>
+      <c r="AE30" s="3"/>
+      <c r="AF30" s="3"/>
+      <c r="AG30" s="3"/>
+      <c r="AH30" s="3"/>
+      <c r="AI30" s="3"/>
+      <c r="AJ30" s="3"/>
+      <c r="AK30" s="3"/>
+      <c r="AL30" s="3"/>
+      <c r="AM30" s="3"/>
+      <c r="AN30" s="3"/>
+      <c r="AO30" s="3"/>
+      <c r="AP30" s="3"/>
+      <c r="AQ30" s="3"/>
+      <c r="AR30" s="3"/>
+      <c r="AS30" s="3"/>
+      <c r="AT30" s="3"/>
+      <c r="AU30" s="3"/>
+      <c r="AV30" s="3"/>
+      <c r="AW30" s="3"/>
+      <c r="AX30" s="3"/>
+      <c r="AY30" s="3"/>
+      <c r="AZ30" s="3"/>
+      <c r="BA30" s="3"/>
+      <c r="BB30" s="3"/>
+      <c r="BC30" s="3"/>
+      <c r="BD30" s="3"/>
+      <c r="BE30" s="3"/>
+      <c r="BF30" s="3"/>
+      <c r="BG30" s="3"/>
+      <c r="BH30" s="3"/>
+      <c r="BI30" s="3"/>
+      <c r="BJ30" s="3"/>
+      <c r="BK30" s="3"/>
+      <c r="BL30" s="3"/>
+      <c r="BM30" s="3"/>
+      <c r="BN30" s="2"/>
+      <c r="BO30" s="2"/>
+      <c r="BP30" s="2"/>
+      <c r="BQ30" s="2"/>
+      <c r="BR30" s="2"/>
+      <c r="BS30" s="2"/>
+      <c r="BT30" s="2"/>
+      <c r="BU30" s="2"/>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3"/>
+      <c r="AA31" s="3"/>
+      <c r="AB31" s="3"/>
+      <c r="AC31" s="3"/>
+      <c r="AD31" s="3"/>
+      <c r="AE31" s="3"/>
+      <c r="AF31" s="3"/>
+      <c r="AG31" s="3"/>
+      <c r="AH31" s="3"/>
+      <c r="AI31" s="3"/>
+      <c r="AJ31" s="3"/>
+      <c r="AK31" s="3"/>
+      <c r="AL31" s="3"/>
+      <c r="AM31" s="3"/>
+      <c r="AN31" s="3"/>
+      <c r="AO31" s="3"/>
+      <c r="AP31" s="3"/>
+      <c r="AQ31" s="3"/>
+      <c r="AR31" s="3"/>
+      <c r="AS31" s="3"/>
+      <c r="AT31" s="3"/>
+      <c r="AU31" s="3"/>
+      <c r="AV31" s="3"/>
+      <c r="AW31" s="3"/>
+      <c r="AX31" s="3"/>
+      <c r="AY31" s="3"/>
+      <c r="AZ31" s="3"/>
+      <c r="BA31" s="3"/>
+      <c r="BB31" s="3"/>
+      <c r="BC31" s="3"/>
+      <c r="BD31" s="3"/>
+      <c r="BE31" s="3"/>
+      <c r="BF31" s="3"/>
+      <c r="BG31" s="3"/>
+      <c r="BH31" s="3"/>
+      <c r="BI31" s="3"/>
+      <c r="BJ31" s="3"/>
+      <c r="BK31" s="3"/>
+      <c r="BL31" s="3"/>
+      <c r="BM31" s="3"/>
+      <c r="BN31" s="2"/>
+      <c r="BO31" s="2"/>
+      <c r="BP31" s="2"/>
+      <c r="BQ31" s="2"/>
+      <c r="BR31" s="2"/>
+      <c r="BS31" s="2"/>
+      <c r="BT31" s="2"/>
+      <c r="BU31" s="2"/>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="3"/>
+      <c r="Y32" s="3"/>
+      <c r="Z32" s="3"/>
+      <c r="AA32" s="3"/>
+      <c r="AB32" s="3"/>
+      <c r="AC32" s="3"/>
+      <c r="AD32" s="3"/>
+      <c r="AE32" s="3"/>
+      <c r="AF32" s="3"/>
+      <c r="AG32" s="3"/>
+      <c r="AH32" s="3"/>
+      <c r="AI32" s="3"/>
+      <c r="AJ32" s="3"/>
+      <c r="AK32" s="3"/>
+      <c r="AL32" s="3"/>
+      <c r="AM32" s="3"/>
+      <c r="AN32" s="3"/>
+      <c r="AO32" s="3"/>
+      <c r="AP32" s="3"/>
+      <c r="AQ32" s="3"/>
+      <c r="AR32" s="3"/>
+      <c r="AS32" s="3"/>
+      <c r="AT32" s="3"/>
+      <c r="AU32" s="3"/>
+      <c r="AV32" s="3"/>
+      <c r="AW32" s="3"/>
+      <c r="AX32" s="3"/>
+      <c r="AY32" s="3"/>
+      <c r="AZ32" s="3"/>
+      <c r="BA32" s="3"/>
+      <c r="BB32" s="3"/>
+      <c r="BC32" s="3"/>
+      <c r="BD32" s="3"/>
+      <c r="BE32" s="3"/>
+      <c r="BF32" s="3"/>
+      <c r="BG32" s="3"/>
+      <c r="BH32" s="3"/>
+      <c r="BI32" s="3"/>
+      <c r="BJ32" s="3"/>
+      <c r="BK32" s="3"/>
+      <c r="BL32" s="3"/>
+      <c r="BM32" s="3"/>
+      <c r="BN32" s="2"/>
+      <c r="BO32" s="2"/>
+      <c r="BP32" s="2"/>
+      <c r="BQ32" s="2"/>
+      <c r="BR32" s="2"/>
+      <c r="BS32" s="2"/>
+      <c r="BT32" s="2"/>
+      <c r="BU32" s="2"/>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="3"/>
+      <c r="AA33" s="3"/>
+      <c r="AB33" s="3"/>
+      <c r="AC33" s="3"/>
+      <c r="AD33" s="3"/>
+      <c r="AE33" s="3"/>
+      <c r="AF33" s="3"/>
+      <c r="AG33" s="3"/>
+      <c r="AH33" s="3"/>
+      <c r="AI33" s="3"/>
+      <c r="AJ33" s="3"/>
+      <c r="AK33" s="3"/>
+      <c r="AL33" s="3"/>
+      <c r="AM33" s="3"/>
+      <c r="AN33" s="3"/>
+      <c r="AO33" s="3"/>
+      <c r="AP33" s="3"/>
+      <c r="AQ33" s="3"/>
+      <c r="AR33" s="3"/>
+      <c r="AS33" s="3"/>
+      <c r="AT33" s="3"/>
+      <c r="AU33" s="3"/>
+      <c r="AV33" s="3"/>
+      <c r="AW33" s="3"/>
+      <c r="AX33" s="3"/>
+      <c r="AY33" s="3"/>
+      <c r="AZ33" s="3"/>
+      <c r="BA33" s="3"/>
+      <c r="BB33" s="3"/>
+      <c r="BC33" s="3"/>
+      <c r="BD33" s="3"/>
+      <c r="BE33" s="3"/>
+      <c r="BF33" s="3"/>
+      <c r="BG33" s="3"/>
+      <c r="BH33" s="3"/>
+      <c r="BI33" s="3"/>
+      <c r="BJ33" s="3"/>
+      <c r="BK33" s="3"/>
+      <c r="BL33" s="3"/>
+      <c r="BM33" s="3"/>
+      <c r="BN33" s="2"/>
+      <c r="BO33" s="2"/>
+      <c r="BP33" s="2"/>
+      <c r="BQ33" s="2"/>
+      <c r="BR33" s="2"/>
+      <c r="BS33" s="2"/>
+      <c r="BT33" s="2"/>
+      <c r="BU33" s="2"/>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="3"/>
+      <c r="AA34" s="3"/>
+      <c r="AB34" s="3"/>
+      <c r="AC34" s="3"/>
+      <c r="AD34" s="3"/>
+      <c r="AE34" s="3"/>
+      <c r="AF34" s="3"/>
+      <c r="AG34" s="3"/>
+      <c r="AH34" s="3"/>
+      <c r="AI34" s="3"/>
+      <c r="AJ34" s="3"/>
+      <c r="AK34" s="3"/>
+      <c r="AL34" s="3"/>
+      <c r="AM34" s="3"/>
+      <c r="AN34" s="3"/>
+      <c r="AO34" s="3"/>
+      <c r="AP34" s="3"/>
+      <c r="AQ34" s="3"/>
+      <c r="AR34" s="3"/>
+      <c r="AS34" s="3"/>
+      <c r="AT34" s="3"/>
+      <c r="AU34" s="3"/>
+      <c r="AV34" s="3"/>
+      <c r="AW34" s="3"/>
+      <c r="AX34" s="3"/>
+      <c r="AY34" s="3"/>
+      <c r="AZ34" s="3"/>
+      <c r="BA34" s="3"/>
+      <c r="BB34" s="3"/>
+      <c r="BC34" s="3"/>
+      <c r="BD34" s="3"/>
+      <c r="BE34" s="3"/>
+      <c r="BF34" s="3"/>
+      <c r="BG34" s="3"/>
+      <c r="BH34" s="3"/>
+      <c r="BI34" s="3"/>
+      <c r="BJ34" s="3"/>
+      <c r="BK34" s="3"/>
+      <c r="BL34" s="3"/>
+      <c r="BM34" s="3"/>
+      <c r="BN34" s="2"/>
+      <c r="BO34" s="2"/>
+      <c r="BP34" s="2"/>
+      <c r="BQ34" s="2"/>
+      <c r="BR34" s="2"/>
+      <c r="BS34" s="2"/>
+      <c r="BT34" s="2"/>
+      <c r="BU34" s="2"/>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+      <c r="W35" s="2"/>
+      <c r="X35" s="2"/>
+      <c r="Y35" s="2"/>
+      <c r="Z35" s="2"/>
+      <c r="AA35" s="2"/>
+      <c r="AB35" s="2"/>
+      <c r="AC35" s="2"/>
+      <c r="AD35" s="2"/>
+      <c r="AE35" s="2"/>
+      <c r="AF35" s="2"/>
+      <c r="AG35" s="2"/>
+      <c r="AH35" s="2"/>
+      <c r="AI35" s="2"/>
+      <c r="AJ35" s="2"/>
+      <c r="AK35" s="2"/>
+      <c r="AL35" s="2"/>
+      <c r="AM35" s="2"/>
+      <c r="AN35" s="2"/>
+      <c r="AO35" s="2"/>
+      <c r="AP35" s="2"/>
+      <c r="AQ35" s="2"/>
+      <c r="AR35" s="2"/>
+      <c r="AS35" s="2"/>
+      <c r="AT35" s="2"/>
+      <c r="AU35" s="2"/>
+      <c r="AV35" s="2"/>
+      <c r="AW35" s="2"/>
+      <c r="AX35" s="2"/>
+      <c r="AY35" s="2"/>
+      <c r="AZ35" s="2"/>
+      <c r="BA35" s="2"/>
+      <c r="BB35" s="2"/>
+      <c r="BC35" s="2"/>
+      <c r="BD35" s="2"/>
+      <c r="BE35" s="2"/>
+      <c r="BF35" s="2"/>
+      <c r="BG35" s="2"/>
+      <c r="BH35" s="2"/>
+      <c r="BI35" s="2"/>
+      <c r="BJ35" s="2"/>
+      <c r="BK35" s="2"/>
+      <c r="BL35" s="2"/>
+      <c r="BM35" s="2"/>
+      <c r="BN35" s="2"/>
+      <c r="BO35" s="2"/>
+      <c r="BP35" s="2"/>
+      <c r="BQ35" s="2"/>
+      <c r="BR35" s="2"/>
+      <c r="BS35" s="2"/>
+      <c r="BT35" s="2"/>
+      <c r="BU35" s="2"/>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+      <c r="W36" s="2"/>
+      <c r="X36" s="2"/>
+      <c r="Y36" s="2"/>
+      <c r="Z36" s="2"/>
+      <c r="AA36" s="2"/>
+      <c r="AB36" s="2"/>
+      <c r="AC36" s="2"/>
+      <c r="AD36" s="2"/>
+      <c r="AE36" s="2"/>
+      <c r="AF36" s="2"/>
+      <c r="AG36" s="2"/>
+      <c r="AH36" s="2"/>
+      <c r="AI36" s="2"/>
+      <c r="AJ36" s="2"/>
+      <c r="AK36" s="2"/>
+      <c r="AL36" s="2"/>
+      <c r="AM36" s="2"/>
+      <c r="AN36" s="2"/>
+      <c r="AO36" s="2"/>
+      <c r="AP36" s="2"/>
+      <c r="AQ36" s="2"/>
+      <c r="AR36" s="2"/>
+      <c r="AS36" s="2"/>
+      <c r="AT36" s="2"/>
+      <c r="AU36" s="2"/>
+      <c r="AV36" s="2"/>
+      <c r="AW36" s="2"/>
+      <c r="AX36" s="2"/>
+      <c r="AY36" s="2"/>
+      <c r="AZ36" s="2"/>
+      <c r="BA36" s="2"/>
+      <c r="BB36" s="2"/>
+      <c r="BC36" s="2"/>
+      <c r="BD36" s="2"/>
+      <c r="BE36" s="2"/>
+      <c r="BF36" s="2"/>
+      <c r="BG36" s="2"/>
+      <c r="BH36" s="2"/>
+      <c r="BI36" s="2"/>
+      <c r="BJ36" s="2"/>
+      <c r="BK36" s="2"/>
+      <c r="BL36" s="2"/>
+      <c r="BM36" s="2"/>
+      <c r="BN36" s="2"/>
+      <c r="BO36" s="2"/>
+      <c r="BP36" s="2"/>
+      <c r="BQ36" s="2"/>
+      <c r="BR36" s="2"/>
+      <c r="BS36" s="2"/>
+      <c r="BT36" s="2"/>
+      <c r="BU36" s="2"/>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+      <c r="W37" s="2"/>
+      <c r="X37" s="2"/>
+      <c r="Y37" s="2"/>
+      <c r="Z37" s="2"/>
+      <c r="AA37" s="2"/>
+      <c r="AB37" s="2"/>
+      <c r="AC37" s="2"/>
+      <c r="AD37" s="2"/>
+      <c r="AE37" s="2"/>
+      <c r="AF37" s="2"/>
+      <c r="AG37" s="2"/>
+      <c r="AH37" s="2"/>
+      <c r="AI37" s="2"/>
+      <c r="AJ37" s="2"/>
+      <c r="AK37" s="2"/>
+      <c r="AL37" s="2"/>
+      <c r="AM37" s="2"/>
+      <c r="AN37" s="2"/>
+      <c r="AO37" s="2"/>
+      <c r="AP37" s="2"/>
+      <c r="AQ37" s="2"/>
+      <c r="AR37" s="2"/>
+      <c r="AS37" s="2"/>
+      <c r="AT37" s="2"/>
+      <c r="AU37" s="2"/>
+      <c r="AV37" s="2"/>
+      <c r="AW37" s="2"/>
+      <c r="AX37" s="2"/>
+      <c r="AY37" s="2"/>
+      <c r="AZ37" s="2"/>
+      <c r="BA37" s="2"/>
+      <c r="BB37" s="2"/>
+      <c r="BC37" s="2"/>
+      <c r="BD37" s="2"/>
+      <c r="BE37" s="2"/>
+      <c r="BF37" s="2"/>
+      <c r="BG37" s="2"/>
+      <c r="BH37" s="2"/>
+      <c r="BI37" s="2"/>
+      <c r="BJ37" s="2"/>
+      <c r="BK37" s="2"/>
+      <c r="BL37" s="2"/>
+      <c r="BM37" s="2"/>
+      <c r="BN37" s="2"/>
+      <c r="BO37" s="2"/>
+      <c r="BP37" s="2"/>
+      <c r="BQ37" s="2"/>
+      <c r="BR37" s="2"/>
+      <c r="BS37" s="2"/>
+      <c r="BT37" s="2"/>
+      <c r="BU37" s="2"/>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="2"/>
+      <c r="V39" s="2"/>
+      <c r="W39" s="2"/>
+      <c r="X39" s="2"/>
+      <c r="Y39" s="2"/>
+      <c r="Z39" s="2"/>
+      <c r="AA39" s="2"/>
+      <c r="AB39" s="2"/>
+      <c r="AC39" s="2"/>
+      <c r="AD39" s="2"/>
+      <c r="AE39" s="2"/>
+      <c r="AF39" s="2"/>
+      <c r="AG39" s="2"/>
+      <c r="AH39" s="2"/>
+      <c r="AI39" s="2"/>
+      <c r="AJ39" s="2"/>
+      <c r="AK39" s="2"/>
+      <c r="AL39" s="2"/>
+      <c r="AM39" s="2"/>
+      <c r="AN39" s="2"/>
+      <c r="AO39" s="2"/>
+      <c r="AP39" s="2"/>
+      <c r="AQ39" s="2"/>
+      <c r="AR39" s="2"/>
+      <c r="AS39" s="2"/>
+      <c r="AT39" s="2"/>
+      <c r="AU39" s="2"/>
+      <c r="AV39" s="2"/>
+      <c r="AW39" s="2"/>
+      <c r="AX39" s="2"/>
+      <c r="AY39" s="2"/>
+      <c r="AZ39" s="2"/>
+      <c r="BA39" s="2"/>
+      <c r="BB39" s="2"/>
+      <c r="BC39" s="2"/>
+      <c r="BD39" s="2"/>
+      <c r="BE39" s="2"/>
+      <c r="BF39" s="2"/>
+      <c r="BG39" s="2"/>
+      <c r="BH39" s="2"/>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G40" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H40" s="26"/>
-      <c r="I40" s="26"/>
-      <c r="J40" s="26"/>
-      <c r="K40" s="26"/>
-      <c r="L40" s="26"/>
-      <c r="M40" s="26"/>
-      <c r="N40" s="26"/>
-      <c r="O40" s="26"/>
-      <c r="P40" s="26"/>
-      <c r="Q40" s="26"/>
-      <c r="R40" s="26"/>
-      <c r="S40" s="26"/>
-      <c r="T40" s="26"/>
-      <c r="U40" s="26"/>
-      <c r="V40" s="26"/>
-      <c r="W40" s="26"/>
-      <c r="X40" s="26"/>
-      <c r="Y40" s="26"/>
-      <c r="Z40" s="26"/>
-      <c r="AA40" s="26"/>
-      <c r="AB40" s="26"/>
-      <c r="AC40" s="26"/>
-      <c r="AD40" s="26"/>
-      <c r="AE40" s="26"/>
-      <c r="AF40" s="26"/>
-      <c r="AG40" s="26"/>
-      <c r="AH40" s="26"/>
-      <c r="AI40" s="26"/>
-      <c r="AJ40" s="26"/>
-      <c r="AK40" s="26"/>
-      <c r="AL40" s="26"/>
-      <c r="AM40" s="26"/>
-      <c r="AN40" s="26"/>
-      <c r="AO40" s="26"/>
-      <c r="AP40" s="26"/>
-      <c r="AQ40" s="26"/>
-      <c r="AR40" s="26"/>
-      <c r="AS40" s="26"/>
-      <c r="AT40" s="26"/>
-      <c r="AU40" s="26"/>
-      <c r="AV40" s="26"/>
-      <c r="AW40" s="26"/>
-      <c r="AX40" s="26"/>
-      <c r="AY40" s="26"/>
-      <c r="AZ40" s="26"/>
-      <c r="BA40" s="26"/>
-      <c r="BB40" s="26"/>
-      <c r="BC40" s="26"/>
-      <c r="BD40" s="26"/>
-      <c r="BE40" s="26"/>
-      <c r="BF40" s="26"/>
-      <c r="BG40" s="26"/>
-      <c r="BH40" s="26"/>
-      <c r="BI40" s="26"/>
-      <c r="BJ40" s="26"/>
-      <c r="BK40" s="26"/>
-      <c r="BL40" s="26"/>
-      <c r="BM40" s="26"/>
-      <c r="BN40" s="26"/>
-      <c r="BO40" s="26"/>
-      <c r="BP40" s="26"/>
-      <c r="BQ40" s="26"/>
-      <c r="BR40" s="26"/>
-      <c r="BS40" s="26"/>
-      <c r="BT40" s="26"/>
-      <c r="BU40" s="26"/>
-      <c r="BV40" s="26"/>
-      <c r="BW40" s="26"/>
-      <c r="BX40" s="26"/>
-      <c r="BY40" s="26"/>
-      <c r="BZ40" s="26"/>
-      <c r="CA40" s="26"/>
-      <c r="CB40" s="26"/>
-      <c r="CC40" s="26"/>
-      <c r="CD40" s="26"/>
-      <c r="CE40" s="26"/>
-      <c r="CF40" s="26"/>
-      <c r="CG40" s="26"/>
-      <c r="CH40" s="26"/>
-      <c r="CI40" s="26"/>
-      <c r="CJ40" s="26"/>
-      <c r="CK40" s="26"/>
-      <c r="CL40" s="26"/>
-      <c r="CM40" s="26"/>
-      <c r="CN40" s="26"/>
-      <c r="CO40" s="26"/>
-      <c r="CP40" s="26"/>
-      <c r="CQ40" s="26"/>
-      <c r="CR40" s="26"/>
-      <c r="CS40" s="26"/>
-      <c r="CT40" s="26"/>
-      <c r="CU40" s="26"/>
-      <c r="CV40" s="26"/>
-      <c r="CW40" s="27"/>
-    </row>
-    <row r="41" spans="2:101" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G41" s="1">
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="4"/>
+      <c r="U40" s="4"/>
+      <c r="V40" s="4"/>
+      <c r="W40" s="4"/>
+      <c r="X40" s="4"/>
+      <c r="Y40" s="4"/>
+      <c r="Z40" s="4"/>
+      <c r="AA40" s="4"/>
+      <c r="AB40" s="4"/>
+      <c r="AC40" s="4"/>
+      <c r="AD40" s="4"/>
+      <c r="AE40" s="4"/>
+      <c r="AF40" s="4"/>
+      <c r="AG40" s="4"/>
+      <c r="AH40" s="4"/>
+      <c r="AI40" s="4"/>
+      <c r="AJ40" s="4"/>
+      <c r="AK40" s="4"/>
+      <c r="AL40" s="4"/>
+      <c r="AM40" s="4"/>
+      <c r="AN40" s="4"/>
+      <c r="AO40" s="4"/>
+      <c r="AP40" s="4"/>
+      <c r="AQ40" s="4"/>
+      <c r="AR40" s="4"/>
+      <c r="AS40" s="4"/>
+      <c r="AT40" s="4"/>
+      <c r="AU40" s="4"/>
+      <c r="AV40" s="4"/>
+      <c r="AW40" s="4"/>
+      <c r="AX40" s="4"/>
+      <c r="AY40" s="4"/>
+      <c r="AZ40" s="4"/>
+      <c r="BA40" s="4"/>
+      <c r="BB40" s="4"/>
+      <c r="BC40" s="4"/>
+      <c r="BD40" s="4"/>
+      <c r="BE40" s="4"/>
+      <c r="BF40" s="4"/>
+      <c r="BG40" s="4"/>
+      <c r="BH40" s="4"/>
+      <c r="BI40" s="4"/>
+      <c r="BJ40" s="4"/>
+      <c r="BK40" s="4"/>
+      <c r="BL40" s="4"/>
+      <c r="BM40" s="4"/>
+      <c r="BN40" s="4"/>
+      <c r="BO40" s="4"/>
+      <c r="BP40" s="4"/>
+      <c r="BQ40" s="4"/>
+      <c r="BR40" s="4"/>
+      <c r="BS40" s="4"/>
+      <c r="BT40" s="4"/>
+      <c r="BU40" s="4"/>
+      <c r="BV40" s="4"/>
+      <c r="BW40" s="4"/>
+      <c r="BX40" s="4"/>
+      <c r="BY40" s="4"/>
+      <c r="BZ40" s="4"/>
+      <c r="CA40" s="4"/>
+      <c r="CB40" s="4"/>
+      <c r="CC40" s="4"/>
+      <c r="CD40" s="4"/>
+      <c r="CE40" s="4"/>
+      <c r="CF40" s="4"/>
+      <c r="CG40" s="4"/>
+      <c r="CH40" s="4"/>
+      <c r="CI40" s="4"/>
+      <c r="CJ40" s="4"/>
+      <c r="CK40" s="4"/>
+      <c r="CL40" s="4"/>
+      <c r="CM40" s="4"/>
+      <c r="CN40" s="4"/>
+      <c r="CO40" s="4"/>
+      <c r="CP40" s="4"/>
+      <c r="CQ40" s="4"/>
+      <c r="CR40" s="4"/>
+      <c r="CS40" s="4"/>
+      <c r="CT40" s="4"/>
+      <c r="CU40" s="4"/>
+      <c r="CV40" s="4"/>
+      <c r="CW40" s="4"/>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G41" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="H41" s="1">
+      <c r="H41" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="I41" s="1">
+      <c r="I41" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J41" s="1">
+      <c r="J41" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="K41" s="1">
+      <c r="K41" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="L41" s="1">
+      <c r="L41" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="M41" s="1">
+      <c r="M41" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="N41" s="1">
+      <c r="N41" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="O41" s="1">
+      <c r="O41" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="P41" s="1">
+      <c r="P41" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="Q41" s="1">
+      <c r="Q41" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="R41" s="1">
+      <c r="R41" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="S41" s="1">
+      <c r="S41" s="5" t="n">
         <v>13</v>
       </c>
-      <c r="T41" s="1">
+      <c r="T41" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="U41" s="1">
+      <c r="U41" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="V41" s="1">
+      <c r="V41" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="W41" s="1">
+      <c r="W41" s="5" t="n">
         <v>17</v>
       </c>
-      <c r="X41" s="1">
+      <c r="X41" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="Y41" s="1">
+      <c r="Y41" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="Z41" s="1">
+      <c r="Z41" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="AA41" s="1">
+      <c r="AA41" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="AB41" s="1">
+      <c r="AB41" s="5" t="n">
         <v>22</v>
       </c>
-      <c r="AC41" s="1">
+      <c r="AC41" s="5" t="n">
         <v>23</v>
       </c>
-      <c r="AD41" s="1">
+      <c r="AD41" s="5" t="n">
         <v>24</v>
       </c>
-      <c r="AE41" s="1">
+      <c r="AE41" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="AF41" s="1">
+      <c r="AF41" s="5" t="n">
         <v>26</v>
       </c>
-      <c r="AG41" s="1">
+      <c r="AG41" s="5" t="n">
         <v>27</v>
       </c>
-      <c r="AH41" s="1">
+      <c r="AH41" s="5" t="n">
         <v>28</v>
       </c>
-      <c r="AI41" s="1">
+      <c r="AI41" s="5" t="n">
         <v>29</v>
       </c>
-      <c r="AJ41" s="1">
+      <c r="AJ41" s="5" t="n">
         <v>30</v>
       </c>
-      <c r="AK41" s="1">
+      <c r="AK41" s="5" t="n">
         <v>31</v>
       </c>
-      <c r="AL41" s="1">
+      <c r="AL41" s="5" t="n">
         <v>32</v>
       </c>
-      <c r="AM41" s="1">
+      <c r="AM41" s="5" t="n">
         <v>33</v>
       </c>
-      <c r="AN41" s="1">
+      <c r="AN41" s="5" t="n">
         <v>34</v>
       </c>
-      <c r="AO41" s="1">
+      <c r="AO41" s="5" t="n">
         <v>35</v>
       </c>
-      <c r="AP41" s="1">
+      <c r="AP41" s="5" t="n">
         <v>36</v>
       </c>
-      <c r="AQ41" s="1">
+      <c r="AQ41" s="5" t="n">
         <v>37</v>
       </c>
-      <c r="AR41" s="1">
+      <c r="AR41" s="5" t="n">
         <v>38</v>
       </c>
-      <c r="AS41" s="1">
+      <c r="AS41" s="5" t="n">
         <v>39</v>
       </c>
-      <c r="AT41" s="1">
+      <c r="AT41" s="5" t="n">
         <v>40</v>
       </c>
-      <c r="AU41" s="1">
+      <c r="AU41" s="5" t="n">
         <v>41</v>
       </c>
-      <c r="AV41" s="1">
+      <c r="AV41" s="5" t="n">
         <v>42</v>
       </c>
-      <c r="AW41" s="1">
+      <c r="AW41" s="5" t="n">
         <v>43</v>
       </c>
-      <c r="AX41" s="1">
+      <c r="AX41" s="5" t="n">
         <v>44</v>
       </c>
-      <c r="AY41" s="1">
+      <c r="AY41" s="5" t="n">
         <v>45</v>
       </c>
-      <c r="AZ41" s="1">
+      <c r="AZ41" s="5" t="n">
         <v>46</v>
       </c>
-      <c r="BA41" s="1">
+      <c r="BA41" s="5" t="n">
         <v>47</v>
       </c>
-      <c r="BB41" s="1">
+      <c r="BB41" s="5" t="n">
         <v>48</v>
       </c>
-      <c r="BC41" s="1">
+      <c r="BC41" s="5" t="n">
         <v>49</v>
       </c>
-      <c r="BD41" s="1">
+      <c r="BD41" s="5" t="n">
         <v>50</v>
       </c>
-      <c r="BE41" s="1">
+      <c r="BE41" s="5" t="n">
         <v>51</v>
       </c>
-      <c r="BF41" s="1">
+      <c r="BF41" s="5" t="n">
         <v>52</v>
       </c>
-      <c r="BG41" s="1">
+      <c r="BG41" s="5" t="n">
         <v>53</v>
       </c>
-      <c r="BH41" s="1">
+      <c r="BH41" s="5" t="n">
         <v>54</v>
       </c>
-      <c r="BI41" s="14">
+      <c r="BI41" s="6" t="n">
         <v>55</v>
       </c>
-      <c r="BJ41" s="14">
+      <c r="BJ41" s="6" t="n">
         <v>56</v>
       </c>
-      <c r="BK41" s="14">
+      <c r="BK41" s="6" t="n">
         <v>57</v>
       </c>
-      <c r="BL41" s="14">
+      <c r="BL41" s="6" t="n">
         <v>58</v>
       </c>
-      <c r="BM41" s="1">
+      <c r="BM41" s="5" t="n">
         <v>59</v>
       </c>
-      <c r="BN41" s="1">
+      <c r="BN41" s="5" t="n">
         <v>60</v>
       </c>
-      <c r="BO41" s="1">
+      <c r="BO41" s="5" t="n">
         <v>61</v>
       </c>
-      <c r="BP41" s="1">
+      <c r="BP41" s="5" t="n">
         <v>62</v>
       </c>
-      <c r="BQ41" s="1">
+      <c r="BQ41" s="5" t="n">
         <v>63</v>
       </c>
-      <c r="BR41" s="1">
+      <c r="BR41" s="5" t="n">
         <v>64</v>
       </c>
-      <c r="BS41" s="1">
+      <c r="BS41" s="5" t="n">
         <v>65</v>
       </c>
-      <c r="BT41" s="1">
+      <c r="BT41" s="5" t="n">
         <v>66</v>
       </c>
-      <c r="BU41" s="1">
+      <c r="BU41" s="5" t="n">
         <v>67</v>
       </c>
-      <c r="BV41" s="1">
+      <c r="BV41" s="5" t="n">
         <v>68</v>
       </c>
-      <c r="BW41" s="1">
+      <c r="BW41" s="5" t="n">
         <v>69</v>
       </c>
-      <c r="BX41" s="1">
+      <c r="BX41" s="5" t="n">
         <v>70</v>
       </c>
-      <c r="BY41" s="1">
+      <c r="BY41" s="5" t="n">
         <v>71</v>
       </c>
-      <c r="BZ41" s="1">
+      <c r="BZ41" s="5" t="n">
         <v>72</v>
       </c>
-      <c r="CA41" s="1">
+      <c r="CA41" s="5" t="n">
         <v>73</v>
       </c>
-      <c r="CB41" s="1">
+      <c r="CB41" s="5" t="n">
         <v>74</v>
       </c>
-      <c r="CC41" s="1">
+      <c r="CC41" s="5" t="n">
         <v>75</v>
       </c>
-      <c r="CD41" s="1">
+      <c r="CD41" s="5" t="n">
         <v>76</v>
       </c>
-      <c r="CE41" s="1">
+      <c r="CE41" s="5" t="n">
         <v>77</v>
       </c>
-      <c r="CF41" s="1">
+      <c r="CF41" s="5" t="n">
         <v>78</v>
       </c>
-      <c r="CG41" s="1">
+      <c r="CG41" s="5" t="n">
         <v>79</v>
       </c>
-      <c r="CH41" s="1">
+      <c r="CH41" s="5" t="n">
         <v>80</v>
       </c>
-      <c r="CI41" s="1">
+      <c r="CI41" s="5" t="n">
         <v>81</v>
       </c>
-      <c r="CJ41" s="1">
+      <c r="CJ41" s="5" t="n">
         <v>82</v>
       </c>
-      <c r="CK41" s="1">
+      <c r="CK41" s="5" t="n">
         <v>83</v>
       </c>
-      <c r="CL41" s="1">
+      <c r="CL41" s="5" t="n">
         <v>84</v>
       </c>
-      <c r="CM41" s="1">
+      <c r="CM41" s="5" t="n">
         <v>85</v>
       </c>
-      <c r="CN41" s="1">
+      <c r="CN41" s="5" t="n">
         <v>86</v>
       </c>
-      <c r="CO41" s="1">
+      <c r="CO41" s="5" t="n">
         <v>87</v>
       </c>
-      <c r="CP41" s="1">
+      <c r="CP41" s="5" t="n">
         <v>88</v>
       </c>
-      <c r="CQ41" s="1">
+      <c r="CQ41" s="5" t="n">
         <v>89</v>
       </c>
-      <c r="CR41" s="1">
+      <c r="CR41" s="5" t="n">
         <v>90</v>
       </c>
-      <c r="CS41" s="1">
+      <c r="CS41" s="5" t="n">
         <v>91</v>
       </c>
-      <c r="CT41" s="1">
+      <c r="CT41" s="5" t="n">
         <v>92</v>
       </c>
-      <c r="CU41" s="1">
+      <c r="CU41" s="5" t="n">
         <v>93</v>
       </c>
-      <c r="CV41" s="1">
+      <c r="CV41" s="5" t="n">
         <v>94</v>
       </c>
-      <c r="CW41" s="1">
+      <c r="CW41" s="5" t="n">
         <v>95</v>
       </c>
     </row>
-    <row r="42" spans="2:101" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="5"/>
-      <c r="C42" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="D42" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E42" s="15">
+    <row r="42" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B42" s="2"/>
+      <c r="C42" s="7" t="s">
         <v>1</v>
       </c>
+      <c r="D42" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E42" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="F42" s="10"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="16"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
       <c r="K42" s="12"/>
       <c r="L42" s="12"/>
       <c r="M42" s="12"/>
@@ -3743,23 +3506,23 @@
       <c r="CV42" s="12"/>
       <c r="CW42" s="12"/>
     </row>
-    <row r="43" spans="2:101" x14ac:dyDescent="0.25">
-      <c r="B43" s="11"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="15">
-        <f>E42+1</f>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="3"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="9" t="n">
+        <f aca="false">E42+1</f>
         <v>2</v>
       </c>
-      <c r="F43" s="2" t="s">
-        <v>1</v>
+      <c r="F43" s="13" t="s">
+        <v>3</v>
       </c>
       <c r="G43" s="12"/>
       <c r="H43" s="12"/>
       <c r="I43" s="12"/>
       <c r="J43" s="12"/>
-      <c r="K43" s="16"/>
-      <c r="L43" s="16"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
       <c r="M43" s="12"/>
       <c r="N43" s="12"/>
       <c r="O43" s="12"/>
@@ -3850,22 +3613,22 @@
       <c r="CV43" s="12"/>
       <c r="CW43" s="12"/>
     </row>
-    <row r="44" spans="2:101" x14ac:dyDescent="0.25">
-      <c r="B44" s="11"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="15">
-        <f t="shared" ref="E44:E107" si="0">E43+1</f>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="3"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="9" t="n">
+        <f aca="false">E43+1</f>
         <v>3</v>
       </c>
-      <c r="F44" s="2" t="s">
-        <v>2</v>
+      <c r="F44" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="G44" s="12"/>
       <c r="H44" s="12"/>
       <c r="I44" s="12"/>
       <c r="J44" s="12"/>
-      <c r="K44" s="16"/>
+      <c r="K44" s="11"/>
       <c r="L44" s="12"/>
       <c r="M44" s="12"/>
       <c r="N44" s="12"/>
@@ -3957,23 +3720,23 @@
       <c r="CV44" s="12"/>
       <c r="CW44" s="12"/>
     </row>
-    <row r="45" spans="2:101" x14ac:dyDescent="0.25">
-      <c r="B45" s="11"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="15">
-        <f t="shared" si="0"/>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="3"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="9" t="n">
+        <f aca="false">E44+1</f>
         <v>4</v>
       </c>
-      <c r="F45" s="2" t="s">
-        <v>3</v>
+      <c r="F45" s="13" t="s">
+        <v>5</v>
       </c>
       <c r="G45" s="12"/>
       <c r="H45" s="12"/>
       <c r="I45" s="12"/>
       <c r="J45" s="12"/>
       <c r="K45" s="12"/>
-      <c r="L45" s="16"/>
+      <c r="L45" s="11"/>
       <c r="M45" s="12"/>
       <c r="N45" s="12"/>
       <c r="O45" s="12"/>
@@ -4064,16 +3827,16 @@
       <c r="CV45" s="12"/>
       <c r="CW45" s="12"/>
     </row>
-    <row r="46" spans="2:101" x14ac:dyDescent="0.25">
-      <c r="B46" s="11"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="15">
-        <f t="shared" si="0"/>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="3"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="9" t="n">
+        <f aca="false">E45+1</f>
         <v>5</v>
       </c>
-      <c r="F46" s="2" t="s">
-        <v>21</v>
+      <c r="F46" s="13" t="s">
+        <v>6</v>
       </c>
       <c r="G46" s="12"/>
       <c r="H46" s="12"/>
@@ -4171,16 +3934,16 @@
       <c r="CV46" s="12"/>
       <c r="CW46" s="12"/>
     </row>
-    <row r="47" spans="2:101" x14ac:dyDescent="0.25">
-      <c r="B47" s="11"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="15">
-        <f t="shared" si="0"/>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="3"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="9" t="n">
+        <f aca="false">E46+1</f>
         <v>6</v>
       </c>
-      <c r="F47" s="2" t="s">
-        <v>4</v>
+      <c r="F47" s="13" t="s">
+        <v>7</v>
       </c>
       <c r="G47" s="12"/>
       <c r="H47" s="12"/>
@@ -4278,16 +4041,16 @@
       <c r="CV47" s="12"/>
       <c r="CW47" s="12"/>
     </row>
-    <row r="48" spans="2:101" x14ac:dyDescent="0.25">
-      <c r="B48" s="11"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="15">
-        <f t="shared" si="0"/>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="3"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="9" t="n">
+        <f aca="false">E47+1</f>
         <v>7</v>
       </c>
-      <c r="F48" s="2" t="s">
-        <v>5</v>
+      <c r="F48" s="13" t="s">
+        <v>8</v>
       </c>
       <c r="G48" s="12"/>
       <c r="H48" s="12"/>
@@ -4300,9 +4063,9 @@
       <c r="O48" s="12"/>
       <c r="P48" s="12"/>
       <c r="Q48" s="12"/>
-      <c r="R48" s="16"/>
-      <c r="S48" s="16"/>
-      <c r="T48" s="16"/>
+      <c r="R48" s="11"/>
+      <c r="S48" s="11"/>
+      <c r="T48" s="11"/>
       <c r="U48" s="12"/>
       <c r="V48" s="12"/>
       <c r="W48" s="12"/>
@@ -4385,16 +4148,16 @@
       <c r="CV48" s="12"/>
       <c r="CW48" s="12"/>
     </row>
-    <row r="49" spans="2:101" x14ac:dyDescent="0.25">
-      <c r="B49" s="11"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="15">
-        <f t="shared" si="0"/>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="3"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="9" t="n">
+        <f aca="false">E48+1</f>
         <v>8</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>6</v>
+      <c r="F49" s="14" t="s">
+        <v>9</v>
       </c>
       <c r="G49" s="12"/>
       <c r="H49" s="12"/>
@@ -4402,7 +4165,7 @@
       <c r="J49" s="12"/>
       <c r="K49" s="12"/>
       <c r="L49" s="12"/>
-      <c r="M49" s="16"/>
+      <c r="M49" s="11"/>
       <c r="N49" s="12"/>
       <c r="O49" s="12"/>
       <c r="P49" s="12"/>
@@ -4492,16 +4255,16 @@
       <c r="CV49" s="12"/>
       <c r="CW49" s="12"/>
     </row>
-    <row r="50" spans="2:101" x14ac:dyDescent="0.25">
-      <c r="B50" s="11"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="15">
-        <f t="shared" si="0"/>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="3"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="9" t="n">
+        <f aca="false">E49+1</f>
         <v>9</v>
       </c>
-      <c r="F50" s="3" t="s">
-        <v>7</v>
+      <c r="F50" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="G50" s="12"/>
       <c r="H50" s="12"/>
@@ -4510,7 +4273,7 @@
       <c r="K50" s="12"/>
       <c r="L50" s="12"/>
       <c r="M50" s="12"/>
-      <c r="N50" s="16"/>
+      <c r="N50" s="11"/>
       <c r="O50" s="12"/>
       <c r="P50" s="12"/>
       <c r="Q50" s="12"/>
@@ -4599,16 +4362,16 @@
       <c r="CV50" s="12"/>
       <c r="CW50" s="12"/>
     </row>
-    <row r="51" spans="2:101" x14ac:dyDescent="0.25">
-      <c r="B51" s="11"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="15">
-        <f t="shared" si="0"/>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="3"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="9" t="n">
+        <f aca="false">E50+1</f>
         <v>10</v>
       </c>
-      <c r="F51" s="3" t="s">
-        <v>8</v>
+      <c r="F51" s="14" t="s">
+        <v>11</v>
       </c>
       <c r="G51" s="12"/>
       <c r="H51" s="12"/>
@@ -4624,8 +4387,8 @@
       <c r="R51" s="12"/>
       <c r="S51" s="12"/>
       <c r="T51" s="12"/>
-      <c r="U51" s="16"/>
-      <c r="V51" s="16"/>
+      <c r="U51" s="11"/>
+      <c r="V51" s="11"/>
       <c r="W51" s="12"/>
       <c r="X51" s="12"/>
       <c r="Y51" s="12"/>
@@ -4706,16 +4469,16 @@
       <c r="CV51" s="12"/>
       <c r="CW51" s="12"/>
     </row>
-    <row r="52" spans="2:101" x14ac:dyDescent="0.25">
-      <c r="B52" s="11"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="15">
-        <f t="shared" si="0"/>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="3"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="9" t="n">
+        <f aca="false">E51+1</f>
         <v>11</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>9</v>
+      <c r="F52" s="14" t="s">
+        <v>12</v>
       </c>
       <c r="G52" s="12"/>
       <c r="H52" s="12"/>
@@ -4733,8 +4496,8 @@
       <c r="T52" s="12"/>
       <c r="U52" s="12"/>
       <c r="V52" s="12"/>
-      <c r="W52" s="16"/>
-      <c r="X52" s="16"/>
+      <c r="W52" s="11"/>
+      <c r="X52" s="11"/>
       <c r="Y52" s="12"/>
       <c r="Z52" s="12"/>
       <c r="AA52" s="12"/>
@@ -4813,16 +4576,16 @@
       <c r="CV52" s="12"/>
       <c r="CW52" s="12"/>
     </row>
-    <row r="53" spans="2:101" x14ac:dyDescent="0.25">
-      <c r="B53" s="11"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="15">
-        <f t="shared" si="0"/>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="3"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="9" t="n">
+        <f aca="false">E52+1</f>
         <v>12</v>
       </c>
-      <c r="F53" s="3" t="s">
-        <v>10</v>
+      <c r="F53" s="14" t="s">
+        <v>13</v>
       </c>
       <c r="G53" s="12"/>
       <c r="H53" s="12"/>
@@ -4842,12 +4605,12 @@
       <c r="V53" s="12"/>
       <c r="W53" s="12"/>
       <c r="X53" s="12"/>
-      <c r="Y53" s="16"/>
-      <c r="Z53" s="16"/>
+      <c r="Y53" s="11"/>
+      <c r="Z53" s="11"/>
       <c r="AA53" s="12"/>
       <c r="AB53" s="12"/>
       <c r="AC53" s="12"/>
-      <c r="AD53" s="13"/>
+      <c r="AD53" s="15"/>
       <c r="AE53" s="12"/>
       <c r="AF53" s="12"/>
       <c r="AG53" s="12"/>
@@ -4920,16 +4683,16 @@
       <c r="CV53" s="12"/>
       <c r="CW53" s="12"/>
     </row>
-    <row r="54" spans="2:101" x14ac:dyDescent="0.25">
-      <c r="B54" s="11"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="15">
-        <f t="shared" si="0"/>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="3"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="9" t="n">
+        <f aca="false">E53+1</f>
         <v>13</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>11</v>
+      <c r="F54" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="G54" s="12"/>
       <c r="H54" s="12"/>
@@ -4951,8 +4714,8 @@
       <c r="X54" s="12"/>
       <c r="Y54" s="12"/>
       <c r="Z54" s="12"/>
-      <c r="AA54" s="16"/>
-      <c r="AB54" s="16"/>
+      <c r="AA54" s="11"/>
+      <c r="AB54" s="11"/>
       <c r="AC54" s="12"/>
       <c r="AD54" s="12"/>
       <c r="AE54" s="12"/>
@@ -5027,16 +4790,16 @@
       <c r="CV54" s="12"/>
       <c r="CW54" s="12"/>
     </row>
-    <row r="55" spans="2:101" x14ac:dyDescent="0.25">
-      <c r="B55" s="11"/>
-      <c r="C55" s="18"/>
-      <c r="D55" s="20"/>
-      <c r="E55" s="15">
-        <f t="shared" si="0"/>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="3"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="9" t="n">
+        <f aca="false">E54+1</f>
         <v>14</v>
       </c>
-      <c r="F55" s="4" t="s">
-        <v>12</v>
+      <c r="F55" s="16" t="s">
+        <v>15</v>
       </c>
       <c r="G55" s="12"/>
       <c r="H55" s="12"/>
@@ -5044,7 +4807,7 @@
       <c r="J55" s="12"/>
       <c r="K55" s="12"/>
       <c r="L55" s="12"/>
-      <c r="M55" s="16"/>
+      <c r="M55" s="11"/>
       <c r="N55" s="12"/>
       <c r="O55" s="12"/>
       <c r="P55" s="12"/>
@@ -5134,16 +4897,16 @@
       <c r="CV55" s="12"/>
       <c r="CW55" s="12"/>
     </row>
-    <row r="56" spans="2:101" x14ac:dyDescent="0.25">
-      <c r="B56" s="11"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="15">
-        <f t="shared" si="0"/>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="3"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="9" t="n">
+        <f aca="false">E55+1</f>
         <v>15</v>
       </c>
-      <c r="F56" s="4" t="s">
-        <v>13</v>
+      <c r="F56" s="16" t="s">
+        <v>16</v>
       </c>
       <c r="G56" s="12"/>
       <c r="H56" s="12"/>
@@ -5156,7 +4919,7 @@
       <c r="O56" s="12"/>
       <c r="P56" s="12"/>
       <c r="Q56" s="12"/>
-      <c r="R56" s="16"/>
+      <c r="R56" s="11"/>
       <c r="S56" s="12"/>
       <c r="T56" s="12"/>
       <c r="U56" s="12"/>
@@ -5241,16 +5004,16 @@
       <c r="CV56" s="12"/>
       <c r="CW56" s="12"/>
     </row>
-    <row r="57" spans="2:101" x14ac:dyDescent="0.25">
-      <c r="B57" s="11"/>
-      <c r="C57" s="18"/>
-      <c r="D57" s="20"/>
-      <c r="E57" s="15">
-        <f t="shared" si="0"/>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="3"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="9" t="n">
+        <f aca="false">E56+1</f>
         <v>16</v>
       </c>
-      <c r="F57" s="4" t="s">
-        <v>14</v>
+      <c r="F57" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="G57" s="12"/>
       <c r="H57" s="12"/>
@@ -5263,7 +5026,7 @@
       <c r="O57" s="12"/>
       <c r="P57" s="12"/>
       <c r="Q57" s="12"/>
-      <c r="R57" s="16"/>
+      <c r="R57" s="11"/>
       <c r="S57" s="12"/>
       <c r="T57" s="12"/>
       <c r="U57" s="12"/>
@@ -5348,16 +5111,16 @@
       <c r="CV57" s="12"/>
       <c r="CW57" s="12"/>
     </row>
-    <row r="58" spans="2:101" x14ac:dyDescent="0.25">
-      <c r="B58" s="11"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="20"/>
-      <c r="E58" s="15">
-        <f t="shared" si="0"/>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="3"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="9" t="n">
+        <f aca="false">E57+1</f>
         <v>17</v>
       </c>
-      <c r="F58" s="4" t="s">
-        <v>15</v>
+      <c r="F58" s="16" t="s">
+        <v>18</v>
       </c>
       <c r="G58" s="12"/>
       <c r="H58" s="12"/>
@@ -5455,16 +5218,16 @@
       <c r="CV58" s="12"/>
       <c r="CW58" s="12"/>
     </row>
-    <row r="59" spans="2:101" x14ac:dyDescent="0.25">
-      <c r="B59" s="11"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="20"/>
-      <c r="E59" s="15">
-        <f t="shared" si="0"/>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="3"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="9" t="n">
+        <f aca="false">E58+1</f>
         <v>18</v>
       </c>
-      <c r="F59" s="4" t="s">
-        <v>16</v>
+      <c r="F59" s="16" t="s">
+        <v>19</v>
       </c>
       <c r="G59" s="12"/>
       <c r="H59" s="12"/>
@@ -5475,8 +5238,8 @@
       <c r="M59" s="12"/>
       <c r="N59" s="12"/>
       <c r="O59" s="12"/>
-      <c r="P59" s="16"/>
-      <c r="Q59" s="16"/>
+      <c r="P59" s="11"/>
+      <c r="Q59" s="11"/>
       <c r="R59" s="12"/>
       <c r="S59" s="12"/>
       <c r="T59" s="12"/>
@@ -5488,7 +5251,7 @@
       <c r="Z59" s="12"/>
       <c r="AA59" s="12"/>
       <c r="AB59" s="12"/>
-      <c r="AC59" s="13"/>
+      <c r="AC59" s="15"/>
       <c r="AD59" s="12"/>
       <c r="AE59" s="12"/>
       <c r="AF59" s="12"/>
@@ -5562,16 +5325,16 @@
       <c r="CV59" s="12"/>
       <c r="CW59" s="12"/>
     </row>
-    <row r="60" spans="2:101" x14ac:dyDescent="0.25">
-      <c r="B60" s="11"/>
-      <c r="C60" s="18"/>
-      <c r="D60" s="20"/>
-      <c r="E60" s="15">
-        <f t="shared" si="0"/>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="3"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="9" t="n">
+        <f aca="false">E59+1</f>
         <v>19</v>
       </c>
-      <c r="F60" s="4" t="s">
-        <v>17</v>
+      <c r="F60" s="16" t="s">
+        <v>20</v>
       </c>
       <c r="G60" s="12"/>
       <c r="H60" s="12"/>
@@ -5669,15 +5432,15 @@
       <c r="CV60" s="12"/>
       <c r="CW60" s="12"/>
     </row>
-    <row r="61" spans="2:101" x14ac:dyDescent="0.25">
-      <c r="B61" s="11"/>
-      <c r="C61" s="18"/>
-      <c r="D61" s="20"/>
-      <c r="E61" s="15">
-        <f t="shared" si="0"/>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="3"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="9" t="n">
+        <f aca="false">E60+1</f>
         <v>20</v>
       </c>
-      <c r="F61" s="6"/>
+      <c r="F61" s="17"/>
       <c r="G61" s="12"/>
       <c r="H61" s="12"/>
       <c r="I61" s="12"/>
@@ -5774,15 +5537,15 @@
       <c r="CV61" s="12"/>
       <c r="CW61" s="12"/>
     </row>
-    <row r="62" spans="2:101" x14ac:dyDescent="0.25">
-      <c r="B62" s="11"/>
-      <c r="C62" s="18"/>
-      <c r="D62" s="20"/>
-      <c r="E62" s="15">
-        <f t="shared" si="0"/>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="3"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="9" t="n">
+        <f aca="false">E61+1</f>
         <v>21</v>
       </c>
-      <c r="F62" s="7"/>
+      <c r="F62" s="18"/>
       <c r="G62" s="12"/>
       <c r="H62" s="12"/>
       <c r="I62" s="12"/>
@@ -5879,15 +5642,15 @@
       <c r="CV62" s="12"/>
       <c r="CW62" s="12"/>
     </row>
-    <row r="63" spans="2:101" x14ac:dyDescent="0.25">
-      <c r="B63" s="11"/>
-      <c r="C63" s="18"/>
-      <c r="D63" s="20"/>
-      <c r="E63" s="15">
-        <f t="shared" si="0"/>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="3"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="9" t="n">
+        <f aca="false">E62+1</f>
         <v>22</v>
       </c>
-      <c r="F63" s="6"/>
+      <c r="F63" s="17"/>
       <c r="G63" s="12"/>
       <c r="H63" s="12"/>
       <c r="I63" s="12"/>
@@ -5984,15 +5747,15 @@
       <c r="CV63" s="12"/>
       <c r="CW63" s="12"/>
     </row>
-    <row r="64" spans="2:101" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="11"/>
-      <c r="C64" s="18"/>
-      <c r="D64" s="20"/>
-      <c r="E64" s="15">
-        <f t="shared" si="0"/>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B64" s="3"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="9" t="n">
+        <f aca="false">E63+1</f>
         <v>23</v>
       </c>
-      <c r="F64" s="7"/>
+      <c r="F64" s="18"/>
       <c r="G64" s="12"/>
       <c r="H64" s="12"/>
       <c r="I64" s="12"/>
@@ -6089,15 +5852,15 @@
       <c r="CV64" s="12"/>
       <c r="CW64" s="12"/>
     </row>
-    <row r="65" spans="2:101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="11"/>
-      <c r="C65" s="18"/>
-      <c r="D65" s="20"/>
-      <c r="E65" s="15">
-        <f t="shared" si="0"/>
+    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B65" s="3"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="9" t="n">
+        <f aca="false">E64+1</f>
         <v>24</v>
       </c>
-      <c r="F65" s="8"/>
+      <c r="F65" s="19"/>
       <c r="G65" s="12"/>
       <c r="H65" s="12"/>
       <c r="I65" s="12"/>
@@ -6194,15 +5957,15 @@
       <c r="CV65" s="12"/>
       <c r="CW65" s="12"/>
     </row>
-    <row r="66" spans="2:101" x14ac:dyDescent="0.25">
-      <c r="B66" s="11"/>
-      <c r="C66" s="18"/>
-      <c r="D66" s="20"/>
-      <c r="E66" s="15">
-        <f t="shared" si="0"/>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="3"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="9" t="n">
+        <f aca="false">E65+1</f>
         <v>25</v>
       </c>
-      <c r="F66" s="9"/>
+      <c r="F66" s="20"/>
       <c r="G66" s="12"/>
       <c r="H66" s="12"/>
       <c r="I66" s="12"/>
@@ -6225,7 +5988,7 @@
       <c r="Z66" s="12"/>
       <c r="AA66" s="12"/>
       <c r="AB66" s="12"/>
-      <c r="AC66" s="16"/>
+      <c r="AC66" s="11"/>
       <c r="AD66" s="12"/>
       <c r="AE66" s="12"/>
       <c r="AF66" s="12"/>
@@ -6262,7 +6025,7 @@
       <c r="BK66" s="12"/>
       <c r="BL66" s="12"/>
       <c r="BM66" s="12"/>
-      <c r="BN66" s="16"/>
+      <c r="BN66" s="11"/>
       <c r="BO66" s="12"/>
       <c r="BP66" s="12"/>
       <c r="BQ66" s="12"/>
@@ -6299,15 +6062,15 @@
       <c r="CV66" s="12"/>
       <c r="CW66" s="12"/>
     </row>
-    <row r="67" spans="2:101" x14ac:dyDescent="0.25">
-      <c r="B67" s="11"/>
-      <c r="C67" s="18"/>
-      <c r="D67" s="20"/>
-      <c r="E67" s="15">
-        <f t="shared" si="0"/>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B67" s="3"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="9" t="n">
+        <f aca="false">E66+1</f>
         <v>26</v>
       </c>
-      <c r="F67" s="8"/>
+      <c r="F67" s="19"/>
       <c r="G67" s="12"/>
       <c r="H67" s="12"/>
       <c r="I67" s="12"/>
@@ -6331,7 +6094,7 @@
       <c r="AA67" s="12"/>
       <c r="AB67" s="12"/>
       <c r="AC67" s="12"/>
-      <c r="AD67" s="16"/>
+      <c r="AD67" s="11"/>
       <c r="AE67" s="12"/>
       <c r="AF67" s="12"/>
       <c r="AG67" s="12"/>
@@ -6404,11 +6167,11 @@
       <c r="CV67" s="12"/>
       <c r="CW67" s="12"/>
     </row>
-    <row r="68" spans="2:101" x14ac:dyDescent="0.25">
-      <c r="C68" s="18"/>
-      <c r="D68" s="20"/>
-      <c r="E68" s="15">
-        <f>E67+1</f>
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C68" s="7"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="9" t="n">
+        <f aca="false">E67+1</f>
         <v>27</v>
       </c>
       <c r="G68" s="12"/>
@@ -6434,7 +6197,7 @@
       <c r="AA68" s="12"/>
       <c r="AB68" s="12"/>
       <c r="AC68" s="12"/>
-      <c r="AD68" s="16"/>
+      <c r="AD68" s="11"/>
       <c r="AE68" s="12"/>
       <c r="AF68" s="12"/>
       <c r="AG68" s="12"/>
@@ -6507,11 +6270,11 @@
       <c r="CV68" s="12"/>
       <c r="CW68" s="12"/>
     </row>
-    <row r="69" spans="2:101" x14ac:dyDescent="0.25">
-      <c r="C69" s="18"/>
-      <c r="D69" s="20"/>
-      <c r="E69" s="15">
-        <f t="shared" si="0"/>
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C69" s="7"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="9" t="n">
+        <f aca="false">E68+1</f>
         <v>28</v>
       </c>
       <c r="G69" s="12"/>
@@ -6546,7 +6309,7 @@
       <c r="AJ69" s="12"/>
       <c r="AK69" s="12"/>
       <c r="AL69" s="12"/>
-      <c r="AM69" s="16"/>
+      <c r="AM69" s="11"/>
       <c r="AN69" s="12"/>
       <c r="AO69" s="12"/>
       <c r="AP69" s="12"/>
@@ -6610,11 +6373,11 @@
       <c r="CV69" s="12"/>
       <c r="CW69" s="12"/>
     </row>
-    <row r="70" spans="2:101" x14ac:dyDescent="0.25">
-      <c r="C70" s="18"/>
-      <c r="D70" s="20"/>
-      <c r="E70" s="15">
-        <f t="shared" si="0"/>
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C70" s="7"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="9" t="n">
+        <f aca="false">E69+1</f>
         <v>29</v>
       </c>
       <c r="G70" s="12"/>
@@ -6650,7 +6413,7 @@
       <c r="AK70" s="12"/>
       <c r="AL70" s="12"/>
       <c r="AM70" s="12"/>
-      <c r="AN70" s="16"/>
+      <c r="AN70" s="11"/>
       <c r="AO70" s="12"/>
       <c r="AP70" s="12"/>
       <c r="AQ70" s="12"/>
@@ -6713,11 +6476,11 @@
       <c r="CV70" s="12"/>
       <c r="CW70" s="12"/>
     </row>
-    <row r="71" spans="2:101" x14ac:dyDescent="0.25">
-      <c r="C71" s="18"/>
-      <c r="D71" s="20"/>
-      <c r="E71" s="15">
-        <f t="shared" si="0"/>
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C71" s="7"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="9" t="n">
+        <f aca="false">E70+1</f>
         <v>30</v>
       </c>
       <c r="G71" s="12"/>
@@ -6816,11 +6579,11 @@
       <c r="CV71" s="12"/>
       <c r="CW71" s="12"/>
     </row>
-    <row r="72" spans="2:101" x14ac:dyDescent="0.25">
-      <c r="C72" s="18"/>
-      <c r="D72" s="20"/>
-      <c r="E72" s="15">
-        <f t="shared" si="0"/>
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C72" s="7"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="9" t="n">
+        <f aca="false">E71+1</f>
         <v>31</v>
       </c>
       <c r="G72" s="12"/>
@@ -6919,11 +6682,11 @@
       <c r="CV72" s="12"/>
       <c r="CW72" s="12"/>
     </row>
-    <row r="73" spans="2:101" x14ac:dyDescent="0.25">
-      <c r="C73" s="18"/>
-      <c r="D73" s="20"/>
-      <c r="E73" s="15">
-        <f t="shared" si="0"/>
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C73" s="7"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="9" t="n">
+        <f aca="false">E72+1</f>
         <v>32</v>
       </c>
       <c r="G73" s="12"/>
@@ -6958,7 +6721,7 @@
       <c r="AJ73" s="12"/>
       <c r="AK73" s="12"/>
       <c r="AL73" s="12"/>
-      <c r="AM73" s="16"/>
+      <c r="AM73" s="11"/>
       <c r="AN73" s="12"/>
       <c r="AO73" s="12"/>
       <c r="AP73" s="12"/>
@@ -7022,11 +6785,11 @@
       <c r="CV73" s="12"/>
       <c r="CW73" s="12"/>
     </row>
-    <row r="74" spans="2:101" x14ac:dyDescent="0.25">
-      <c r="C74" s="18"/>
-      <c r="D74" s="20"/>
-      <c r="E74" s="15">
-        <f t="shared" si="0"/>
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C74" s="7"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="9" t="n">
+        <f aca="false">E73+1</f>
         <v>33</v>
       </c>
       <c r="G74" s="12"/>
@@ -7125,11 +6888,11 @@
       <c r="CV74" s="12"/>
       <c r="CW74" s="12"/>
     </row>
-    <row r="75" spans="2:101" x14ac:dyDescent="0.25">
-      <c r="C75" s="18"/>
-      <c r="D75" s="20"/>
-      <c r="E75" s="15">
-        <f t="shared" si="0"/>
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C75" s="7"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="9" t="n">
+        <f aca="false">E74+1</f>
         <v>34</v>
       </c>
       <c r="G75" s="12"/>
@@ -7228,11 +6991,11 @@
       <c r="CV75" s="12"/>
       <c r="CW75" s="12"/>
     </row>
-    <row r="76" spans="2:101" x14ac:dyDescent="0.25">
-      <c r="C76" s="18"/>
-      <c r="D76" s="20"/>
-      <c r="E76" s="15">
-        <f t="shared" si="0"/>
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C76" s="7"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="9" t="n">
+        <f aca="false">E75+1</f>
         <v>35</v>
       </c>
       <c r="G76" s="12"/>
@@ -7331,11 +7094,11 @@
       <c r="CV76" s="12"/>
       <c r="CW76" s="12"/>
     </row>
-    <row r="77" spans="2:101" x14ac:dyDescent="0.25">
-      <c r="C77" s="18"/>
-      <c r="D77" s="20"/>
-      <c r="E77" s="15">
-        <f t="shared" si="0"/>
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C77" s="7"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="9" t="n">
+        <f aca="false">E76+1</f>
         <v>36</v>
       </c>
       <c r="G77" s="12"/>
@@ -7407,7 +7170,7 @@
       <c r="BU77" s="12"/>
       <c r="BV77" s="12"/>
       <c r="BW77" s="12"/>
-      <c r="BX77" s="16"/>
+      <c r="BX77" s="11"/>
       <c r="BY77" s="12"/>
       <c r="BZ77" s="12"/>
       <c r="CA77" s="12"/>
@@ -7434,11 +7197,11 @@
       <c r="CV77" s="12"/>
       <c r="CW77" s="12"/>
     </row>
-    <row r="78" spans="2:101" x14ac:dyDescent="0.25">
-      <c r="C78" s="18"/>
-      <c r="D78" s="20"/>
-      <c r="E78" s="15">
-        <f t="shared" si="0"/>
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C78" s="7"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="9" t="n">
+        <f aca="false">E77+1</f>
         <v>37</v>
       </c>
       <c r="G78" s="12"/>
@@ -7537,11 +7300,11 @@
       <c r="CV78" s="12"/>
       <c r="CW78" s="12"/>
     </row>
-    <row r="79" spans="2:101" x14ac:dyDescent="0.25">
-      <c r="C79" s="18"/>
-      <c r="D79" s="20"/>
-      <c r="E79" s="15">
-        <f t="shared" si="0"/>
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C79" s="7"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="9" t="n">
+        <f aca="false">E78+1</f>
         <v>38</v>
       </c>
       <c r="G79" s="12"/>
@@ -7601,12 +7364,12 @@
       <c r="BI79" s="12"/>
       <c r="BJ79" s="12"/>
       <c r="BK79" s="12"/>
-      <c r="BL79" s="16"/>
-      <c r="BM79" s="16"/>
-      <c r="BN79" s="16"/>
-      <c r="BO79" s="16"/>
-      <c r="BP79" s="16"/>
-      <c r="BQ79" s="16"/>
+      <c r="BL79" s="11"/>
+      <c r="BM79" s="11"/>
+      <c r="BN79" s="11"/>
+      <c r="BO79" s="11"/>
+      <c r="BP79" s="11"/>
+      <c r="BQ79" s="11"/>
       <c r="BR79" s="12"/>
       <c r="BS79" s="12"/>
       <c r="BT79" s="12"/>
@@ -7640,11 +7403,11 @@
       <c r="CV79" s="12"/>
       <c r="CW79" s="12"/>
     </row>
-    <row r="80" spans="2:101" x14ac:dyDescent="0.25">
-      <c r="C80" s="18"/>
-      <c r="D80" s="20"/>
-      <c r="E80" s="15">
-        <f t="shared" si="0"/>
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C80" s="7"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="9" t="n">
+        <f aca="false">E79+1</f>
         <v>39</v>
       </c>
       <c r="G80" s="12"/>
@@ -7672,7 +7435,7 @@
       <c r="AC80" s="12"/>
       <c r="AD80" s="12"/>
       <c r="AE80" s="12"/>
-      <c r="AF80" s="16"/>
+      <c r="AF80" s="11"/>
       <c r="AG80" s="12"/>
       <c r="AH80" s="12"/>
       <c r="AI80" s="12"/>
@@ -7682,7 +7445,7 @@
       <c r="AM80" s="12"/>
       <c r="AN80" s="12"/>
       <c r="AO80" s="12"/>
-      <c r="AP80" s="16"/>
+      <c r="AP80" s="11"/>
       <c r="AQ80" s="12"/>
       <c r="AR80" s="12"/>
       <c r="AS80" s="12"/>
@@ -7743,11 +7506,11 @@
       <c r="CV80" s="12"/>
       <c r="CW80" s="12"/>
     </row>
-    <row r="81" spans="3:101" x14ac:dyDescent="0.25">
-      <c r="C81" s="18"/>
-      <c r="D81" s="20"/>
-      <c r="E81" s="15">
-        <f t="shared" si="0"/>
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C81" s="7"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="9" t="n">
+        <f aca="false">E80+1</f>
         <v>40</v>
       </c>
       <c r="G81" s="12"/>
@@ -7777,9 +7540,9 @@
       <c r="AE81" s="12"/>
       <c r="AF81" s="12"/>
       <c r="AG81" s="12"/>
-      <c r="AH81" s="16"/>
+      <c r="AH81" s="11"/>
       <c r="AI81" s="12"/>
-      <c r="AJ81" s="16"/>
+      <c r="AJ81" s="11"/>
       <c r="AK81" s="12"/>
       <c r="AL81" s="12"/>
       <c r="AM81" s="12"/>
@@ -7787,9 +7550,9 @@
       <c r="AO81" s="12"/>
       <c r="AP81" s="12"/>
       <c r="AQ81" s="12"/>
-      <c r="AR81" s="16"/>
+      <c r="AR81" s="11"/>
       <c r="AS81" s="12"/>
-      <c r="AT81" s="16"/>
+      <c r="AT81" s="11"/>
       <c r="AU81" s="12"/>
       <c r="AV81" s="12"/>
       <c r="AW81" s="12"/>
@@ -7846,11 +7609,11 @@
       <c r="CV81" s="12"/>
       <c r="CW81" s="12"/>
     </row>
-    <row r="82" spans="3:101" x14ac:dyDescent="0.25">
-      <c r="C82" s="18"/>
-      <c r="D82" s="20"/>
-      <c r="E82" s="15">
-        <f t="shared" si="0"/>
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C82" s="7"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="9" t="n">
+        <f aca="false">E81+1</f>
         <v>41</v>
       </c>
       <c r="G82" s="12"/>
@@ -7884,7 +7647,7 @@
       <c r="AI82" s="12"/>
       <c r="AJ82" s="12"/>
       <c r="AK82" s="12"/>
-      <c r="AL82" s="16"/>
+      <c r="AL82" s="11"/>
       <c r="AM82" s="12"/>
       <c r="AN82" s="12"/>
       <c r="AO82" s="12"/>
@@ -7894,7 +7657,7 @@
       <c r="AS82" s="12"/>
       <c r="AT82" s="12"/>
       <c r="AU82" s="12"/>
-      <c r="AV82" s="16"/>
+      <c r="AV82" s="11"/>
       <c r="AW82" s="12"/>
       <c r="AX82" s="12"/>
       <c r="AY82" s="12"/>
@@ -7949,11 +7712,11 @@
       <c r="CV82" s="12"/>
       <c r="CW82" s="12"/>
     </row>
-    <row r="83" spans="3:101" x14ac:dyDescent="0.25">
-      <c r="C83" s="18"/>
-      <c r="D83" s="20"/>
-      <c r="E83" s="15">
-        <f t="shared" si="0"/>
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C83" s="7"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="9" t="n">
+        <f aca="false">E82+1</f>
         <v>42</v>
       </c>
       <c r="G83" s="12"/>
@@ -7980,7 +7743,7 @@
       <c r="AB83" s="12"/>
       <c r="AC83" s="12"/>
       <c r="AD83" s="12"/>
-      <c r="AE83" s="16"/>
+      <c r="AE83" s="11"/>
       <c r="AF83" s="12"/>
       <c r="AG83" s="12"/>
       <c r="AH83" s="12"/>
@@ -7990,7 +7753,7 @@
       <c r="AL83" s="12"/>
       <c r="AM83" s="12"/>
       <c r="AN83" s="12"/>
-      <c r="AO83" s="16"/>
+      <c r="AO83" s="11"/>
       <c r="AP83" s="12"/>
       <c r="AQ83" s="12"/>
       <c r="AR83" s="12"/>
@@ -7998,11 +7761,11 @@
       <c r="AT83" s="12"/>
       <c r="AU83" s="12"/>
       <c r="AV83" s="12"/>
-      <c r="AW83" s="16"/>
+      <c r="AW83" s="11"/>
       <c r="AX83" s="12"/>
       <c r="AY83" s="12"/>
       <c r="AZ83" s="12"/>
-      <c r="BA83" s="16"/>
+      <c r="BA83" s="11"/>
       <c r="BB83" s="12"/>
       <c r="BC83" s="12"/>
       <c r="BD83" s="12"/>
@@ -8052,11 +7815,11 @@
       <c r="CV83" s="12"/>
       <c r="CW83" s="12"/>
     </row>
-    <row r="84" spans="3:101" x14ac:dyDescent="0.25">
-      <c r="C84" s="18"/>
-      <c r="D84" s="20"/>
-      <c r="E84" s="15">
-        <f t="shared" si="0"/>
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C84" s="7"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="9" t="n">
+        <f aca="false">E83+1</f>
         <v>43</v>
       </c>
       <c r="G84" s="12"/>
@@ -8085,9 +7848,9 @@
       <c r="AD84" s="12"/>
       <c r="AE84" s="12"/>
       <c r="AF84" s="12"/>
-      <c r="AG84" s="16"/>
+      <c r="AG84" s="11"/>
       <c r="AH84" s="12"/>
-      <c r="AI84" s="16"/>
+      <c r="AI84" s="11"/>
       <c r="AJ84" s="12"/>
       <c r="AK84" s="12"/>
       <c r="AL84" s="12"/>
@@ -8095,19 +7858,19 @@
       <c r="AN84" s="12"/>
       <c r="AO84" s="12"/>
       <c r="AP84" s="12"/>
-      <c r="AQ84" s="16"/>
+      <c r="AQ84" s="11"/>
       <c r="AR84" s="12"/>
-      <c r="AS84" s="16"/>
+      <c r="AS84" s="11"/>
       <c r="AT84" s="12"/>
       <c r="AU84" s="12"/>
       <c r="AV84" s="12"/>
       <c r="AW84" s="12"/>
-      <c r="AX84" s="16"/>
-      <c r="AY84" s="16"/>
+      <c r="AX84" s="11"/>
+      <c r="AY84" s="11"/>
       <c r="AZ84" s="12"/>
       <c r="BA84" s="12"/>
-      <c r="BB84" s="16"/>
-      <c r="BC84" s="16"/>
+      <c r="BB84" s="11"/>
+      <c r="BC84" s="11"/>
       <c r="BD84" s="12"/>
       <c r="BE84" s="12"/>
       <c r="BF84" s="12"/>
@@ -8155,11 +7918,11 @@
       <c r="CV84" s="12"/>
       <c r="CW84" s="12"/>
     </row>
-    <row r="85" spans="3:101" x14ac:dyDescent="0.25">
-      <c r="C85" s="18"/>
-      <c r="D85" s="20"/>
-      <c r="E85" s="15">
-        <f t="shared" si="0"/>
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C85" s="7"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="9" t="n">
+        <f aca="false">E84+1</f>
         <v>44</v>
       </c>
       <c r="G85" s="12"/>
@@ -8192,7 +7955,7 @@
       <c r="AH85" s="12"/>
       <c r="AI85" s="12"/>
       <c r="AJ85" s="12"/>
-      <c r="AK85" s="16"/>
+      <c r="AK85" s="11"/>
       <c r="AL85" s="12"/>
       <c r="AM85" s="12"/>
       <c r="AN85" s="12"/>
@@ -8202,16 +7965,16 @@
       <c r="AR85" s="12"/>
       <c r="AS85" s="12"/>
       <c r="AT85" s="12"/>
-      <c r="AU85" s="16"/>
+      <c r="AU85" s="11"/>
       <c r="AV85" s="12"/>
       <c r="AW85" s="12"/>
       <c r="AX85" s="12"/>
       <c r="AY85" s="12"/>
-      <c r="AZ85" s="16"/>
+      <c r="AZ85" s="11"/>
       <c r="BA85" s="12"/>
       <c r="BB85" s="12"/>
       <c r="BC85" s="12"/>
-      <c r="BD85" s="16"/>
+      <c r="BD85" s="11"/>
       <c r="BE85" s="12"/>
       <c r="BF85" s="12"/>
       <c r="BG85" s="12"/>
@@ -8258,11 +8021,11 @@
       <c r="CV85" s="12"/>
       <c r="CW85" s="12"/>
     </row>
-    <row r="86" spans="3:101" x14ac:dyDescent="0.25">
-      <c r="C86" s="18"/>
-      <c r="D86" s="20"/>
-      <c r="E86" s="15">
-        <f t="shared" si="0"/>
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C86" s="7"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="9" t="n">
+        <f aca="false">E85+1</f>
         <v>45</v>
       </c>
       <c r="G86" s="12"/>
@@ -8361,11 +8124,11 @@
       <c r="CV86" s="12"/>
       <c r="CW86" s="12"/>
     </row>
-    <row r="87" spans="3:101" x14ac:dyDescent="0.25">
-      <c r="C87" s="18"/>
-      <c r="D87" s="20"/>
-      <c r="E87" s="15">
-        <f t="shared" si="0"/>
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C87" s="7"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="9" t="n">
+        <f aca="false">E86+1</f>
         <v>46</v>
       </c>
       <c r="G87" s="12"/>
@@ -8464,11 +8227,11 @@
       <c r="CV87" s="12"/>
       <c r="CW87" s="12"/>
     </row>
-    <row r="88" spans="3:101" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C88" s="18"/>
-      <c r="D88" s="20"/>
-      <c r="E88" s="15">
-        <f t="shared" si="0"/>
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C88" s="7"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="9" t="n">
+        <f aca="false">E87+1</f>
         <v>47</v>
       </c>
       <c r="G88" s="12"/>
@@ -8521,8 +8284,8 @@
       <c r="BB88" s="12"/>
       <c r="BC88" s="12"/>
       <c r="BD88" s="12"/>
-      <c r="BE88" s="16"/>
-      <c r="BF88" s="16"/>
+      <c r="BE88" s="11"/>
+      <c r="BF88" s="11"/>
       <c r="BG88" s="12"/>
       <c r="BH88" s="12"/>
       <c r="BI88" s="12"/>
@@ -8567,11 +8330,11 @@
       <c r="CV88" s="12"/>
       <c r="CW88" s="12"/>
     </row>
-    <row r="89" spans="3:101" x14ac:dyDescent="0.25">
-      <c r="C89" s="18"/>
-      <c r="D89" s="20"/>
-      <c r="E89" s="15">
-        <f t="shared" si="0"/>
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C89" s="7"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="9" t="n">
+        <f aca="false">E88+1</f>
         <v>48</v>
       </c>
       <c r="G89" s="12"/>
@@ -8643,7 +8406,7 @@
       <c r="BU89" s="12"/>
       <c r="BV89" s="12"/>
       <c r="BW89" s="12"/>
-      <c r="BX89" s="12"/>
+      <c r="BX89" s="11"/>
       <c r="BY89" s="12"/>
       <c r="BZ89" s="12"/>
       <c r="CA89" s="12"/>
@@ -8670,11 +8433,11 @@
       <c r="CV89" s="12"/>
       <c r="CW89" s="12"/>
     </row>
-    <row r="90" spans="3:101" x14ac:dyDescent="0.25">
-      <c r="C90" s="18"/>
-      <c r="D90" s="20"/>
-      <c r="E90" s="15">
-        <f>E89+1</f>
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C90" s="7"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="9" t="n">
+        <f aca="false">E89+1</f>
         <v>49</v>
       </c>
       <c r="G90" s="12"/>
@@ -8747,7 +8510,7 @@
       <c r="BV90" s="12"/>
       <c r="BW90" s="12"/>
       <c r="BX90" s="12"/>
-      <c r="BY90" s="12"/>
+      <c r="BY90" s="11"/>
       <c r="BZ90" s="12"/>
       <c r="CA90" s="12"/>
       <c r="CB90" s="12"/>
@@ -8773,11 +8536,11 @@
       <c r="CV90" s="12"/>
       <c r="CW90" s="12"/>
     </row>
-    <row r="91" spans="3:101" x14ac:dyDescent="0.25">
-      <c r="C91" s="18"/>
-      <c r="D91" s="20"/>
-      <c r="E91" s="15">
-        <f t="shared" si="0"/>
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C91" s="7"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="9" t="n">
+        <f aca="false">E90+1</f>
         <v>50</v>
       </c>
       <c r="G91" s="12"/>
@@ -8851,7 +8614,7 @@
       <c r="BW91" s="12"/>
       <c r="BX91" s="12"/>
       <c r="BY91" s="12"/>
-      <c r="BZ91" s="12"/>
+      <c r="BZ91" s="11"/>
       <c r="CA91" s="12"/>
       <c r="CB91" s="12"/>
       <c r="CC91" s="12"/>
@@ -8876,11 +8639,11 @@
       <c r="CV91" s="12"/>
       <c r="CW91" s="12"/>
     </row>
-    <row r="92" spans="3:101" x14ac:dyDescent="0.25">
-      <c r="C92" s="18"/>
-      <c r="D92" s="20"/>
-      <c r="E92" s="15">
-        <f t="shared" si="0"/>
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C92" s="7"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="9" t="n">
+        <f aca="false">E91+1</f>
         <v>51</v>
       </c>
       <c r="G92" s="12"/>
@@ -8979,11 +8742,11 @@
       <c r="CV92" s="12"/>
       <c r="CW92" s="12"/>
     </row>
-    <row r="93" spans="3:101" x14ac:dyDescent="0.25">
-      <c r="C93" s="18"/>
-      <c r="D93" s="20"/>
-      <c r="E93" s="15">
-        <f t="shared" si="0"/>
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C93" s="7"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="9" t="n">
+        <f aca="false">E92+1</f>
         <v>52</v>
       </c>
       <c r="G93" s="12"/>
@@ -9038,19 +8801,19 @@
       <c r="BD93" s="12"/>
       <c r="BE93" s="12"/>
       <c r="BF93" s="12"/>
-      <c r="BG93" s="16"/>
-      <c r="BH93" s="16"/>
+      <c r="BG93" s="11"/>
+      <c r="BH93" s="11"/>
       <c r="BI93" s="12"/>
       <c r="BJ93" s="12"/>
       <c r="BK93" s="12"/>
       <c r="BL93" s="12"/>
       <c r="BM93" s="12"/>
       <c r="BN93" s="12"/>
-      <c r="BO93" s="16"/>
-      <c r="BP93" s="16"/>
-      <c r="BQ93" s="16"/>
-      <c r="BR93" s="16"/>
-      <c r="BS93" s="16"/>
+      <c r="BO93" s="11"/>
+      <c r="BP93" s="11"/>
+      <c r="BQ93" s="11"/>
+      <c r="BR93" s="11"/>
+      <c r="BS93" s="11"/>
       <c r="BT93" s="12"/>
       <c r="BU93" s="12"/>
       <c r="BV93" s="12"/>
@@ -9082,11 +8845,11 @@
       <c r="CV93" s="12"/>
       <c r="CW93" s="12"/>
     </row>
-    <row r="94" spans="3:101" x14ac:dyDescent="0.25">
-      <c r="C94" s="18"/>
-      <c r="D94" s="20"/>
-      <c r="E94" s="15">
-        <f t="shared" si="0"/>
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C94" s="7"/>
+      <c r="D94" s="8"/>
+      <c r="E94" s="9" t="n">
+        <f aca="false">E93+1</f>
         <v>53</v>
       </c>
       <c r="G94" s="12"/>
@@ -9153,7 +8916,7 @@
       <c r="BP94" s="12"/>
       <c r="BQ94" s="12"/>
       <c r="BR94" s="12"/>
-      <c r="BS94" s="16"/>
+      <c r="BS94" s="11"/>
       <c r="BT94" s="12"/>
       <c r="BU94" s="12"/>
       <c r="BV94" s="12"/>
@@ -9185,11 +8948,11 @@
       <c r="CV94" s="12"/>
       <c r="CW94" s="12"/>
     </row>
-    <row r="95" spans="3:101" x14ac:dyDescent="0.25">
-      <c r="C95" s="18"/>
-      <c r="D95" s="20"/>
-      <c r="E95" s="15">
-        <f t="shared" si="0"/>
+    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C95" s="7"/>
+      <c r="D95" s="8"/>
+      <c r="E95" s="9" t="n">
+        <f aca="false">E94+1</f>
         <v>54</v>
       </c>
       <c r="G95" s="12"/>
@@ -9255,7 +9018,7 @@
       <c r="BO95" s="12"/>
       <c r="BP95" s="12"/>
       <c r="BQ95" s="12"/>
-      <c r="BR95" s="16"/>
+      <c r="BR95" s="11"/>
       <c r="BS95" s="12"/>
       <c r="BT95" s="12"/>
       <c r="BU95" s="12"/>
@@ -9288,11 +9051,11 @@
       <c r="CV95" s="12"/>
       <c r="CW95" s="12"/>
     </row>
-    <row r="96" spans="3:101" x14ac:dyDescent="0.25">
-      <c r="C96" s="18"/>
-      <c r="D96" s="20"/>
-      <c r="E96" s="15">
-        <f t="shared" si="0"/>
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C96" s="7"/>
+      <c r="D96" s="8"/>
+      <c r="E96" s="9" t="n">
+        <f aca="false">E95+1</f>
         <v>55</v>
       </c>
       <c r="G96" s="12"/>
@@ -9391,11 +9154,11 @@
       <c r="CV96" s="12"/>
       <c r="CW96" s="12"/>
     </row>
-    <row r="97" spans="3:101" x14ac:dyDescent="0.25">
-      <c r="C97" s="18"/>
-      <c r="D97" s="20"/>
-      <c r="E97" s="15">
-        <f t="shared" si="0"/>
+    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C97" s="7"/>
+      <c r="D97" s="8"/>
+      <c r="E97" s="9" t="n">
+        <f aca="false">E96+1</f>
         <v>56</v>
       </c>
       <c r="G97" s="12"/>
@@ -9494,11 +9257,11 @@
       <c r="CV97" s="12"/>
       <c r="CW97" s="12"/>
     </row>
-    <row r="98" spans="3:101" x14ac:dyDescent="0.25">
-      <c r="C98" s="18"/>
-      <c r="D98" s="20"/>
-      <c r="E98" s="15">
-        <f t="shared" si="0"/>
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C98" s="7"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="9" t="n">
+        <f aca="false">E97+1</f>
         <v>57</v>
       </c>
       <c r="G98" s="12"/>
@@ -9568,7 +9331,7 @@
       <c r="BS98" s="12"/>
       <c r="BT98" s="12"/>
       <c r="BU98" s="12"/>
-      <c r="BV98" s="16"/>
+      <c r="BV98" s="11"/>
       <c r="BW98" s="12"/>
       <c r="BX98" s="12"/>
       <c r="BY98" s="12"/>
@@ -9597,11 +9360,11 @@
       <c r="CV98" s="12"/>
       <c r="CW98" s="12"/>
     </row>
-    <row r="99" spans="3:101" x14ac:dyDescent="0.25">
-      <c r="C99" s="18"/>
-      <c r="D99" s="20"/>
-      <c r="E99" s="15">
-        <f t="shared" si="0"/>
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C99" s="7"/>
+      <c r="D99" s="8"/>
+      <c r="E99" s="9" t="n">
+        <f aca="false">E98+1</f>
         <v>58</v>
       </c>
       <c r="G99" s="12"/>
@@ -9669,7 +9432,7 @@
       <c r="BQ99" s="12"/>
       <c r="BR99" s="12"/>
       <c r="BS99" s="12"/>
-      <c r="BT99" s="16"/>
+      <c r="BT99" s="11"/>
       <c r="BU99" s="12"/>
       <c r="BV99" s="12"/>
       <c r="BW99" s="12"/>
@@ -9700,11 +9463,11 @@
       <c r="CV99" s="12"/>
       <c r="CW99" s="12"/>
     </row>
-    <row r="100" spans="3:101" x14ac:dyDescent="0.25">
-      <c r="C100" s="18"/>
-      <c r="D100" s="20"/>
-      <c r="E100" s="15">
-        <f t="shared" si="0"/>
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C100" s="7"/>
+      <c r="D100" s="8"/>
+      <c r="E100" s="9" t="n">
+        <f aca="false">E99+1</f>
         <v>59</v>
       </c>
       <c r="G100" s="12"/>
@@ -9775,7 +9538,7 @@
       <c r="BT100" s="12"/>
       <c r="BU100" s="12"/>
       <c r="BV100" s="12"/>
-      <c r="BW100" s="16"/>
+      <c r="BW100" s="11"/>
       <c r="BX100" s="12"/>
       <c r="BY100" s="12"/>
       <c r="BZ100" s="12"/>
@@ -9803,11 +9566,11 @@
       <c r="CV100" s="12"/>
       <c r="CW100" s="12"/>
     </row>
-    <row r="101" spans="3:101" x14ac:dyDescent="0.25">
-      <c r="C101" s="18"/>
-      <c r="D101" s="20"/>
-      <c r="E101" s="15">
-        <f t="shared" si="0"/>
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C101" s="7"/>
+      <c r="D101" s="8"/>
+      <c r="E101" s="9" t="n">
+        <f aca="false">E100+1</f>
         <v>60</v>
       </c>
       <c r="G101" s="12"/>
@@ -9876,7 +9639,7 @@
       <c r="BR101" s="12"/>
       <c r="BS101" s="12"/>
       <c r="BT101" s="12"/>
-      <c r="BU101" s="16"/>
+      <c r="BU101" s="11"/>
       <c r="BV101" s="12"/>
       <c r="BW101" s="12"/>
       <c r="BX101" s="12"/>
@@ -9906,11 +9669,11 @@
       <c r="CV101" s="12"/>
       <c r="CW101" s="12"/>
     </row>
-    <row r="102" spans="3:101" x14ac:dyDescent="0.25">
-      <c r="C102" s="18"/>
-      <c r="D102" s="20"/>
-      <c r="E102" s="15">
-        <f>E101+1</f>
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C102" s="7"/>
+      <c r="D102" s="8"/>
+      <c r="E102" s="9" t="n">
+        <f aca="false">E101+1</f>
         <v>61</v>
       </c>
       <c r="G102" s="12"/>
@@ -9967,7 +9730,7 @@
       <c r="BF102" s="12"/>
       <c r="BG102" s="12"/>
       <c r="BH102" s="12"/>
-      <c r="BI102" s="16"/>
+      <c r="BI102" s="11"/>
       <c r="BJ102" s="12"/>
       <c r="BK102" s="12"/>
       <c r="BL102" s="12"/>
@@ -10009,11 +9772,11 @@
       <c r="CV102" s="12"/>
       <c r="CW102" s="12"/>
     </row>
-    <row r="103" spans="3:101" x14ac:dyDescent="0.25">
-      <c r="C103" s="18"/>
-      <c r="D103" s="20"/>
-      <c r="E103" s="15">
-        <f t="shared" si="0"/>
+    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C103" s="7"/>
+      <c r="D103" s="8"/>
+      <c r="E103" s="9" t="n">
+        <f aca="false">E102+1</f>
         <v>62</v>
       </c>
       <c r="G103" s="12"/>
@@ -10072,7 +9835,7 @@
       <c r="BH103" s="12"/>
       <c r="BI103" s="12"/>
       <c r="BJ103" s="12"/>
-      <c r="BK103" s="16"/>
+      <c r="BK103" s="11"/>
       <c r="BL103" s="12"/>
       <c r="BM103" s="12"/>
       <c r="BN103" s="12"/>
@@ -10112,11 +9875,11 @@
       <c r="CV103" s="12"/>
       <c r="CW103" s="12"/>
     </row>
-    <row r="104" spans="3:101" x14ac:dyDescent="0.25">
-      <c r="C104" s="18"/>
-      <c r="D104" s="20"/>
-      <c r="E104" s="15">
-        <f t="shared" si="0"/>
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C104" s="7"/>
+      <c r="D104" s="8"/>
+      <c r="E104" s="9" t="n">
+        <f aca="false">E103+1</f>
         <v>63</v>
       </c>
       <c r="G104" s="12"/>
@@ -10174,7 +9937,7 @@
       <c r="BG104" s="12"/>
       <c r="BH104" s="12"/>
       <c r="BI104" s="12"/>
-      <c r="BJ104" s="16"/>
+      <c r="BJ104" s="11"/>
       <c r="BK104" s="12"/>
       <c r="BL104" s="12"/>
       <c r="BM104" s="12"/>
@@ -10215,11 +9978,11 @@
       <c r="CV104" s="12"/>
       <c r="CW104" s="12"/>
     </row>
-    <row r="105" spans="3:101" x14ac:dyDescent="0.25">
-      <c r="C105" s="18"/>
-      <c r="D105" s="20"/>
-      <c r="E105" s="15">
-        <f t="shared" si="0"/>
+    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C105" s="7"/>
+      <c r="D105" s="8"/>
+      <c r="E105" s="9" t="n">
+        <f aca="false">E104+1</f>
         <v>64</v>
       </c>
       <c r="G105" s="12"/>
@@ -10318,11 +10081,11 @@
       <c r="CV105" s="12"/>
       <c r="CW105" s="12"/>
     </row>
-    <row r="106" spans="3:101" x14ac:dyDescent="0.25">
-      <c r="C106" s="18"/>
-      <c r="D106" s="20"/>
-      <c r="E106" s="15">
-        <f t="shared" si="0"/>
+    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C106" s="7"/>
+      <c r="D106" s="8"/>
+      <c r="E106" s="9" t="n">
+        <f aca="false">E105+1</f>
         <v>65</v>
       </c>
       <c r="G106" s="12"/>
@@ -10421,11 +10184,11 @@
       <c r="CV106" s="12"/>
       <c r="CW106" s="12"/>
     </row>
-    <row r="107" spans="3:101" x14ac:dyDescent="0.25">
-      <c r="C107" s="18"/>
-      <c r="D107" s="20"/>
-      <c r="E107" s="15">
-        <f t="shared" si="0"/>
+    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C107" s="7"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="9" t="n">
+        <f aca="false">E106+1</f>
         <v>66</v>
       </c>
       <c r="G107" s="12"/>
@@ -10524,11 +10287,11 @@
       <c r="CV107" s="12"/>
       <c r="CW107" s="12"/>
     </row>
-    <row r="108" spans="3:101" x14ac:dyDescent="0.25">
-      <c r="C108" s="18"/>
-      <c r="D108" s="20"/>
-      <c r="E108" s="15">
-        <f t="shared" ref="E108:E117" si="1">E107+1</f>
+    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C108" s="7"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="9" t="n">
+        <f aca="false">E107+1</f>
         <v>67</v>
       </c>
       <c r="G108" s="12"/>
@@ -10627,11 +10390,11 @@
       <c r="CV108" s="12"/>
       <c r="CW108" s="12"/>
     </row>
-    <row r="109" spans="3:101" x14ac:dyDescent="0.25">
-      <c r="C109" s="18"/>
-      <c r="D109" s="20"/>
-      <c r="E109" s="15">
-        <f t="shared" si="1"/>
+    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C109" s="7"/>
+      <c r="D109" s="8"/>
+      <c r="E109" s="9" t="n">
+        <f aca="false">E108+1</f>
         <v>68</v>
       </c>
       <c r="G109" s="12"/>
@@ -10730,11 +10493,11 @@
       <c r="CV109" s="12"/>
       <c r="CW109" s="12"/>
     </row>
-    <row r="110" spans="3:101" x14ac:dyDescent="0.25">
-      <c r="C110" s="18"/>
-      <c r="D110" s="20"/>
-      <c r="E110" s="15">
-        <f t="shared" si="1"/>
+    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C110" s="7"/>
+      <c r="D110" s="8"/>
+      <c r="E110" s="9" t="n">
+        <f aca="false">E109+1</f>
         <v>69</v>
       </c>
       <c r="G110" s="12"/>
@@ -10833,11 +10596,11 @@
       <c r="CV110" s="12"/>
       <c r="CW110" s="12"/>
     </row>
-    <row r="111" spans="3:101" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C111" s="18"/>
-      <c r="D111" s="20"/>
-      <c r="E111" s="15">
-        <f t="shared" si="1"/>
+    <row r="111" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C111" s="7"/>
+      <c r="D111" s="8"/>
+      <c r="E111" s="9" t="n">
+        <f aca="false">E110+1</f>
         <v>70</v>
       </c>
       <c r="G111" s="12"/>
@@ -10936,11 +10699,11 @@
       <c r="CV111" s="12"/>
       <c r="CW111" s="12"/>
     </row>
-    <row r="112" spans="3:101" x14ac:dyDescent="0.25">
-      <c r="C112" s="18"/>
-      <c r="D112" s="20"/>
-      <c r="E112" s="15">
-        <f t="shared" si="1"/>
+    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C112" s="7"/>
+      <c r="D112" s="8"/>
+      <c r="E112" s="9" t="n">
+        <f aca="false">E111+1</f>
         <v>71</v>
       </c>
       <c r="G112" s="12"/>
@@ -11039,11 +10802,11 @@
       <c r="CV112" s="12"/>
       <c r="CW112" s="12"/>
     </row>
-    <row r="113" spans="3:101" x14ac:dyDescent="0.25">
-      <c r="C113" s="18"/>
-      <c r="D113" s="20"/>
-      <c r="E113" s="15">
-        <f t="shared" si="1"/>
+    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C113" s="7"/>
+      <c r="D113" s="8"/>
+      <c r="E113" s="9" t="n">
+        <f aca="false">E112+1</f>
         <v>72</v>
       </c>
       <c r="G113" s="12"/>
@@ -11142,11 +10905,11 @@
       <c r="CV113" s="12"/>
       <c r="CW113" s="12"/>
     </row>
-    <row r="114" spans="3:101" x14ac:dyDescent="0.25">
-      <c r="C114" s="18"/>
-      <c r="D114" s="20"/>
-      <c r="E114" s="15">
-        <f t="shared" si="1"/>
+    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C114" s="7"/>
+      <c r="D114" s="8"/>
+      <c r="E114" s="9" t="n">
+        <f aca="false">E113+1</f>
         <v>73</v>
       </c>
       <c r="G114" s="12"/>
@@ -11245,11 +11008,11 @@
       <c r="CV114" s="12"/>
       <c r="CW114" s="12"/>
     </row>
-    <row r="115" spans="3:101" x14ac:dyDescent="0.25">
-      <c r="C115" s="18"/>
-      <c r="D115" s="20"/>
-      <c r="E115" s="15">
-        <f t="shared" si="1"/>
+    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C115" s="7"/>
+      <c r="D115" s="8"/>
+      <c r="E115" s="9" t="n">
+        <f aca="false">E114+1</f>
         <v>74</v>
       </c>
       <c r="G115" s="12"/>
@@ -11348,11 +11111,11 @@
       <c r="CV115" s="12"/>
       <c r="CW115" s="12"/>
     </row>
-    <row r="116" spans="3:101" x14ac:dyDescent="0.25">
-      <c r="C116" s="18"/>
-      <c r="D116" s="20"/>
-      <c r="E116" s="15">
-        <f t="shared" si="1"/>
+    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C116" s="7"/>
+      <c r="D116" s="8"/>
+      <c r="E116" s="9" t="n">
+        <f aca="false">E115+1</f>
         <v>75</v>
       </c>
       <c r="G116" s="12"/>
@@ -11451,11 +11214,11 @@
       <c r="CV116" s="12"/>
       <c r="CW116" s="12"/>
     </row>
-    <row r="117" spans="3:101" x14ac:dyDescent="0.25">
-      <c r="C117" s="18"/>
-      <c r="D117" s="20"/>
-      <c r="E117" s="15">
-        <f t="shared" si="1"/>
+    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C117" s="7"/>
+      <c r="D117" s="8"/>
+      <c r="E117" s="9" t="n">
+        <f aca="false">E116+1</f>
         <v>76</v>
       </c>
       <c r="G117" s="12"/>
@@ -11554,11 +11317,11 @@
       <c r="CV117" s="12"/>
       <c r="CW117" s="12"/>
     </row>
-    <row r="118" spans="3:101" x14ac:dyDescent="0.25">
-      <c r="C118" s="18"/>
-      <c r="D118" s="20"/>
-      <c r="E118" s="15">
-        <f>E117+1</f>
+    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C118" s="7"/>
+      <c r="D118" s="8"/>
+      <c r="E118" s="9" t="n">
+        <f aca="false">E117+1</f>
         <v>77</v>
       </c>
       <c r="G118" s="12"/>
@@ -11657,11 +11420,11 @@
       <c r="CV118" s="12"/>
       <c r="CW118" s="12"/>
     </row>
-    <row r="119" spans="3:101" x14ac:dyDescent="0.25">
-      <c r="C119" s="18"/>
-      <c r="D119" s="20"/>
-      <c r="E119" s="15">
-        <f t="shared" ref="E119:E136" si="2">E118+1</f>
+    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C119" s="7"/>
+      <c r="D119" s="8"/>
+      <c r="E119" s="9" t="n">
+        <f aca="false">E118+1</f>
         <v>78</v>
       </c>
       <c r="G119" s="12"/>
@@ -11760,11 +11523,11 @@
       <c r="CV119" s="12"/>
       <c r="CW119" s="12"/>
     </row>
-    <row r="120" spans="3:101" x14ac:dyDescent="0.25">
-      <c r="C120" s="18"/>
-      <c r="D120" s="20"/>
-      <c r="E120" s="15">
-        <f t="shared" si="2"/>
+    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C120" s="7"/>
+      <c r="D120" s="8"/>
+      <c r="E120" s="9" t="n">
+        <f aca="false">E119+1</f>
         <v>79</v>
       </c>
       <c r="G120" s="12"/>
@@ -11863,11 +11626,11 @@
       <c r="CV120" s="12"/>
       <c r="CW120" s="12"/>
     </row>
-    <row r="121" spans="3:101" x14ac:dyDescent="0.25">
-      <c r="C121" s="18"/>
-      <c r="D121" s="20"/>
-      <c r="E121" s="15">
-        <f t="shared" si="2"/>
+    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C121" s="7"/>
+      <c r="D121" s="8"/>
+      <c r="E121" s="9" t="n">
+        <f aca="false">E120+1</f>
         <v>80</v>
       </c>
       <c r="G121" s="12"/>
@@ -11966,11 +11729,11 @@
       <c r="CV121" s="12"/>
       <c r="CW121" s="12"/>
     </row>
-    <row r="122" spans="3:101" x14ac:dyDescent="0.25">
-      <c r="C122" s="18"/>
-      <c r="D122" s="20"/>
-      <c r="E122" s="15">
-        <f t="shared" si="2"/>
+    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C122" s="7"/>
+      <c r="D122" s="8"/>
+      <c r="E122" s="9" t="n">
+        <f aca="false">E121+1</f>
         <v>81</v>
       </c>
       <c r="G122" s="12"/>
@@ -12069,11 +11832,11 @@
       <c r="CV122" s="12"/>
       <c r="CW122" s="12"/>
     </row>
-    <row r="123" spans="3:101" x14ac:dyDescent="0.25">
-      <c r="C123" s="18"/>
-      <c r="D123" s="20"/>
-      <c r="E123" s="15">
-        <f t="shared" si="2"/>
+    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C123" s="7"/>
+      <c r="D123" s="8"/>
+      <c r="E123" s="9" t="n">
+        <f aca="false">E122+1</f>
         <v>82</v>
       </c>
       <c r="G123" s="12"/>
@@ -12172,11 +11935,11 @@
       <c r="CV123" s="12"/>
       <c r="CW123" s="12"/>
     </row>
-    <row r="124" spans="3:101" x14ac:dyDescent="0.25">
-      <c r="C124" s="18"/>
-      <c r="D124" s="20"/>
-      <c r="E124" s="15">
-        <f t="shared" si="2"/>
+    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C124" s="7"/>
+      <c r="D124" s="8"/>
+      <c r="E124" s="9" t="n">
+        <f aca="false">E123+1</f>
         <v>83</v>
       </c>
       <c r="G124" s="12"/>
@@ -12275,11 +12038,11 @@
       <c r="CV124" s="12"/>
       <c r="CW124" s="12"/>
     </row>
-    <row r="125" spans="3:101" x14ac:dyDescent="0.25">
-      <c r="C125" s="18"/>
-      <c r="D125" s="20"/>
-      <c r="E125" s="15">
-        <f t="shared" si="2"/>
+    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C125" s="7"/>
+      <c r="D125" s="8"/>
+      <c r="E125" s="9" t="n">
+        <f aca="false">E124+1</f>
         <v>84</v>
       </c>
       <c r="G125" s="12"/>
@@ -12378,11 +12141,11 @@
       <c r="CV125" s="12"/>
       <c r="CW125" s="12"/>
     </row>
-    <row r="126" spans="3:101" x14ac:dyDescent="0.25">
-      <c r="C126" s="18"/>
-      <c r="D126" s="20"/>
-      <c r="E126" s="15">
-        <f t="shared" si="2"/>
+    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C126" s="7"/>
+      <c r="D126" s="8"/>
+      <c r="E126" s="9" t="n">
+        <f aca="false">E125+1</f>
         <v>85</v>
       </c>
       <c r="G126" s="12"/>
@@ -12481,11 +12244,11 @@
       <c r="CV126" s="12"/>
       <c r="CW126" s="12"/>
     </row>
-    <row r="127" spans="3:101" x14ac:dyDescent="0.25">
-      <c r="C127" s="18"/>
-      <c r="D127" s="20"/>
-      <c r="E127" s="15">
-        <f t="shared" si="2"/>
+    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C127" s="7"/>
+      <c r="D127" s="8"/>
+      <c r="E127" s="9" t="n">
+        <f aca="false">E126+1</f>
         <v>86</v>
       </c>
       <c r="G127" s="12"/>
@@ -12584,11 +12347,11 @@
       <c r="CV127" s="12"/>
       <c r="CW127" s="12"/>
     </row>
-    <row r="128" spans="3:101" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C128" s="18"/>
-      <c r="D128" s="20"/>
-      <c r="E128" s="15">
-        <f t="shared" si="2"/>
+    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C128" s="7"/>
+      <c r="D128" s="8"/>
+      <c r="E128" s="9" t="n">
+        <f aca="false">E127+1</f>
         <v>87</v>
       </c>
       <c r="G128" s="12"/>
@@ -12660,7 +12423,7 @@
       <c r="BU128" s="12"/>
       <c r="BV128" s="12"/>
       <c r="BW128" s="12"/>
-      <c r="BX128" s="16"/>
+      <c r="BX128" s="12"/>
       <c r="BY128" s="12"/>
       <c r="BZ128" s="12"/>
       <c r="CA128" s="12"/>
@@ -12687,11 +12450,11 @@
       <c r="CV128" s="12"/>
       <c r="CW128" s="12"/>
     </row>
-    <row r="129" spans="3:101" x14ac:dyDescent="0.25">
-      <c r="C129" s="18"/>
-      <c r="D129" s="20"/>
-      <c r="E129" s="15">
-        <f t="shared" si="2"/>
+    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C129" s="7"/>
+      <c r="D129" s="8"/>
+      <c r="E129" s="9" t="n">
+        <f aca="false">E128+1</f>
         <v>88</v>
       </c>
       <c r="G129" s="12"/>
@@ -12764,7 +12527,7 @@
       <c r="BV129" s="12"/>
       <c r="BW129" s="12"/>
       <c r="BX129" s="12"/>
-      <c r="BY129" s="16"/>
+      <c r="BY129" s="12"/>
       <c r="BZ129" s="12"/>
       <c r="CA129" s="12"/>
       <c r="CB129" s="12"/>
@@ -12790,11 +12553,11 @@
       <c r="CV129" s="12"/>
       <c r="CW129" s="12"/>
     </row>
-    <row r="130" spans="3:101" x14ac:dyDescent="0.25">
-      <c r="C130" s="18"/>
-      <c r="D130" s="20"/>
-      <c r="E130" s="15">
-        <f t="shared" si="2"/>
+    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C130" s="7"/>
+      <c r="D130" s="8"/>
+      <c r="E130" s="9" t="n">
+        <f aca="false">E129+1</f>
         <v>89</v>
       </c>
       <c r="G130" s="12"/>
@@ -12868,7 +12631,7 @@
       <c r="BW130" s="12"/>
       <c r="BX130" s="12"/>
       <c r="BY130" s="12"/>
-      <c r="BZ130" s="16"/>
+      <c r="BZ130" s="12"/>
       <c r="CA130" s="12"/>
       <c r="CB130" s="12"/>
       <c r="CC130" s="12"/>
@@ -12893,11 +12656,11 @@
       <c r="CV130" s="12"/>
       <c r="CW130" s="12"/>
     </row>
-    <row r="131" spans="3:101" x14ac:dyDescent="0.25">
-      <c r="C131" s="18"/>
-      <c r="D131" s="21"/>
-      <c r="E131" s="15">
-        <f t="shared" si="2"/>
+    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C131" s="7"/>
+      <c r="D131" s="8"/>
+      <c r="E131" s="9" t="n">
+        <f aca="false">E130+1</f>
         <v>90</v>
       </c>
       <c r="G131" s="12"/>
@@ -12996,12 +12759,12 @@
       <c r="CV131" s="12"/>
       <c r="CW131" s="12"/>
     </row>
-    <row r="132" spans="3:101" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C132" s="18"/>
-      <c r="D132" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="E132" s="10">
+    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C132" s="7"/>
+      <c r="D132" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E132" s="10" t="n">
         <v>1</v>
       </c>
       <c r="G132" s="12"/>
@@ -13100,11 +12863,11 @@
       <c r="CV132" s="12"/>
       <c r="CW132" s="12"/>
     </row>
-    <row r="133" spans="3:101" x14ac:dyDescent="0.25">
-      <c r="C133" s="18"/>
-      <c r="D133" s="23"/>
-      <c r="E133" s="10">
-        <f t="shared" si="2"/>
+    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C133" s="7"/>
+      <c r="D133" s="21"/>
+      <c r="E133" s="10" t="n">
+        <f aca="false">E132+1</f>
         <v>2</v>
       </c>
       <c r="G133" s="12"/>
@@ -13203,11 +12966,11 @@
       <c r="CV133" s="12"/>
       <c r="CW133" s="12"/>
     </row>
-    <row r="134" spans="3:101" x14ac:dyDescent="0.25">
-      <c r="C134" s="18"/>
-      <c r="D134" s="23"/>
-      <c r="E134" s="10">
-        <f t="shared" si="2"/>
+    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C134" s="7"/>
+      <c r="D134" s="21"/>
+      <c r="E134" s="10" t="n">
+        <f aca="false">E133+1</f>
         <v>3</v>
       </c>
       <c r="G134" s="12"/>
@@ -13306,11 +13069,11 @@
       <c r="CV134" s="12"/>
       <c r="CW134" s="12"/>
     </row>
-    <row r="135" spans="3:101" x14ac:dyDescent="0.25">
-      <c r="C135" s="18"/>
-      <c r="D135" s="23"/>
-      <c r="E135" s="10">
-        <f t="shared" si="2"/>
+    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C135" s="7"/>
+      <c r="D135" s="21"/>
+      <c r="E135" s="10" t="n">
+        <f aca="false">E134+1</f>
         <v>4</v>
       </c>
       <c r="G135" s="12"/>
@@ -13409,11 +13172,11 @@
       <c r="CV135" s="12"/>
       <c r="CW135" s="12"/>
     </row>
-    <row r="136" spans="3:101" x14ac:dyDescent="0.25">
-      <c r="C136" s="30"/>
-      <c r="D136" s="24"/>
-      <c r="E136" s="15">
-        <f t="shared" si="2"/>
+    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C136" s="7"/>
+      <c r="D136" s="21"/>
+      <c r="E136" s="9" t="n">
+        <f aca="false">E135+1</f>
         <v>5</v>
       </c>
       <c r="G136" s="12"/>
@@ -13512,70 +13275,97 @@
       <c r="CV136" s="12"/>
       <c r="CW136" s="12"/>
     </row>
-    <row r="137" spans="3:101" x14ac:dyDescent="0.25">
-      <c r="C137" s="11"/>
-      <c r="D137" s="17"/>
-    </row>
-    <row r="138" spans="3:101" x14ac:dyDescent="0.25">
-      <c r="C138" s="11"/>
-      <c r="D138" s="17"/>
-    </row>
-    <row r="139" spans="3:101" x14ac:dyDescent="0.25">
-      <c r="C139" s="11"/>
-      <c r="D139" s="17"/>
-    </row>
-    <row r="140" spans="3:101" x14ac:dyDescent="0.25">
-      <c r="C140" s="11"/>
-      <c r="D140" s="17"/>
-    </row>
-    <row r="141" spans="3:101" x14ac:dyDescent="0.25">
-      <c r="C141" s="11"/>
-      <c r="D141" s="17"/>
-    </row>
-    <row r="142" spans="3:101" x14ac:dyDescent="0.25">
-      <c r="C142" s="11"/>
-    </row>
-    <row r="143" spans="3:101" x14ac:dyDescent="0.25">
-      <c r="C143" s="11"/>
-    </row>
-    <row r="144" spans="3:101" x14ac:dyDescent="0.25">
-      <c r="C144" s="11"/>
-    </row>
-    <row r="145" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C145" s="11"/>
+    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C137" s="3"/>
+      <c r="D137" s="22"/>
+    </row>
+    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C138" s="3"/>
+      <c r="D138" s="22"/>
+    </row>
+    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C139" s="3"/>
+      <c r="D139" s="22"/>
+    </row>
+    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C140" s="3"/>
+      <c r="D140" s="22"/>
+    </row>
+    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C141" s="3"/>
+      <c r="D141" s="22"/>
+    </row>
+    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C142" s="3"/>
+    </row>
+    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C143" s="3"/>
+    </row>
+    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C144" s="3"/>
+    </row>
+    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C145" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="G40:CW40"/>
     <mergeCell ref="C42:C136"/>
     <mergeCell ref="D42:D131"/>
     <mergeCell ref="D132:D136"/>
-    <mergeCell ref="G40:CW40"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="28" zoomScaleNormal="28" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="28" zoomScaleNormal="28" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/Documentacion/Matriz.xlsx
+++ b/Documentacion/Matriz.xlsx
@@ -94,8 +94,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -134,7 +135,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -192,7 +193,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC4BD97"/>
-        <bgColor rgb="FFC3D69B"/>
+        <bgColor rgb="FFB2B2B2"/>
       </patternFill>
     </fill>
     <fill>
@@ -204,6 +205,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE6B9B8"/>
+        <bgColor rgb="FFC4BD97"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB2B2B2"/>
         <bgColor rgb="FFC4BD97"/>
       </patternFill>
     </fill>
@@ -269,7 +276,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -354,7 +361,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="13" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -420,7 +435,7 @@
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FFB2B2B2"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
@@ -441,13 +456,13 @@
   </sheetPr>
   <dimension ref="B4:CW145"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AR64" colorId="64" zoomScale="28" zoomScaleNormal="28" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="CJ150" activeCellId="0" sqref="CJ150"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D108" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H128" activeCellId="0" sqref="H128"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="4.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="4.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="4.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="3.86"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="6" min="6" style="0" width="3.14"/>
@@ -458,7 +473,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="4.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="4.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="5.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="5.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="4.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="18" style="0" width="4.28"/>
@@ -469,38 +484,38 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="5.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="5.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="5.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="28" style="0" width="5.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="5.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="4.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="5.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="4.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="5.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="4.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="5.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="5.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="0" width="5.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="0" width="4.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="0" width="4.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="0" width="5.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="0" width="5.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="0" width="4.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="0" width="5.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="0" width="5.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="0" width="5.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="0" width="5.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="0" width="6.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="0" width="5.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="0" width="6.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="0" width="5.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="0" width="5.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="0" width="4.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="55" style="0" width="5.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="0" width="6.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="57" style="0" width="5.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="0" width="5.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="0" width="5.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="59" style="0" width="5.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="62" style="0" width="4.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="63" style="0" width="5.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="65" style="0" width="5.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="67" min="66" style="0" width="4.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="67" min="66" style="0" width="4.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="68" min="68" style="0" width="5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="69" min="69" style="0" width="5.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="70" min="70" style="0" width="5.57"/>
@@ -508,7 +523,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="72" min="72" style="0" width="5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="73" min="73" style="0" width="5.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="74" min="74" style="0" width="5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="75" min="75" style="0" width="5.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="75" min="75" style="0" width="5.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="76" min="76" style="0" width="4.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="77" min="77" style="0" width="5.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="78" min="78" style="0" width="5.43"/>
@@ -516,19 +531,19 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="81" min="81" style="0" width="5.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="82" min="82" style="0" width="5.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="83" min="83" style="0" width="5.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="84" min="84" style="0" width="5.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="84" min="84" style="0" width="5.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="85" min="85" style="0" width="5.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="87" min="86" style="0" width="5.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="88" min="88" style="0" width="5.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="89" min="89" style="0" width="5.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="89" min="89" style="0" width="5.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="90" min="90" style="0" width="5.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="91" min="91" style="0" width="6.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="92" min="92" style="0" width="6.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="93" min="93" style="0" width="5.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="93" min="93" style="0" width="5.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="94" min="94" style="0" width="5.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="96" min="95" style="0" width="6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="97" min="97" style="0" width="6.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="98" min="98" style="0" width="5.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="98" min="98" style="0" width="5.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="99" min="99" style="0" width="6.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="100" min="100" style="0" width="5.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="101" min="101" style="0" width="6.28"/>
@@ -10057,8 +10072,8 @@
       <c r="BX105" s="12"/>
       <c r="BY105" s="12"/>
       <c r="BZ105" s="12"/>
-      <c r="CA105" s="12"/>
-      <c r="CB105" s="12"/>
+      <c r="CA105" s="11"/>
+      <c r="CB105" s="11"/>
       <c r="CC105" s="12"/>
       <c r="CD105" s="12"/>
       <c r="CE105" s="12"/>
@@ -10471,8 +10486,8 @@
       <c r="BZ109" s="12"/>
       <c r="CA109" s="12"/>
       <c r="CB109" s="12"/>
-      <c r="CC109" s="12"/>
-      <c r="CD109" s="12"/>
+      <c r="CC109" s="11"/>
+      <c r="CD109" s="11"/>
       <c r="CE109" s="12"/>
       <c r="CF109" s="12"/>
       <c r="CG109" s="12"/>
@@ -10580,8 +10595,8 @@
       <c r="CF110" s="12"/>
       <c r="CG110" s="12"/>
       <c r="CH110" s="12"/>
-      <c r="CI110" s="12"/>
-      <c r="CJ110" s="12"/>
+      <c r="CI110" s="11"/>
+      <c r="CJ110" s="11"/>
       <c r="CK110" s="12"/>
       <c r="CL110" s="12"/>
       <c r="CM110" s="12"/>
@@ -10681,8 +10696,8 @@
       <c r="CD111" s="12"/>
       <c r="CE111" s="12"/>
       <c r="CF111" s="12"/>
-      <c r="CG111" s="12"/>
-      <c r="CH111" s="12"/>
+      <c r="CG111" s="11"/>
+      <c r="CH111" s="11"/>
       <c r="CI111" s="12"/>
       <c r="CJ111" s="12"/>
       <c r="CK111" s="12"/>
@@ -10782,8 +10797,8 @@
       <c r="CB112" s="12"/>
       <c r="CC112" s="12"/>
       <c r="CD112" s="12"/>
-      <c r="CE112" s="12"/>
-      <c r="CF112" s="12"/>
+      <c r="CE112" s="11"/>
+      <c r="CF112" s="11"/>
       <c r="CG112" s="12"/>
       <c r="CH112" s="12"/>
       <c r="CI112" s="12"/>
@@ -10891,9 +10906,9 @@
       <c r="CH113" s="12"/>
       <c r="CI113" s="12"/>
       <c r="CJ113" s="12"/>
-      <c r="CK113" s="12"/>
+      <c r="CK113" s="11"/>
       <c r="CL113" s="12"/>
-      <c r="CM113" s="12"/>
+      <c r="CM113" s="11"/>
       <c r="CN113" s="12"/>
       <c r="CO113" s="12"/>
       <c r="CP113" s="12"/>
@@ -10995,8 +11010,8 @@
       <c r="CI114" s="12"/>
       <c r="CJ114" s="12"/>
       <c r="CK114" s="12"/>
-      <c r="CL114" s="12"/>
-      <c r="CM114" s="12"/>
+      <c r="CL114" s="11"/>
+      <c r="CM114" s="11"/>
       <c r="CN114" s="12"/>
       <c r="CO114" s="12"/>
       <c r="CP114" s="12"/>
@@ -11100,9 +11115,9 @@
       <c r="CK115" s="12"/>
       <c r="CL115" s="12"/>
       <c r="CM115" s="12"/>
-      <c r="CN115" s="12"/>
+      <c r="CN115" s="11"/>
       <c r="CO115" s="12"/>
-      <c r="CP115" s="12"/>
+      <c r="CP115" s="11"/>
       <c r="CQ115" s="12"/>
       <c r="CR115" s="12"/>
       <c r="CS115" s="12"/>
@@ -11204,8 +11219,8 @@
       <c r="CL116" s="12"/>
       <c r="CM116" s="12"/>
       <c r="CN116" s="12"/>
-      <c r="CO116" s="12"/>
-      <c r="CP116" s="12"/>
+      <c r="CO116" s="11"/>
+      <c r="CP116" s="11"/>
       <c r="CQ116" s="12"/>
       <c r="CR116" s="12"/>
       <c r="CS116" s="12"/>
@@ -11309,7 +11324,7 @@
       <c r="CN117" s="12"/>
       <c r="CO117" s="12"/>
       <c r="CP117" s="12"/>
-      <c r="CQ117" s="12"/>
+      <c r="CQ117" s="11"/>
       <c r="CR117" s="12"/>
       <c r="CS117" s="12"/>
       <c r="CT117" s="12"/>
@@ -11412,8 +11427,8 @@
       <c r="CN118" s="12"/>
       <c r="CO118" s="12"/>
       <c r="CP118" s="12"/>
-      <c r="CQ118" s="12"/>
-      <c r="CR118" s="12"/>
+      <c r="CQ118" s="21"/>
+      <c r="CR118" s="11"/>
       <c r="CS118" s="12"/>
       <c r="CT118" s="12"/>
       <c r="CU118" s="12"/>
@@ -11517,7 +11532,7 @@
       <c r="CP119" s="12"/>
       <c r="CQ119" s="12"/>
       <c r="CR119" s="12"/>
-      <c r="CS119" s="12"/>
+      <c r="CS119" s="11"/>
       <c r="CT119" s="12"/>
       <c r="CU119" s="12"/>
       <c r="CV119" s="12"/>
@@ -11621,7 +11636,7 @@
       <c r="CQ120" s="12"/>
       <c r="CR120" s="12"/>
       <c r="CS120" s="12"/>
-      <c r="CT120" s="12"/>
+      <c r="CT120" s="11"/>
       <c r="CU120" s="12"/>
       <c r="CV120" s="12"/>
       <c r="CW120" s="12"/>
@@ -11827,7 +11842,7 @@
       <c r="CQ122" s="12"/>
       <c r="CR122" s="12"/>
       <c r="CS122" s="12"/>
-      <c r="CT122" s="12"/>
+      <c r="CT122" s="11"/>
       <c r="CU122" s="12"/>
       <c r="CV122" s="12"/>
       <c r="CW122" s="12"/>
@@ -11931,7 +11946,7 @@
       <c r="CR123" s="12"/>
       <c r="CS123" s="12"/>
       <c r="CT123" s="12"/>
-      <c r="CU123" s="12"/>
+      <c r="CU123" s="11"/>
       <c r="CV123" s="12"/>
       <c r="CW123" s="12"/>
     </row>
@@ -12136,12 +12151,12 @@
       <c r="CQ125" s="12"/>
       <c r="CR125" s="12"/>
       <c r="CS125" s="12"/>
-      <c r="CT125" s="12"/>
-      <c r="CU125" s="12"/>
+      <c r="CT125" s="11"/>
+      <c r="CU125" s="11"/>
       <c r="CV125" s="12"/>
       <c r="CW125" s="12"/>
     </row>
-    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C126" s="7"/>
       <c r="D126" s="8"/>
       <c r="E126" s="9" t="n">
@@ -12241,10 +12256,10 @@
       <c r="CS126" s="12"/>
       <c r="CT126" s="12"/>
       <c r="CU126" s="12"/>
-      <c r="CV126" s="12"/>
-      <c r="CW126" s="12"/>
-    </row>
-    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="CV126" s="11"/>
+      <c r="CW126" s="11"/>
+    </row>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C127" s="7"/>
       <c r="D127" s="8"/>
       <c r="E127" s="9" t="n">
@@ -12350,7 +12365,7 @@
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C128" s="7"/>
       <c r="D128" s="8"/>
-      <c r="E128" s="9" t="n">
+      <c r="E128" s="22" t="n">
         <f aca="false">E127+1</f>
         <v>87</v>
       </c>
@@ -12450,10 +12465,10 @@
       <c r="CV128" s="12"/>
       <c r="CW128" s="12"/>
     </row>
-    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C129" s="7"/>
       <c r="D129" s="8"/>
-      <c r="E129" s="9" t="n">
+      <c r="E129" s="22" t="n">
         <f aca="false">E128+1</f>
         <v>88</v>
       </c>
@@ -12553,10 +12568,10 @@
       <c r="CV129" s="12"/>
       <c r="CW129" s="12"/>
     </row>
-    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C130" s="7"/>
       <c r="D130" s="8"/>
-      <c r="E130" s="9" t="n">
+      <c r="E130" s="22" t="n">
         <f aca="false">E129+1</f>
         <v>89</v>
       </c>
@@ -12656,10 +12671,10 @@
       <c r="CV130" s="12"/>
       <c r="CW130" s="12"/>
     </row>
-    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C131" s="7"/>
       <c r="D131" s="8"/>
-      <c r="E131" s="9" t="n">
+      <c r="E131" s="22" t="n">
         <f aca="false">E130+1</f>
         <v>90</v>
       </c>
@@ -12761,7 +12776,7 @@
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C132" s="7"/>
-      <c r="D132" s="21" t="s">
+      <c r="D132" s="23" t="s">
         <v>21</v>
       </c>
       <c r="E132" s="10" t="n">
@@ -12865,7 +12880,7 @@
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C133" s="7"/>
-      <c r="D133" s="21"/>
+      <c r="D133" s="23"/>
       <c r="E133" s="10" t="n">
         <f aca="false">E132+1</f>
         <v>2</v>
@@ -12968,7 +12983,7 @@
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C134" s="7"/>
-      <c r="D134" s="21"/>
+      <c r="D134" s="23"/>
       <c r="E134" s="10" t="n">
         <f aca="false">E133+1</f>
         <v>3</v>
@@ -13071,7 +13086,7 @@
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C135" s="7"/>
-      <c r="D135" s="21"/>
+      <c r="D135" s="23"/>
       <c r="E135" s="10" t="n">
         <f aca="false">E134+1</f>
         <v>4</v>
@@ -13174,7 +13189,7 @@
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C136" s="7"/>
-      <c r="D136" s="21"/>
+      <c r="D136" s="23"/>
       <c r="E136" s="9" t="n">
         <f aca="false">E135+1</f>
         <v>5</v>
@@ -13277,23 +13292,23 @@
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C137" s="3"/>
-      <c r="D137" s="22"/>
+      <c r="D137" s="24"/>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C138" s="3"/>
-      <c r="D138" s="22"/>
+      <c r="D138" s="24"/>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C139" s="3"/>
-      <c r="D139" s="22"/>
+      <c r="D139" s="24"/>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C140" s="3"/>
-      <c r="D140" s="22"/>
+      <c r="D140" s="24"/>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C141" s="3"/>
-      <c r="D141" s="22"/>
+      <c r="D141" s="24"/>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C142" s="3"/>
@@ -13331,11 +13346,11 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="28" zoomScaleNormal="28" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -13354,11 +13369,11 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="28" zoomScaleNormal="28" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
